--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3025F-3D5A-4437-A08A-30C60B809485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D99882F-EDF8-4860-92F1-BDA7D3B59A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="376">
   <si>
     <t>Problem</t>
   </si>
@@ -936,6 +936,225 @@
   </si>
   <si>
     <t>Problem Link</t>
+  </si>
+  <si>
+    <t>Alibaba Amazon Apple Bloomberg eBay Facebook Google Microsoft Oracle SAP Uber</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Apple Baidu Bloomberg Cisco eBay Facebook Goldman Sachs Google LinkedIn Microsoft Oracle Samsung Tencent Uber VMware Walmart Labs Yahoo </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-node-in-a-linked-list/</t>
+  </si>
+  <si>
+    <t>Delete Node in a Linked List</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Cisco Google Microsoft Oracle Paypal Qualcomm Vmware</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t>Amazon Apple ByteDance Google Microsoft Salesforce Uber</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/remove-duplicates-from-an-unsorted-linked-list/1</t>
+  </si>
+  <si>
+    <t>Remove duplicates from an unsorted linked list</t>
+  </si>
+  <si>
+    <t>Amazon Intuit</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Bloomberg Microsoft Salesforce</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list-ii/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule/</t>
+  </si>
+  <si>
+    <t>Course Schedule</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/course-schedule-ii/</t>
+  </si>
+  <si>
+    <t>Course Schedule II</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Cohesity eBay Facebook Goldman Sachs Google Intuit LinkedIn Microsoft Nutanix Oracle Paypal Salesforce Uber Yahoo Zenefits</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg DoorDash Facebook Google Intuit Microsoft Nutanix Palantir Technologies Pinterest Square Uber Walmart Labs Zenefits</t>
+  </si>
+  <si>
+    <t>Amazon Facebook Google Microsoft Samsung</t>
+  </si>
+  <si>
+    <t>Subtree of Another Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subtree-of-another-tree/</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Facebook Google LinkedIn Microsoft</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Facebook Google Microsoft Salesforce Uber Vmware</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/invert-binary-tree/</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-length-of-pair-chain/</t>
+  </si>
+  <si>
+    <t>Maximum Length of Pair Chain</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Uber</t>
+  </si>
+  <si>
+    <t>Find the Index of the First Occurrence in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-index-of-the-first-occurrence-in-a-string/</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Dropbox eBay Facebook Google Microsoft Oracle Pocket Gems VMware</t>
+  </si>
+  <si>
+    <t>Minimum Number of Arrows to Burst Balloons</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-number-of-arrows-to-burst-balloons/</t>
+  </si>
+  <si>
+    <t>Amazon Facebook Microsoft Quora</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-pairs/</t>
+  </si>
+  <si>
+    <t>Airbnb Amazon Apple Facebook Google Uber</t>
+  </si>
+  <si>
+    <t>Split a Circular Linked List into two halves</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/split-a-circular-linked-list-into-two-halves/1</t>
+  </si>
+  <si>
+    <t>Yahoo</t>
+  </si>
+  <si>
+    <t>Reverse a Doubly Linked List</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/reverse-a-doubly-linked-list/1</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-duplicate-file-in-system/</t>
+  </si>
+  <si>
+    <t>Find Duplicate File in System</t>
+  </si>
+  <si>
+    <t>Amazon Apple Dropbox Google Twitter Vmware</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-length-of-repeated-subarray/</t>
+  </si>
+  <si>
+    <t>Citadel Indeed Intuit Pinterest</t>
+  </si>
+  <si>
+    <t>Maximum Length of Repeated Subarray</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Microsoft Paypal Snapchat Yahoo Zappos</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-iii/</t>
+  </si>
+  <si>
+    <t>Remove Nth Node From End of List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-nth-node-from-end-of-list/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Cisco Facebook Goldman Sachs Google Microsoft Oracle Yandex</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-nodes-distance-k-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>Accolite Amazon Facebook Google Microsoft Uber Flipkart Goldman Sachs Hike OlaCab Samsung Walmart</t>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/design-circular-queue/</t>
+  </si>
+  <si>
+    <t>Design Circular Queue</t>
+  </si>
+  <si>
+    <t>Airbnb Amazon Citadel Cloudera Facebook Google Microsoft Splunk</t>
+  </si>
+  <si>
+    <t>Maximum Product of Three Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-product-of-three-numbers/</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Cisco Facebook Goldman Sachs Intuit Redfin Symantec</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1187,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -996,12 +1215,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,7 +1262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1066,11 +1279,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1380,27 +1592,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -1420,7 +1632,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -1437,7 +1649,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -1457,7 +1669,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -1474,7 +1686,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -1482,7 +1694,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
@@ -1502,7 +1714,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -1522,7 +1734,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -1542,7 +1754,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -1562,7 +1774,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -1576,7 +1788,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -1596,7 +1808,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -1613,7 +1825,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -1630,7 +1842,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1647,7 +1859,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1664,7 +1876,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -1681,1145 +1893,1230 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="B18" t="s">
+        <v>355</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="12"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>225</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>208</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>227</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="B28" t="s">
+        <v>373</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
+      <c r="A29" s="13"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
+      <c r="A30" s="13"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
+      <c r="A31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
+    <row r="36" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B36" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B37" t="s">
         <v>240</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>180</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>189</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B41" t="s">
         <v>194</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="42" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B42" t="s">
         <v>215</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>217</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B44" t="s">
         <v>220</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B45" t="s">
         <v>300</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>340</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F55" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="12" t="s">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B56" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
+      <c r="D56" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B57" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12" t="s">
+    <row r="58" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B58" t="s">
         <v>196</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B59" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F54" s="9"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="12" t="s">
+      <c r="F59" s="9"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B60" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="12" t="s">
+    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B61" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C61" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
-    </row>
-    <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="11"/>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B67" t="s">
         <v>39</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C67" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F67" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B68" t="s">
         <v>43</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="5" t="s">
+      <c r="D68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B69" t="s">
         <v>45</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="15"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="15"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="15"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="15"/>
+      <c r="D69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F69" s="5"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B75" t="s">
         <v>124</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B76" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="5" t="s">
+      <c r="D76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F76" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="12" t="s">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B77" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="12" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" t="s">
         <v>131</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
-    </row>
-    <row r="76" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="15" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="11"/>
+    </row>
+    <row r="81" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B81" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="15" t="s">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>54</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
         <v>48</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C83" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B84" t="s">
         <v>211</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="15"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="15"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="15"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="15"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="15"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" t="s">
+        <v>310</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" t="s">
+        <v>319</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>352</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" t="s">
+        <v>363</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B99" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F86" s="7" t="s">
+      <c r="D99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="12" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B100" t="s">
         <v>83</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F100" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="12" t="s">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B101" t="s">
         <v>88</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
-      <c r="B89" t="s">
+      <c r="D101" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="11"/>
+      <c r="B102" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="12" t="s">
+      <c r="D102" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B103" t="s">
         <v>92</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C103" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="2" t="s">
+      <c r="D103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
-      <c r="C91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
-      <c r="C92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
-      <c r="C93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
-      <c r="C94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="11"/>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="11"/>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="11"/>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="B107" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="11"/>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="11"/>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B111" t="s">
         <v>277</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C111" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="D111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B112" t="s">
         <v>290</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C112" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B113" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C113" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
+    <row r="114" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B114" t="s">
         <v>284</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C114" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+    <row r="115" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B115" t="s">
+        <v>304</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" t="s">
         <v>287</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="D116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
+    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A117" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B117" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="D117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F117" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B118" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="D118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B119" t="s">
         <v>99</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B120" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" s="2" t="s">
+      <c r="D120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F120" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B121" t="s">
         <v>252</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B122" t="s">
         <v>256</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B107" t="s">
-        <v>260</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B109" t="s">
-        <v>262</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B110" t="s">
-        <v>271</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B111" t="s">
-        <v>282</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B112" t="s">
-        <v>265</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B113" t="s">
-        <v>275</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B114" t="s">
-        <v>294</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="15"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="15"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="15"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B119" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B120" t="s">
-        <v>140</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B121" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B122" t="s">
-        <v>142</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>35</v>
@@ -2828,382 +3125,769 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="12" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>260</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B126" t="s">
+        <v>271</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B127" t="s">
+        <v>282</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B128" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" t="s">
+        <v>275</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" t="s">
+        <v>294</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B131" t="s">
+        <v>328</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B132" t="s">
+        <v>330</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" t="s">
+        <v>366</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="14"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="14"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B138" t="s">
+        <v>135</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B140" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A142" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B142" t="s">
         <v>144</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="2" t="s">
+      <c r="D142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F123" s="8" t="s">
+      <c r="F142" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="12" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B143" t="s">
         <v>150</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A144" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B144" t="s">
         <v>152</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="D144" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F144" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="12" t="s">
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B145" t="s">
         <v>158</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="2" t="s">
+      <c r="D145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F126" s="9"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+      <c r="F145" s="9"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B146" t="s">
         <v>154</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="D146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B147" t="s">
         <v>161</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="12" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B148" t="s">
         <v>164</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="2" t="s">
+      <c r="D148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F148" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="12" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B149" t="s">
         <v>168</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="2" t="s">
+      <c r="D149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B150" t="s">
         <v>173</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="D150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="12" t="s">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B151" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="2" t="s">
+      <c r="D151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="12" t="s">
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B152" t="s">
         <v>183</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="D152" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="12" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B153" t="s">
         <v>187</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E134" s="2" t="s">
+      <c r="D153" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B156" t="s">
+        <v>338</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="B157" t="s">
+        <v>343</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="14"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B161" t="s">
         <v>69</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="11"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="11"/>
+    </row>
+    <row r="164" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B164" t="s">
         <v>110</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C164" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="D164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B165" t="s">
         <v>111</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C165" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B143" t="s">
+      <c r="D165" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="11"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="11"/>
+      <c r="B167" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B168" t="s">
         <v>170</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C168" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E168" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B169" t="s">
         <v>200</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C169" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="D169" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B170" t="s">
         <v>223</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C170" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="D170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F146" s="4" t="s">
+      <c r="F170" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E148" s="2" t="s">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" t="s">
+        <v>359</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="11"/>
+      <c r="E172" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="11"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="11"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B177" t="s">
         <v>296</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="D177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F177" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B178" t="s">
         <v>230</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="2" t="s">
+      <c r="D178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A179" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B179" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="D179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F179" s="7" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="180" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B180" t="s">
+        <v>322</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A181" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B181" t="s">
+        <v>324</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="14"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="14"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3215,97 +3899,122 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C62" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C63" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C64" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C78" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C76" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C77" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C67" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C68" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C69" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C83" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C81" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C82" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C101" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C117" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C137" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C161" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C87" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C86" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C88" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C89" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C90" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C102" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C103" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C51" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C50" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C49" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C140" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C141" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C52" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C36" r:id="rId36" xr:uid="{B596ACA9-02C5-4FB6-B02F-FCB9D63A8B7E}"/>
-    <hyperlink ref="C70" r:id="rId37" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C71" r:id="rId38" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C72" r:id="rId39" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C73" r:id="rId40" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C119" r:id="rId41" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C120" r:id="rId42" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C122" r:id="rId43" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C123" r:id="rId44" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C124" r:id="rId45" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C125" r:id="rId46" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C127" r:id="rId47" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C126" r:id="rId48" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C128" r:id="rId49" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C129" r:id="rId50" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C130" r:id="rId51" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C144" r:id="rId52" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C131" r:id="rId53" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C132" r:id="rId54" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
-    <hyperlink ref="C35" r:id="rId55" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C133" r:id="rId56" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C134" r:id="rId57" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
-    <hyperlink ref="C37" r:id="rId58" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
-    <hyperlink ref="C38" r:id="rId59" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C53" r:id="rId60" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C145" r:id="rId61" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C54" r:id="rId62" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
-    <hyperlink ref="C21" r:id="rId63" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
-    <hyperlink ref="C23" r:id="rId64" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C79" r:id="rId65" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
-    <hyperlink ref="C39" r:id="rId66" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
-    <hyperlink ref="C40" r:id="rId67" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
-    <hyperlink ref="C41" r:id="rId68" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C146" r:id="rId69" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
-    <hyperlink ref="C24" r:id="rId70" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C154" r:id="rId71" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C55" r:id="rId72" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
-    <hyperlink ref="C32" r:id="rId73" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
-    <hyperlink ref="C33" r:id="rId74" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
-    <hyperlink ref="D33" r:id="rId75" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
-    <hyperlink ref="C34" r:id="rId76" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C104" r:id="rId77" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C155" r:id="rId78" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C56" r:id="rId79" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C100" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C99" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C101" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C102" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C103" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C118" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C119" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C56" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C55" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C54" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C164" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C165" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C57" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C39" r:id="rId36" xr:uid="{B596ACA9-02C5-4FB6-B02F-FCB9D63A8B7E}"/>
+    <hyperlink ref="C75" r:id="rId37" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C76" r:id="rId38" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C77" r:id="rId39" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C78" r:id="rId40" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C138" r:id="rId41" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C139" r:id="rId42" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C141" r:id="rId43" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C142" r:id="rId44" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C143" r:id="rId45" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C144" r:id="rId46" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C146" r:id="rId47" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C145" r:id="rId48" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C147" r:id="rId49" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C148" r:id="rId50" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C149" r:id="rId51" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C168" r:id="rId52" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C150" r:id="rId53" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C151" r:id="rId54" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C38" r:id="rId55" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
+    <hyperlink ref="C152" r:id="rId56" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C153" r:id="rId57" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C40" r:id="rId58" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
+    <hyperlink ref="C41" r:id="rId59" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
+    <hyperlink ref="C58" r:id="rId60" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C169" r:id="rId61" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C59" r:id="rId62" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C24" r:id="rId63" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
+    <hyperlink ref="C26" r:id="rId64" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
+    <hyperlink ref="C84" r:id="rId65" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C42" r:id="rId66" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
+    <hyperlink ref="C43" r:id="rId67" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
+    <hyperlink ref="C44" r:id="rId68" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
+    <hyperlink ref="C170" r:id="rId69" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C27" r:id="rId70" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
+    <hyperlink ref="C178" r:id="rId71" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C60" r:id="rId72" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C35" r:id="rId73" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
+    <hyperlink ref="C36" r:id="rId74" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
+    <hyperlink ref="D36" r:id="rId75" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
+    <hyperlink ref="C37" r:id="rId76" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
+    <hyperlink ref="C120" r:id="rId77" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C179" r:id="rId78" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C61" r:id="rId79" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId80" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C105" r:id="rId81" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C106" r:id="rId82" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C107" r:id="rId83" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C109" r:id="rId84" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C112" r:id="rId85" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C108" r:id="rId86" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C110" r:id="rId87" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C113" r:id="rId88" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C96" r:id="rId89" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C98" r:id="rId90" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C111" r:id="rId91" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C99" r:id="rId92" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C100" r:id="rId93" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C97" r:id="rId94" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C114" r:id="rId95" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C153" r:id="rId96" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
-    <hyperlink ref="C42" r:id="rId97" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C121" r:id="rId81" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C122" r:id="rId82" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C123" r:id="rId83" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C125" r:id="rId84" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C128" r:id="rId85" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C124" r:id="rId86" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C126" r:id="rId87" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C129" r:id="rId88" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C111" r:id="rId89" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C113" r:id="rId90" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C127" r:id="rId91" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C114" r:id="rId92" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C116" r:id="rId93" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C112" r:id="rId94" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C130" r:id="rId95" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C177" r:id="rId96" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C45" r:id="rId97" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C115" r:id="rId98" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C85" r:id="rId99" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C86" r:id="rId100" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C87" r:id="rId101" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C89" r:id="rId102" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C88" r:id="rId103" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C180" r:id="rId104" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C181" r:id="rId105" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C46" r:id="rId106" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
+    <hyperlink ref="C131" r:id="rId107" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C132" r:id="rId108" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C133" r:id="rId109" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C156" r:id="rId110" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C47" r:id="rId111" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
+    <hyperlink ref="C157" r:id="rId112" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C48" r:id="rId113" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
+    <hyperlink ref="C90" r:id="rId114" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C91" r:id="rId115" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C18" r:id="rId116" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
+    <hyperlink ref="C171" r:id="rId117" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C49" r:id="rId118" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
+    <hyperlink ref="C92" r:id="rId119" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C134" r:id="rId120" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C107" r:id="rId121" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C28" r:id="rId122" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId123"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72866E7-9397-43CF-9291-1F67009EDE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3BB14-4010-42D0-B752-8620B3CF87D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="517">
   <si>
     <t>Problem</t>
   </si>
@@ -1302,6 +1302,282 @@
   </si>
   <si>
     <t>Task Scheduler</t>
+  </si>
+  <si>
+    <t>Reduce Array Size to The Half</t>
+  </si>
+  <si>
+    <t>Akuna Capital</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reduce-array-size-to-the-half/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-and-say/</t>
+  </si>
+  <si>
+    <t>Count and Say</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Epic Systems Facebook Google Microsoft Oracle</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
+  </si>
+  <si>
+    <t>HashTable</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/happy-number/</t>
+  </si>
+  <si>
+    <t>Adobe Airbnb Amazon Apple Bloomberg Facebook Google caMorgan Microsoft Nutanix Twitter Uber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Cisco Expedia Facebook Google Microsoft Morgan Stanley Oracle Paypal ServiceNow Snapchat Uber Yahoo Yelp Zulily</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/set-mismatch/</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Goldman Sachs Samsung</t>
+  </si>
+  <si>
+    <t>Set Mismatch (Find Missing And Repeating)</t>
+  </si>
+  <si>
+    <t>Integer to Roman</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/integer-to-roman/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Evernote Facebook Google LinkedIn Microsoft Twitter Uber Yahoo</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-complete-tree-nodes/</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Facebook Google Yahoo</t>
+  </si>
+  <si>
+    <t>Reverse Only Letters</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-only-letters/</t>
+  </si>
+  <si>
+    <t>Google Microsoft</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-window-substring/</t>
+  </si>
+  <si>
+    <t>Adobe Airbnb Amazon Apple Bloomberg Cohesity Facebook GoDaddy Goldman Sachs Google LinkedIn Lyft Microsoft Nutanix Snapchat Twitter Uber Visa VMware Walmart Labs Yahoo</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-square-numbers/</t>
+  </si>
+  <si>
+    <t>Sum of Square Numbers</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-mountain-in-array/</t>
+  </si>
+  <si>
+    <t>Longest Mountain in Array</t>
+  </si>
+  <si>
+    <t>Cohesity Google Wish</t>
+  </si>
+  <si>
+    <t>Squares of a Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/squares-of-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple eBay Facebook Google Microsoft Nutanix Twitch Uber VMware Walmart Labs</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg Citadel eBay Expedia Facebook Google Groupon Indeed LinkedIn Microsoft Oracle Qualtrics Quora Tableau Uber VMware Yahoo</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/serialize-and-deserialize-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/continuous-subarray-sum/</t>
+  </si>
+  <si>
+    <t>Continuous Subarray Sum</t>
+  </si>
+  <si>
+    <t>Adobe Affirm Alibaba Amazon Apple Bloomberg Booking.com Docusign eBay Facebook Goldman Sachs Google Hulu Intuit Mathworks Microsoft Nutanix Oracle Qualtrics Salesforce Snapchat Tesla Twilio Uber Visa VMware Walmart Labs Wish Yahoo Yandex Yelp</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Facebook Houzz Microsoft</t>
+  </si>
+  <si>
+    <t>Toeplitz Matrix</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/toeplitz-matrix/</t>
+  </si>
+  <si>
+    <t>Facebook Google</t>
+  </si>
+  <si>
+    <t>Custom Sort String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/custom-sort-string/</t>
+  </si>
+  <si>
+    <t>Amazon Facebook Uber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber/</t>
+  </si>
+  <si>
+    <t>Adobe Airbnb Amazon Apple Bloomberg ByteDance Cisco Expedia Goldman Sachs Google HBO LinkedIn Microsoft Quora Uber Walmart Labs</t>
+  </si>
+  <si>
+    <t>House Robber</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-vowels-of-a-string/</t>
+  </si>
+  <si>
+    <t>Amazon Apple Google</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Cohesity Dell eBay Facebook Goldman Sachs Google Lyft Microsoft Paypal Uber Walmart Labs Yahoo Yandex Zillow</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/online-stock-span/</t>
+  </si>
+  <si>
+    <t>Online Stock Span</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Google Oracle PayTM</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/make-the-string-great/</t>
+  </si>
+  <si>
+    <t>Make The String Great</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/</t>
+  </si>
+  <si>
+    <t>Bloomberg FactSet Google Vmware</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Cisco Cohesity Facebook Google Hulu Microsoft Oracle Uber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string/</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Alibaba Amazon Apple Bloomberg Cisco Citadel Facebook Huawei Microsoft Nvidia Oracle Salesforce Snapchat Walmart Labs Yandex Yelp Zillow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/duplicate-zeros/</t>
+  </si>
+  <si>
+    <t>Duplicate Zeros</t>
+  </si>
+  <si>
+    <t>Boats to Save People</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/boats-to-save-people/</t>
+  </si>
+  <si>
+    <t>Amazon FactSet Google</t>
+  </si>
+  <si>
+    <t>Guess Number Higher or Lower</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/guess-number-higher-or-lower/</t>
+  </si>
+  <si>
+    <t>Apple Facebook Microsoft Nvidia</t>
+  </si>
+  <si>
+    <t>Rectangle Area</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rectangle-area</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/can-place-flowers/</t>
+  </si>
+  <si>
+    <t>Can Place Flowers</t>
+  </si>
+  <si>
+    <t>Amazon Cisco LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -1722,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F196"/>
+  <dimension ref="A1:F225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D170" sqref="D170"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E189" sqref="E189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2057,421 +2333,440 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
-      <c r="C20" s="1"/>
+      <c r="A19" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>459</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
+      <c r="A21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>466</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
-        <v>411</v>
+      <c r="A23" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>413</v>
+        <v>487</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>411</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>416</v>
+        <v>498</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>415</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
-        <v>411</v>
+      <c r="A25" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="s">
+        <v>505</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="11"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="11"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="11" t="s">
-        <v>202</v>
+      <c r="A29" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>412</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>128</v>
+        <v>413</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>203</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="11" t="s">
-        <v>202</v>
+      <c r="A30" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="B30" t="s">
-        <v>222</v>
-      </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="11" t="s">
-        <v>202</v>
+        <v>416</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>411</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>204</v>
+        <v>452</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B32" t="s">
-        <v>224</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" t="s">
-        <v>370</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B34" t="s">
-        <v>386</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="12"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="12"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B35" t="s">
-        <v>400</v>
+        <v>127</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>399</v>
+        <v>128</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>202</v>
       </c>
       <c r="B36" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
+        <v>370</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B42" t="s">
         <v>420</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-    </row>
-    <row r="40" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" t="s">
-        <v>237</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
-        <v>118</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>454</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>176</v>
+        <v>453</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
-        <v>118</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>202</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>512</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>119</v>
+        <v>513</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B45" t="s">
-        <v>186</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" t="s">
-        <v>191</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" t="s">
-        <v>212</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
+    </row>
+    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A48" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>215</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>8</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B50" t="s">
-        <v>297</v>
+        <v>237</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>177</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B52" t="s">
-        <v>337</v>
+        <v>186</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>338</v>
+        <v>187</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>339</v>
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2479,36 +2774,33 @@
         <v>118</v>
       </c>
       <c r="B53" t="s">
-        <v>343</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="17" t="s">
         <v>118</v>
       </c>
       <c r="B54" t="s">
-        <v>358</v>
+        <v>212</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>359</v>
+        <v>211</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>357</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,1792 +2808,2304 @@
         <v>118</v>
       </c>
       <c r="B55" t="s">
+        <v>214</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>217</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>337</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>343</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" t="s">
+        <v>358</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" t="s">
         <v>418</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="13" t="s">
+      <c r="D62" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" t="s">
+        <v>429</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>447</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
+        <v>480</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" t="s">
+        <v>490</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>495</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>494</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B69" t="s">
+        <v>502</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="17"/>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="17"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C74" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="13" t="s">
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B75" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F75" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="13" t="s">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B76" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C76" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="13" t="s">
+      <c r="D76" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B77" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13" t="s">
+    <row r="78" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B78" t="s">
         <v>193</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A64" s="13" t="s">
+    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B79" t="s">
         <v>201</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C79" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F64" s="9"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B65" t="s">
-        <v>230</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B66" t="s">
-        <v>244</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-    </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72" t="s">
-        <v>39</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F74" s="5"/>
-    </row>
-    <row r="75" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75" t="s">
-        <v>381</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="10"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="10"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="10"/>
+      <c r="F79" s="9"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>12</v>
+      <c r="E81" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B82" t="s">
-        <v>127</v>
+        <v>471</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>128</v>
+        <v>472</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>12</v>
+        <v>473</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B83" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>132</v>
-      </c>
+      <c r="A83" s="13"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="13"/>
     </row>
-    <row r="86" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" t="s">
-        <v>50</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+    </row>
+    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F88" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>303</v>
+        <v>380</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B91" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>306</v>
+        <v>510</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B92" t="s">
-        <v>309</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>311</v>
-      </c>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="10"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B93" t="s">
-        <v>316</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" t="s">
-        <v>313</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="A93" s="10"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="10" t="s">
-        <v>46</v>
+      <c r="A95" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="B95" t="s">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>347</v>
+        <v>122</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>348</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
-        <v>46</v>
+      <c r="A96" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="B96" t="s">
-        <v>349</v>
+        <v>124</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>350</v>
+        <v>125</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="10" t="s">
-        <v>46</v>
+      <c r="F96" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>360</v>
+        <v>127</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>361</v>
+        <v>128</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F97" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
-        <v>46</v>
+      <c r="A98" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>383</v>
+        <v>130</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>384</v>
+        <v>131</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>385</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" t="s">
-        <v>402</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B100" t="s">
-        <v>405</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+    </row>
+    <row r="101" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B101" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>54</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" t="s">
+        <v>316</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>313</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>346</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>349</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>360</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B113" t="s">
+        <v>383</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B115" t="s">
+        <v>405</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B116" t="s">
         <v>409</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="2" t="s">
+      <c r="D116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="10"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="10"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="13" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="10"/>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="10"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B120" t="s">
         <v>87</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C120" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F105" s="7" t="s">
+      <c r="D120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B121" t="s">
         <v>83</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F121" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="13" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B122" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C122" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
-      <c r="B108" t="s">
+      <c r="D122" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
         <v>90</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C123" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="13" t="s">
+      <c r="D123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A124" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B124" t="s">
         <v>92</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C124" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="D124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
-      <c r="C111" s="3"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="C112" s="3"/>
-    </row>
-    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="13" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="13"/>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B128" t="s">
         <v>368</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="2" t="s">
+      <c r="D128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
-      <c r="C114" s="3"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
-      <c r="C115" s="3"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C116" s="3"/>
-    </row>
-    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B117" t="s">
-        <v>274</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B118" t="s">
-        <v>287</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B119" t="s">
-        <v>277</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B120" t="s">
-        <v>281</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B121" t="s">
-        <v>301</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B122" t="s">
-        <v>284</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A123" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B123" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B124" t="s">
-        <v>96</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B125" t="s">
-        <v>99</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B126" t="s">
-        <v>238</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B127" t="s">
-        <v>249</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B128" t="s">
-        <v>253</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B131" t="s">
-        <v>259</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B132" t="s">
-        <v>268</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>261</v>
+        <v>277</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>276</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B135" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>291</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B137" t="s">
-        <v>325</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>326</v>
+        <v>284</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>327</v>
+        <v>59</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>328</v>
+        <v>60</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>364</v>
+        <v>98</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B141" t="s">
+        <v>238</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B142" t="s">
+        <v>249</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" t="s">
+        <v>253</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" t="s">
+        <v>259</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B147" t="s">
+        <v>268</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B148" t="s">
+        <v>279</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" t="s">
+        <v>262</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B150" t="s">
+        <v>272</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B151" t="s">
+        <v>291</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B152" t="s">
+        <v>325</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B153" t="s">
+        <v>327</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" t="s">
+        <v>331</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B155" t="s">
+        <v>363</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B156" t="s">
         <v>374</v>
       </c>
-      <c r="C141" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="D156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="10"/>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="10"/>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="10"/>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="10"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B147" t="s">
-        <v>134</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B148" t="s">
-        <v>139</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B149" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B150" t="s">
-        <v>141</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A151" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B151" t="s">
-        <v>143</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F151" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B152" t="s">
-        <v>148</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B153" t="s">
-        <v>150</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B154" t="s">
-        <v>156</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F154" s="9"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B155" t="s">
-        <v>152</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A156" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B156" t="s">
-        <v>159</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="13" t="s">
-        <v>133</v>
+    <row r="157" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B157" t="s">
-        <v>162</v>
+        <v>444</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>35</v>
+        <v>445</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="13" t="s">
-        <v>133</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="B158" t="s">
-        <v>166</v>
+        <v>463</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>165</v>
+        <v>464</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A159" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B159" t="s">
-        <v>171</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B160" t="s">
-        <v>173</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B161" t="s">
-        <v>180</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="10"/>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="10"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B162" t="s">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="10" t="s">
-        <v>333</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B163" t="s">
+        <v>139</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B165" t="s">
-        <v>335</v>
+        <v>141</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>334</v>
+        <v>140</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="10" t="s">
-        <v>333</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>340</v>
+        <v>143</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>341</v>
+        <v>144</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
-        <v>333</v>
+        <v>382</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>377</v>
+        <v>148</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>378</v>
+        <v>146</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="10" t="s">
-        <v>333</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B168" t="s">
-        <v>392</v>
+        <v>150</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>393</v>
+        <v>149</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="10" t="s">
-        <v>333</v>
+        <v>151</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A169" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B169" t="s">
-        <v>397</v>
+        <v>156</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>396</v>
+        <v>155</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A170" s="10" t="s">
-        <v>333</v>
+        <v>157</v>
+      </c>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="13" t="s">
+        <v>133</v>
       </c>
       <c r="B170" t="s">
-        <v>424</v>
+        <v>152</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>423</v>
+        <v>153</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="10"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" t="s">
+        <v>159</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B172" t="s">
+        <v>162</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="13" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B173" t="s">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>70</v>
+        <v>165</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="13"/>
-    </row>
-    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B174" t="s">
+        <v>171</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B175" t="s">
+        <v>173</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B176" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
       <c r="B177" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
-      <c r="B179" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="13" t="s">
-        <v>68</v>
+      <c r="E177" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="B180" t="s">
-        <v>168</v>
+        <v>335</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>169</v>
+        <v>334</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>167</v>
+        <v>336</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="13" t="s">
-        <v>68</v>
+      <c r="A181" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="B181" t="s">
-        <v>197</v>
+        <v>340</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="13" t="s">
-        <v>68</v>
+      <c r="A182" s="10" t="s">
+        <v>333</v>
       </c>
       <c r="B182" t="s">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>219</v>
+        <v>378</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F182" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" t="s">
+        <v>392</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B184" t="s">
+        <v>397</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B185" t="s">
+        <v>424</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B186" t="s">
+        <v>425</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A187" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B187" t="s">
+        <v>120</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F187" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B183" t="s">
-        <v>356</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B184" t="s">
-        <v>389</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="13"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B188" t="s">
+        <v>506</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B189" t="s">
+        <v>515</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="10"/>
+    </row>
+    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A192" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B192" t="s">
+        <v>431</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B193" t="s">
+        <v>436</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B194" t="s">
+        <v>440</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B195" t="s">
+        <v>441</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A196" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B196" t="s">
+        <v>468</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B197" t="s">
+        <v>474</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B200" t="s">
+        <v>69</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="10"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="10"/>
+    </row>
+    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B203" t="s">
+        <v>110</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B204" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="10"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="10"/>
+      <c r="B206" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B207" t="s">
+        <v>168</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B208" t="s">
+        <v>197</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B209" t="s">
+        <v>220</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B210" t="s">
+        <v>356</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B211" t="s">
+        <v>389</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A212" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B212" t="s">
+        <v>479</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="10"/>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="10"/>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="10"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B218" t="s">
         <v>293</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="D218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F218" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="10" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B219" t="s">
         <v>227</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E190" s="2" t="s">
+      <c r="D219" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
+    <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A220" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B220" t="s">
         <v>242</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="D220" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F220" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
+    <row r="221" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B221" t="s">
         <v>319</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="D221" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="10" t="s">
+    <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A222" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B222" t="s">
         <v>321</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="2" t="s">
+      <c r="D222" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="10"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="10"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="10"/>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="13"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="13"/>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4313,139 +5117,171 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C72" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C73" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C74" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C88" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C86" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C87" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C87" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C88" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C89" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C103" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C101" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C102" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C123" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C138" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C173" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C200" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C106" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C105" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C107" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C108" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C109" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C124" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C125" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C61" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C60" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C59" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C176" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C177" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C62" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C44" r:id="rId36" xr:uid="{B596ACA9-02C5-4FB6-B02F-FCB9D63A8B7E}"/>
-    <hyperlink ref="C80" r:id="rId37" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C81" r:id="rId38" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C82" r:id="rId39" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C83" r:id="rId40" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C147" r:id="rId41" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C148" r:id="rId42" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C150" r:id="rId43" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C151" r:id="rId44" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C152" r:id="rId45" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C153" r:id="rId46" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C155" r:id="rId47" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C154" r:id="rId48" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C156" r:id="rId49" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C157" r:id="rId50" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C158" r:id="rId51" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C180" r:id="rId52" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C159" r:id="rId53" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C160" r:id="rId54" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
-    <hyperlink ref="C43" r:id="rId55" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C161" r:id="rId56" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C162" r:id="rId57" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
-    <hyperlink ref="C45" r:id="rId58" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
-    <hyperlink ref="C46" r:id="rId59" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C63" r:id="rId60" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C181" r:id="rId61" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C64" r:id="rId62" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
-    <hyperlink ref="C29" r:id="rId63" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
-    <hyperlink ref="C31" r:id="rId64" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C89" r:id="rId65" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
-    <hyperlink ref="C47" r:id="rId66" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
-    <hyperlink ref="C48" r:id="rId67" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
-    <hyperlink ref="C49" r:id="rId68" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C182" r:id="rId69" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
-    <hyperlink ref="C32" r:id="rId70" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C190" r:id="rId71" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C65" r:id="rId72" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
-    <hyperlink ref="C40" r:id="rId73" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
-    <hyperlink ref="C41" r:id="rId74" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
-    <hyperlink ref="D41" r:id="rId75" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
-    <hyperlink ref="C42" r:id="rId76" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C126" r:id="rId77" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C191" r:id="rId78" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C66" r:id="rId79" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
-    <hyperlink ref="C17" r:id="rId80" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C127" r:id="rId81" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C128" r:id="rId82" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C129" r:id="rId83" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C131" r:id="rId84" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C134" r:id="rId85" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C130" r:id="rId86" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C132" r:id="rId87" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C135" r:id="rId88" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C117" r:id="rId89" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C119" r:id="rId90" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C133" r:id="rId91" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C120" r:id="rId92" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C122" r:id="rId93" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C118" r:id="rId94" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C136" r:id="rId95" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C189" r:id="rId96" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
-    <hyperlink ref="C50" r:id="rId97" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C121" r:id="rId98" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
-    <hyperlink ref="C90" r:id="rId99" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
-    <hyperlink ref="C91" r:id="rId100" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
-    <hyperlink ref="C92" r:id="rId101" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
-    <hyperlink ref="C94" r:id="rId102" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
-    <hyperlink ref="C93" r:id="rId103" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C192" r:id="rId104" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C193" r:id="rId105" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
-    <hyperlink ref="C51" r:id="rId106" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C137" r:id="rId107" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C138" r:id="rId108" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C139" r:id="rId109" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C165" r:id="rId110" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
-    <hyperlink ref="C52" r:id="rId111" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C166" r:id="rId112" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
-    <hyperlink ref="C53" r:id="rId113" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
-    <hyperlink ref="C95" r:id="rId114" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
-    <hyperlink ref="C96" r:id="rId115" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
-    <hyperlink ref="C18" r:id="rId116" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C183" r:id="rId117" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
-    <hyperlink ref="C54" r:id="rId118" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
-    <hyperlink ref="C97" r:id="rId119" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C140" r:id="rId120" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C113" r:id="rId121" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
-    <hyperlink ref="C33" r:id="rId122" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C141" r:id="rId123" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C167" r:id="rId124" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
-    <hyperlink ref="C75" r:id="rId125" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
-    <hyperlink ref="C98" r:id="rId126" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
-    <hyperlink ref="C34" r:id="rId127" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C184" r:id="rId128" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C168" r:id="rId129" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C169" r:id="rId130" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
-    <hyperlink ref="C35" r:id="rId131" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
-    <hyperlink ref="C99" r:id="rId132" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
-    <hyperlink ref="C100" r:id="rId133" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
-    <hyperlink ref="C101" r:id="rId134" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
-    <hyperlink ref="C23" r:id="rId135" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
-    <hyperlink ref="C24" r:id="rId136" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
-    <hyperlink ref="C55" r:id="rId137" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
-    <hyperlink ref="C36" r:id="rId138" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C170" r:id="rId139" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C121" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C120" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C122" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C123" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C124" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C139" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C140" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C76" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C75" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C74" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C203" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C204" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C77" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C95" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C96" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C97" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C98" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C162" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C163" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C165" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C166" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C167" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C168" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C170" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C169" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C171" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C172" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C173" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C207" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C174" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C175" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C51" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
+    <hyperlink ref="C176" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C177" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C52" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
+    <hyperlink ref="C53" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
+    <hyperlink ref="C78" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C208" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C79" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C35" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
+    <hyperlink ref="C37" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
+    <hyperlink ref="C104" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C54" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
+    <hyperlink ref="C55" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
+    <hyperlink ref="C56" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
+    <hyperlink ref="C209" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C38" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
+    <hyperlink ref="C219" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C80" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C48" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
+    <hyperlink ref="C49" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
+    <hyperlink ref="D49" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
+    <hyperlink ref="C50" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
+    <hyperlink ref="C141" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C220" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C81" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
+    <hyperlink ref="C142" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C143" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C144" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C146" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C149" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C145" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C147" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C150" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C132" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C134" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C148" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C135" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C137" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C133" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C151" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C218" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C57" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C136" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C105" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C106" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C107" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C109" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C108" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C221" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C222" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C58" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
+    <hyperlink ref="C152" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C153" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C154" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C180" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C59" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
+    <hyperlink ref="C181" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C60" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
+    <hyperlink ref="C110" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C111" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C18" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
+    <hyperlink ref="C210" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C61" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
+    <hyperlink ref="C112" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C155" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C128" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C39" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
+    <hyperlink ref="C156" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C182" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C90" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
+    <hyperlink ref="C113" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
+    <hyperlink ref="C40" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
+    <hyperlink ref="C211" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C183" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C184" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C41" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
+    <hyperlink ref="C114" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
+    <hyperlink ref="C115" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
+    <hyperlink ref="C116" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
+    <hyperlink ref="C29" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
+    <hyperlink ref="C30" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
+    <hyperlink ref="C62" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
+    <hyperlink ref="C42" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
+    <hyperlink ref="C185" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C186" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C187" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C63" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
+    <hyperlink ref="C192" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C193" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C194" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C195" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C157" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C64" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
+    <hyperlink ref="C31" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
+    <hyperlink ref="C43" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
+    <hyperlink ref="C19" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
+    <hyperlink ref="C20" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
+    <hyperlink ref="C158" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C21" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
+    <hyperlink ref="C196" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C82" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
+    <hyperlink ref="C197" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C212" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C65" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
+    <hyperlink ref="C22" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
+    <hyperlink ref="C23" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
+    <hyperlink ref="C125" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C66" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
+    <hyperlink ref="C68" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
+    <hyperlink ref="C67" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
+    <hyperlink ref="C24" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
+    <hyperlink ref="C69" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
+    <hyperlink ref="C25" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
+    <hyperlink ref="C188" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C91" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
+    <hyperlink ref="C44" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
+    <hyperlink ref="C189" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId140"/>
+  <pageSetup orientation="portrait" r:id="rId172"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F3BB14-4010-42D0-B752-8620B3CF87D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B0356E-047A-4565-99D7-8D5C58B13CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="527">
   <si>
     <t>Problem</t>
   </si>
@@ -1578,6 +1578,36 @@
   </si>
   <si>
     <t>Amazon Cisco LinkedIn</t>
+  </si>
+  <si>
+    <t>Valid Sudoku</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-sudoku/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Cruise Automation DoorDash Facebook Google Microsoft Oracle Pinterest Salesforce Snapchat Twitter Uber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/determine-if-string-halves-are-alike/</t>
+  </si>
+  <si>
+    <t>Determine if String Halves Are Alike</t>
+  </si>
+  <si>
+    <t>Unique Number of Occurrences</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/unique-number-of-occurrences/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-characters-by-frequency/</t>
+  </si>
+  <si>
+    <t>Sort Characters By Frequency</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Expedia Facebook Google LinkedIn Uber Yahoo</t>
   </si>
 </sst>
 </file>
@@ -1998,10 +2028,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F225"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E189" sqref="E189"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3059,242 +3089,269 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="C70" s="1"/>
+      <c r="A70" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" t="s">
+        <v>521</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A75" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A71" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>522</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" t="s">
+        <v>525</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="17"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>103</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F79" s="9"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>101</v>
       </c>
       <c r="B82" t="s">
+        <v>230</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B83" t="s">
+        <v>244</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" t="s">
         <v>471</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-    </row>
-    <row r="87" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B87" t="s">
-        <v>39</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B88" t="s">
-        <v>43</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>517</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+    </row>
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F89" s="5"/>
-    </row>
-    <row r="90" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>379</v>
+      <c r="F90" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -3302,76 +3359,71 @@
         <v>38</v>
       </c>
       <c r="B91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" t="s">
+        <v>381</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
         <v>509</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="10"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="10"/>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="10"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" t="s">
-        <v>123</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B96" t="s">
-        <v>124</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F96" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A95" s="10"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F97" s="5" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -3379,104 +3431,107 @@
         <v>121</v>
       </c>
       <c r="B98" t="s">
+        <v>124</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
         <v>130</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
-    </row>
-    <row r="101" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B101" t="s">
-        <v>50</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B102" t="s">
-        <v>54</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+    </row>
+    <row r="103" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B104" t="s">
-        <v>208</v>
+        <v>54</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B105" t="s">
-        <v>304</v>
+        <v>48</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>305</v>
+        <v>47</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3484,64 +3539,67 @@
         <v>46</v>
       </c>
       <c r="B106" t="s">
-        <v>307</v>
+        <v>208</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B107" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B109" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -3549,16 +3607,13 @@
         <v>46</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>316</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>35</v>
+        <v>317</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -3566,36 +3621,33 @@
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>350</v>
+        <v>312</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>12</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3603,33 +3655,36 @@
         <v>46</v>
       </c>
       <c r="B113" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>404</v>
+        <v>362</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -3637,16 +3692,16 @@
         <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -3654,246 +3709,246 @@
         <v>46</v>
       </c>
       <c r="B116" t="s">
+        <v>402</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B117" t="s">
+        <v>405</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
         <v>409</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" s="2" t="s">
+      <c r="D118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="10"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="10"/>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="10"/>
+      <c r="C119" s="1"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B120" t="s">
-        <v>87</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F121" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A120" s="10"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B122" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B123" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>92</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B125" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A126" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B127" t="s">
         <v>489</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C127" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="D127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
-      <c r="C126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
-      <c r="C127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B128" t="s">
-        <v>368</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>369</v>
-      </c>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="13"/>
       <c r="C129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
-      <c r="C130" s="3"/>
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B130" t="s">
+        <v>368</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A132" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B132" t="s">
-        <v>274</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>273</v>
-      </c>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B133" t="s">
-        <v>287</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3901,90 +3956,87 @@
         <v>58</v>
       </c>
       <c r="B137" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>60</v>
+        <v>301</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>96</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>95</v>
+        <v>284</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3992,33 +4044,36 @@
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B143" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>6</v>
+        <v>252</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4026,118 +4081,118 @@
         <v>58</v>
       </c>
       <c r="B144" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>264</v>
+      <c r="B145" t="s">
+        <v>253</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B147" t="s">
-        <v>268</v>
+      <c r="B147" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B150" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
@@ -4145,181 +4200,190 @@
         <v>58</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B152" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B154" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B155" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B156" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B157" t="s">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>445</v>
+        <v>364</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B158" t="s">
+        <v>374</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B159" t="s">
+        <v>444</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B160" t="s">
         <v>463</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="D160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="10"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="10"/>
+    <row r="161" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="10"/>
+      <c r="C161" s="1"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B162" t="s">
-        <v>134</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B163" t="s">
-        <v>139</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A162" s="10"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B164" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4327,36 +4391,24 @@
         <v>133</v>
       </c>
       <c r="B165" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>143</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F166" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4364,71 +4416,73 @@
         <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B168" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B169" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F169" s="9"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B170" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4436,70 +4490,71 @@
         <v>133</v>
       </c>
       <c r="B171" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F171" s="9"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B172" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B173" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B174" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -4507,16 +4562,16 @@
         <v>133</v>
       </c>
       <c r="B175" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4524,16 +4579,16 @@
         <v>133</v>
       </c>
       <c r="B176" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4541,50 +4596,50 @@
         <v>133</v>
       </c>
       <c r="B177" t="s">
+        <v>173</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B178" t="s">
+        <v>180</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B179" t="s">
         <v>184</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="2" t="s">
+      <c r="D179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B180" t="s">
-        <v>335</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B181" t="s">
-        <v>340</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4592,16 +4647,16 @@
         <v>333</v>
       </c>
       <c r="B182" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4609,16 +4664,16 @@
         <v>333</v>
       </c>
       <c r="B183" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4626,33 +4681,33 @@
         <v>333</v>
       </c>
       <c r="B184" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>333</v>
       </c>
       <c r="B185" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4660,16 +4715,16 @@
         <v>333</v>
       </c>
       <c r="B186" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4677,19 +4732,16 @@
         <v>333</v>
       </c>
       <c r="B187" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>119</v>
+        <v>423</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F187" s="5" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4697,192 +4749,200 @@
         <v>333</v>
       </c>
       <c r="B188" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>333</v>
       </c>
       <c r="B189" t="s">
+        <v>120</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B190" t="s">
+        <v>506</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B191" t="s">
         <v>515</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="D191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="10"/>
-    </row>
-    <row r="192" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A192" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B192" t="s">
-        <v>431</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B193" t="s">
-        <v>436</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="10"/>
+    </row>
+    <row r="194" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B194" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B195" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B196" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B197" t="s">
+        <v>441</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A198" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B198" t="s">
+        <v>468</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B199" t="s">
         <v>474</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C199" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="D199" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
-    </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B200" t="s">
-        <v>69</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A200" s="13"/>
+      <c r="C200" s="1"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="10"/>
+      <c r="A201" s="13"/>
+      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="10"/>
-    </row>
-    <row r="203" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A203" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B203" t="s">
-        <v>110</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>113</v>
-      </c>
+      <c r="A202" s="13"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B204" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
@@ -4890,22 +4950,22 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="10"/>
-      <c r="B206" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B207" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>169</v>
+        <v>109</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
@@ -4913,199 +4973,236 @@
         <v>68</v>
       </c>
       <c r="B208" t="s">
-        <v>197</v>
+        <v>111</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>196</v>
+        <v>112</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B209" t="s">
-        <v>220</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A209" s="10"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="10" t="s">
-        <v>68</v>
-      </c>
+      <c r="A210" s="10"/>
       <c r="B210" t="s">
-        <v>356</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B211" t="s">
-        <v>389</v>
+        <v>168</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B212" t="s">
+        <v>197</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B213" t="s">
+        <v>220</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B214" t="s">
+        <v>356</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B215" t="s">
+        <v>389</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A216" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B216" t="s">
         <v>479</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C216" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E212" s="2" t="s">
+      <c r="D216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="10"/>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="10"/>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="10"/>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="10"/>
+      <c r="C217" s="1"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B218" t="s">
-        <v>293</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A218" s="10"/>
+      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B219" t="s">
-        <v>227</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A220" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B220" t="s">
-        <v>242</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F220" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B221" t="s">
-        <v>319</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A219" s="10"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B222" t="s">
+        <v>293</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>227</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>242</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225" t="s">
+        <v>319</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A226" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
         <v>321</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E222" s="2" t="s">
+      <c r="D226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="13"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="13"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="13"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="13"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="13"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5117,171 +5214,175 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C87" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C88" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C89" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C103" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C101" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C102" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C89" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C90" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C91" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C105" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C103" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C104" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C138" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C140" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C200" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C204" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C121" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C120" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C122" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C123" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C124" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C139" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C140" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C76" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C75" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C74" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C203" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C204" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C77" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C95" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C96" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C97" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C98" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C162" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C163" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C165" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C166" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C167" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C168" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C170" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C169" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C171" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C172" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C173" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C207" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C174" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C175" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C123" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C122" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C124" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C125" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C126" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C141" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C142" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C78" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C77" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C76" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C207" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C208" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C79" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C97" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C98" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C99" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C100" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C164" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C165" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C167" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C168" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C169" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C170" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C172" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C171" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C173" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C174" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C175" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C211" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C176" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C177" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
     <hyperlink ref="C51" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C176" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C177" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C178" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C179" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
     <hyperlink ref="C52" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
     <hyperlink ref="C53" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C78" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C208" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C79" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C80" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C212" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C81" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
     <hyperlink ref="C35" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
     <hyperlink ref="C37" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C104" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C106" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
     <hyperlink ref="C54" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
     <hyperlink ref="C55" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
     <hyperlink ref="C56" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C209" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C213" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
     <hyperlink ref="C38" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C219" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C80" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C223" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C82" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
     <hyperlink ref="C48" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
     <hyperlink ref="C49" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
     <hyperlink ref="D49" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
     <hyperlink ref="C50" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C141" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C220" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C81" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C143" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C224" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C83" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C142" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C143" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C144" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C146" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C149" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C145" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C147" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C150" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C132" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C134" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C148" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C135" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C137" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C133" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C151" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C218" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C144" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C145" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C146" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C148" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C151" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C147" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C149" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C152" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C134" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C136" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C150" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C137" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C139" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C135" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C153" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C222" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
     <hyperlink ref="C57" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C136" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
-    <hyperlink ref="C105" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
-    <hyperlink ref="C106" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
-    <hyperlink ref="C107" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
-    <hyperlink ref="C109" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
-    <hyperlink ref="C108" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C221" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C222" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C138" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C107" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C108" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C109" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C111" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C110" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C225" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C226" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
     <hyperlink ref="C58" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C152" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C153" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C154" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C180" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C154" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C155" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C156" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C182" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
     <hyperlink ref="C59" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C181" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C183" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
     <hyperlink ref="C60" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
-    <hyperlink ref="C110" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
-    <hyperlink ref="C111" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C112" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C113" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
     <hyperlink ref="C18" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C210" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C214" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
     <hyperlink ref="C61" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
-    <hyperlink ref="C112" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C155" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C128" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C114" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C157" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C130" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
     <hyperlink ref="C39" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C156" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C182" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
-    <hyperlink ref="C90" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
-    <hyperlink ref="C113" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
+    <hyperlink ref="C158" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C184" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C92" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
+    <hyperlink ref="C115" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
     <hyperlink ref="C40" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C211" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C183" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C184" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C215" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C185" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C186" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
     <hyperlink ref="C41" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
-    <hyperlink ref="C114" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
-    <hyperlink ref="C115" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
-    <hyperlink ref="C116" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
+    <hyperlink ref="C116" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
+    <hyperlink ref="C117" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
+    <hyperlink ref="C118" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
     <hyperlink ref="C29" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
     <hyperlink ref="C30" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
     <hyperlink ref="C62" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
     <hyperlink ref="C42" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C185" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C186" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C187" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C187" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C188" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C189" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
     <hyperlink ref="C63" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C192" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C193" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C194" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C195" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C157" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C194" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C195" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C196" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C197" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C159" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
     <hyperlink ref="C64" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
     <hyperlink ref="C31" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
     <hyperlink ref="C43" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
     <hyperlink ref="C19" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
     <hyperlink ref="C20" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C158" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C160" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
     <hyperlink ref="C21" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C196" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
-    <hyperlink ref="C82" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C197" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C212" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C198" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C84" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
+    <hyperlink ref="C199" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C216" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
     <hyperlink ref="C65" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
     <hyperlink ref="C22" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
     <hyperlink ref="C23" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
-    <hyperlink ref="C125" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C127" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
     <hyperlink ref="C66" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
     <hyperlink ref="C68" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
     <hyperlink ref="C67" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
     <hyperlink ref="C24" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
     <hyperlink ref="C69" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
     <hyperlink ref="C25" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C188" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
-    <hyperlink ref="C91" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
+    <hyperlink ref="C190" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C93" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
     <hyperlink ref="C44" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C189" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C191" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C85" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
+    <hyperlink ref="C70" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
+    <hyperlink ref="C71" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
+    <hyperlink ref="C72" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId172"/>
+  <pageSetup orientation="portrait" r:id="rId176"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B0356E-047A-4565-99D7-8D5C58B13CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04257BE-63A6-41FD-BB08-D2D9E7920C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="533">
   <si>
     <t>Problem</t>
   </si>
@@ -1608,6 +1608,24 @@
   </si>
   <si>
     <t>Amazon Bloomberg Expedia Facebook Google LinkedIn Uber Yahoo</t>
+  </si>
+  <si>
+    <t>Odd Even Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/odd-even-linked-list/description/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Cisco Microsoft Samsung Walmart Labs</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Capital One Facebook Google Microsoft</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/middle-of-the-linked-list/</t>
+  </si>
+  <si>
+    <t>Middle of the Linked List</t>
   </si>
 </sst>
 </file>
@@ -2028,10 +2046,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F229"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3755,234 +3773,233 @@
         <v>408</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="10"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>532</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>527</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="10"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B122" t="s">
-        <v>87</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B123" t="s">
-        <v>83</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="A122" s="10"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>82</v>
       </c>
       <c r="B126" t="s">
-        <v>92</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
+        <v>92</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B129" t="s">
         <v>489</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C129" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="D129" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
-      <c r="C128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="C129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="B130" t="s">
-        <v>368</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>369</v>
-      </c>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="C131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
-      <c r="C132" s="3"/>
+    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B132" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
       <c r="C133" s="3"/>
     </row>
-    <row r="134" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A134" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" t="s">
-        <v>274</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>273</v>
-      </c>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="13"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B135" t="s">
-        <v>287</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B137" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B138" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>300</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -3990,90 +4007,87 @@
         <v>58</v>
       </c>
       <c r="B139" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B140" t="s">
-        <v>59</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>60</v>
+        <v>301</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>302</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B141" t="s">
-        <v>96</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>95</v>
+        <v>284</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B142" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B143" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -4081,334 +4095,346 @@
         <v>58</v>
       </c>
       <c r="B144" t="s">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>252</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B147" s="2" t="s">
-        <v>264</v>
+      <c r="B147" t="s">
+        <v>253</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B149" t="s">
-        <v>268</v>
+      <c r="B149" s="2" t="s">
+        <v>264</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B152" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B154" t="s">
-        <v>325</v>
+        <v>272</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B155" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B156" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B157" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B158" t="s">
-        <v>374</v>
+        <v>331</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>375</v>
+        <v>332</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B159" t="s">
-        <v>444</v>
+        <v>363</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>445</v>
+        <v>364</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B160" t="s">
+        <v>374</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" t="s">
+        <v>444</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B162" t="s">
         <v>463</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="D162" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="10"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="10"/>
+    <row r="163" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="10"/>
+      <c r="C163" s="1"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B164" t="s">
-        <v>134</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B165" t="s">
-        <v>139</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="A164" s="10"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B166" t="s">
-        <v>142</v>
+        <v>134</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -4416,36 +4442,24 @@
         <v>133</v>
       </c>
       <c r="B167" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B168" t="s">
-        <v>143</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4453,71 +4467,73 @@
         <v>133</v>
       </c>
       <c r="B169" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B171" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F171" s="9"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B172" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4525,70 +4541,71 @@
         <v>133</v>
       </c>
       <c r="B173" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>158</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="F173" s="9"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B174" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B175" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B176" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
@@ -4596,16 +4613,16 @@
         <v>133</v>
       </c>
       <c r="B177" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4613,16 +4630,16 @@
         <v>133</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4630,50 +4647,50 @@
         <v>133</v>
       </c>
       <c r="B179" t="s">
+        <v>173</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B180" t="s">
+        <v>180</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B181" t="s">
         <v>184</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="D181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B182" t="s">
-        <v>335</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="B183" t="s">
-        <v>340</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4681,16 +4698,16 @@
         <v>333</v>
       </c>
       <c r="B184" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>395</v>
+        <v>336</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4698,16 +4715,16 @@
         <v>333</v>
       </c>
       <c r="B185" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>394</v>
+        <v>342</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4715,33 +4732,33 @@
         <v>333</v>
       </c>
       <c r="B186" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>333</v>
       </c>
       <c r="B187" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4749,16 +4766,16 @@
         <v>333</v>
       </c>
       <c r="B188" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>427</v>
+        <v>396</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>426</v>
+        <v>398</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4766,19 +4783,16 @@
         <v>333</v>
       </c>
       <c r="B189" t="s">
-        <v>120</v>
+        <v>424</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>119</v>
+        <v>423</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F189" s="5" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4786,260 +4800,260 @@
         <v>333</v>
       </c>
       <c r="B190" t="s">
-        <v>506</v>
+        <v>425</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>333</v>
       </c>
       <c r="B191" t="s">
+        <v>120</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B192" t="s">
+        <v>506</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B193" t="s">
         <v>515</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="D193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="10"/>
-    </row>
-    <row r="194" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B194" t="s">
-        <v>431</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A195" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B195" t="s">
-        <v>436</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="10"/>
+    </row>
+    <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B196" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B197" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B198" t="s">
-        <v>468</v>
+        <v>440</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
         <v>432</v>
       </c>
       <c r="B199" t="s">
+        <v>441</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A200" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B200" t="s">
+        <v>468</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B201" t="s">
         <v>474</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E199" s="2" t="s">
+      <c r="D201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="13"/>
-      <c r="C201" s="1"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="13"/>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="13"/>
+      <c r="C203" s="1"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="13"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B206" t="s">
         <v>69</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E206" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="10"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="10"/>
-    </row>
-    <row r="207" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="10" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="10"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="10"/>
+    </row>
+    <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A209" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B209" t="s">
         <v>110</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C209" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D207" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="2" t="s">
+      <c r="D209" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="10" t="s">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B210" t="s">
         <v>111</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="10"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="10"/>
-      <c r="B210" t="s">
+      <c r="D210" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="10"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="10"/>
+      <c r="B212" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A211" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B211" t="s">
-        <v>168</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B212" t="s">
-        <v>197</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B213" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -5047,16 +5061,16 @@
         <v>68</v>
       </c>
       <c r="B214" t="s">
-        <v>356</v>
+        <v>197</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>354</v>
+        <v>196</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>355</v>
+        <v>198</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -5064,145 +5078,182 @@
         <v>68</v>
       </c>
       <c r="B215" t="s">
-        <v>389</v>
+        <v>220</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>390</v>
+        <v>219</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>68</v>
       </c>
       <c r="B216" t="s">
+        <v>356</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B217" t="s">
+        <v>389</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B218" t="s">
         <v>479</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E216" s="2" t="s">
+      <c r="D218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="10"/>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="10"/>
-      <c r="C218" s="1"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="10"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B222" t="s">
-        <v>293</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F222" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B223" t="s">
-        <v>227</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="10"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="10"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>240</v>
+        <v>295</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>318</v>
+        <v>228</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
         <v>225</v>
       </c>
       <c r="B226" t="s">
+        <v>242</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
+        <v>319</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A228" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B228" t="s">
         <v>321</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E226" s="2" t="s">
+      <c r="D228" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="13"/>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="13"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="13"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="13"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5221,51 +5272,51 @@
     <hyperlink ref="C103" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
     <hyperlink ref="C104" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C140" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C142" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C204" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C206" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C123" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C122" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C124" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C125" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C126" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C141" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C142" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C125" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C124" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C126" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C127" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C128" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C143" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C144" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
     <hyperlink ref="C78" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
     <hyperlink ref="C77" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
     <hyperlink ref="C76" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C207" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C208" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C209" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C210" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
     <hyperlink ref="C79" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
     <hyperlink ref="C97" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
     <hyperlink ref="C98" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
     <hyperlink ref="C99" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
     <hyperlink ref="C100" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C164" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C165" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C167" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C168" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C169" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C170" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C172" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C171" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C173" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C174" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C175" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C211" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C176" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C177" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C166" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C167" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C169" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C170" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C171" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C172" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C174" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C173" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C175" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C176" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C177" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C213" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C178" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C179" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
     <hyperlink ref="C51" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C178" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C179" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C180" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C181" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
     <hyperlink ref="C52" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
     <hyperlink ref="C53" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
     <hyperlink ref="C80" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C212" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C214" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
     <hyperlink ref="C81" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
     <hyperlink ref="C35" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
     <hyperlink ref="C37" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
@@ -5273,68 +5324,68 @@
     <hyperlink ref="C54" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
     <hyperlink ref="C55" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
     <hyperlink ref="C56" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C213" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C215" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
     <hyperlink ref="C38" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C223" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C225" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
     <hyperlink ref="C82" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
     <hyperlink ref="C48" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
     <hyperlink ref="C49" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
     <hyperlink ref="D49" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
     <hyperlink ref="C50" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C143" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C224" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C145" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C226" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
     <hyperlink ref="C83" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C144" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C145" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C146" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C148" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C151" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C147" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C149" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C152" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C134" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C136" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C150" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C137" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C139" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C135" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C153" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C222" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C146" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C147" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C148" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C150" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C153" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C149" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C151" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C154" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C136" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C138" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C152" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C139" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C141" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C137" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C155" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C224" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
     <hyperlink ref="C57" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C138" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C140" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
     <hyperlink ref="C107" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
     <hyperlink ref="C108" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
     <hyperlink ref="C109" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
     <hyperlink ref="C111" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
     <hyperlink ref="C110" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C225" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C226" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C227" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C228" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
     <hyperlink ref="C58" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C154" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C155" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C156" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C182" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C156" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C157" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C158" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C184" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
     <hyperlink ref="C59" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C183" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C185" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
     <hyperlink ref="C60" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
     <hyperlink ref="C112" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
     <hyperlink ref="C113" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
     <hyperlink ref="C18" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C214" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C216" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
     <hyperlink ref="C61" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
     <hyperlink ref="C114" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C157" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C130" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C159" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C132" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
     <hyperlink ref="C39" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C158" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C184" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C160" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C186" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
     <hyperlink ref="C92" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
     <hyperlink ref="C115" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
     <hyperlink ref="C40" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C215" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C185" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C186" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C217" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C187" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C188" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
     <hyperlink ref="C41" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
     <hyperlink ref="C116" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
     <hyperlink ref="C117" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
@@ -5343,46 +5394,48 @@
     <hyperlink ref="C30" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
     <hyperlink ref="C62" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
     <hyperlink ref="C42" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C187" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C188" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C189" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C189" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C190" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C191" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
     <hyperlink ref="C63" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C194" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C195" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C196" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C197" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C159" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C196" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C197" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C198" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C199" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C161" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
     <hyperlink ref="C64" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
     <hyperlink ref="C31" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
     <hyperlink ref="C43" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
     <hyperlink ref="C19" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
     <hyperlink ref="C20" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C160" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C162" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
     <hyperlink ref="C21" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C198" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C200" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
     <hyperlink ref="C84" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C199" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C216" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C201" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C218" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
     <hyperlink ref="C65" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
     <hyperlink ref="C22" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
     <hyperlink ref="C23" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
-    <hyperlink ref="C127" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C129" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
     <hyperlink ref="C66" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
     <hyperlink ref="C68" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
     <hyperlink ref="C67" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
     <hyperlink ref="C24" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
     <hyperlink ref="C69" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
     <hyperlink ref="C25" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C190" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C192" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
     <hyperlink ref="C93" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
     <hyperlink ref="C44" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C191" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C193" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
     <hyperlink ref="C85" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
     <hyperlink ref="C70" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
     <hyperlink ref="C71" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
     <hyperlink ref="C72" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
+    <hyperlink ref="C120" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
+    <hyperlink ref="C119" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId176"/>
+  <pageSetup orientation="portrait" r:id="rId178"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C04257BE-63A6-41FD-BB08-D2D9E7920C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E42B8C-D853-4AD0-845C-13B985FCB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="901" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="550">
   <si>
     <t>Problem</t>
   </si>
@@ -1626,6 +1626,57 @@
   </si>
   <si>
     <t>Middle of the Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/leaf-similar-trees/</t>
+  </si>
+  <si>
+    <t>Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t>Facebook Google Microsoft</t>
+  </si>
+  <si>
+    <t>Maximum Difference Between Node and Ancestor</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-difference-between-node-and-ancestor/</t>
+  </si>
+  <si>
+    <t>Binary Tree Maximum Path Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-maximum-path-sum/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon AppDynamics Apple Baidu Bloomberg ByteDance Facebook Google Intuit Microsoft Twitter Uber Walmart Labs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-falling-path-sum/</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Google</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence</t>
+  </si>
+  <si>
+    <t>Amazon Google Microsoft</t>
+  </si>
+  <si>
+    <t>Amazon Apple Bloomberg ByteDance eBay Google Mathworks Microsoft Oracle Uber Yahoo Yandex</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-queue-using-stacks</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1744,22 +1795,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2046,10 +2092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F231"/>
+  <dimension ref="A1:F236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2063,27 +2109,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
@@ -2103,7 +2149,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
@@ -2120,7 +2166,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
@@ -2140,7 +2186,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
@@ -2157,7 +2203,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
@@ -2165,7 +2211,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
@@ -2185,7 +2231,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B8" t="s">
@@ -2205,7 +2251,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
@@ -2225,7 +2271,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
@@ -2245,7 +2291,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
@@ -2259,7 +2305,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B12" t="s">
@@ -2279,7 +2325,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
@@ -2296,7 +2342,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2313,7 +2359,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -2330,7 +2376,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2347,7 +2393,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
@@ -2364,7 +2410,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B18" t="s">
@@ -2381,7 +2427,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B19" t="s">
@@ -2398,7 +2444,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
@@ -2415,7 +2461,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
@@ -2432,7 +2478,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
@@ -2449,7 +2495,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
@@ -2466,7 +2512,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
@@ -2483,7 +2529,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
@@ -2500,18 +2546,15 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+      <c r="A26" s="9"/>
       <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+      <c r="A27" s="9"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-    </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="8" t="s">
         <v>411</v>
       </c>
       <c r="B29" t="s">
@@ -2528,7 +2571,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="8" t="s">
         <v>411</v>
       </c>
       <c r="B30" t="s">
@@ -2545,7 +2588,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="8" t="s">
         <v>411</v>
       </c>
       <c r="B31" t="s">
@@ -2559,16 +2602,13 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
+      <c r="A33" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B35" t="s">
@@ -2585,7 +2625,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B36" t="s">
@@ -2594,7 +2634,7 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B37" t="s">
@@ -2611,7 +2651,7 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B38" t="s">
@@ -2625,7 +2665,7 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B39" t="s">
@@ -2642,7 +2682,7 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B40" t="s">
@@ -2659,7 +2699,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B41" t="s">
@@ -2676,7 +2716,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B42" t="s">
@@ -2687,7 +2727,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B43" t="s">
@@ -2704,7 +2744,7 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="9" t="s">
         <v>202</v>
       </c>
       <c r="B44" t="s">
@@ -2721,16 +2761,13 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="9"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
+      <c r="A46" s="9"/>
     </row>
     <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B48" t="s">
@@ -2747,7 +2784,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B49" t="s">
@@ -2764,7 +2801,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B50" t="s">
@@ -2781,7 +2818,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B51" t="s">
@@ -2801,7 +2838,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B52" t="s">
@@ -2818,7 +2855,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B53" t="s">
@@ -2835,7 +2872,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B54" t="s">
@@ -2852,7 +2889,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17" t="s">
+      <c r="A55" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B55" t="s">
@@ -2869,7 +2906,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B56" t="s">
@@ -2886,7 +2923,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B57" t="s">
@@ -2903,7 +2940,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B58" t="s">
@@ -2920,7 +2957,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B59" t="s">
@@ -2937,7 +2974,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17" t="s">
+      <c r="A60" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B60" t="s">
@@ -2957,7 +2994,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="17" t="s">
+      <c r="A61" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B61" t="s">
@@ -2974,7 +3011,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="17" t="s">
+      <c r="A62" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B62" t="s">
@@ -2988,7 +3025,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="17" t="s">
+      <c r="A63" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B63" t="s">
@@ -3005,7 +3042,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="17" t="s">
+      <c r="A64" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B64" t="s">
@@ -3022,7 +3059,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="17" t="s">
+      <c r="A65" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B65" t="s">
@@ -3039,7 +3076,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="17" t="s">
+      <c r="A66" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B66" t="s">
@@ -3056,7 +3093,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B67" t="s">
@@ -3073,7 +3110,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="17" t="s">
+      <c r="A68" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B68" t="s">
@@ -3090,7 +3127,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A69" s="17" t="s">
+      <c r="A69" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B69" t="s">
@@ -3107,7 +3144,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="17" t="s">
+      <c r="A70" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B70" t="s">
@@ -3121,7 +3158,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="17" t="s">
+      <c r="A71" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B71" t="s">
@@ -3138,7 +3175,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B72" t="s">
@@ -3156,10 +3193,10 @@
       <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
+      <c r="A73" s="8"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B76" t="s">
@@ -3176,7 +3213,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B77" t="s">
@@ -3196,7 +3233,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B78" t="s">
@@ -3210,7 +3247,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B79" t="s">
@@ -3227,7 +3264,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B80" t="s">
@@ -3244,7 +3281,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B81" t="s">
@@ -3259,10 +3296,9 @@
       <c r="E81" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B82" t="s">
@@ -3279,7 +3315,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B83" t="s">
@@ -3296,7 +3332,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B84" t="s">
@@ -3313,7 +3349,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="9" t="s">
         <v>101</v>
       </c>
       <c r="B85" t="s">
@@ -3330,13 +3366,13 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
+      <c r="A86" s="9"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="9"/>
     </row>
     <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B89" t="s">
@@ -3356,7 +3392,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B90" t="s">
@@ -3373,7 +3409,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B91" t="s">
@@ -3388,7 +3424,7 @@
       <c r="F91" s="5"/>
     </row>
     <row r="92" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B92" t="s">
@@ -3405,7 +3441,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B93" t="s">
@@ -3422,13 +3458,13 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="10"/>
+      <c r="A94" s="8"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="10"/>
+      <c r="A95" s="8"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B97" t="s">
@@ -3445,7 +3481,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B98" t="s">
@@ -3462,7 +3498,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B99" t="s">
@@ -3482,7 +3518,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="9" t="s">
         <v>121</v>
       </c>
       <c r="B100" t="s">
@@ -3499,10 +3535,10 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="9"/>
     </row>
     <row r="103" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B103" t="s">
@@ -3519,7 +3555,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B104" t="s">
@@ -3536,7 +3572,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B105" t="s">
@@ -3553,7 +3589,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B106" t="s">
@@ -3570,7 +3606,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B107" t="s">
@@ -3587,7 +3623,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B108" t="s">
@@ -3604,7 +3640,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="10" t="s">
+      <c r="A109" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B109" t="s">
@@ -3621,7 +3657,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
+      <c r="A110" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B110" t="s">
@@ -3635,7 +3671,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="10" t="s">
+      <c r="A111" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B111" t="s">
@@ -3652,7 +3688,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B112" t="s">
@@ -3669,7 +3705,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="10" t="s">
+      <c r="A113" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B113" t="s">
@@ -3686,7 +3722,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B114" t="s">
@@ -3701,12 +3737,12 @@
       <c r="E114" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
+      <c r="A115" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B115" t="s">
@@ -3723,7 +3759,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B116" t="s">
@@ -3740,7 +3776,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="10" t="s">
+      <c r="A117" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B117" t="s">
@@ -3757,7 +3793,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="10" t="s">
+      <c r="A118" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B118" t="s">
@@ -3774,7 +3810,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="10" t="s">
+      <c r="A119" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
@@ -3791,7 +3827,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
@@ -3808,13 +3844,13 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="10"/>
+      <c r="A121" s="8"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="10"/>
+      <c r="A122" s="8"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B124" t="s">
@@ -3826,12 +3862,12 @@
       <c r="D124" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B125" t="s">
@@ -3846,12 +3882,12 @@
       <c r="E125" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B126" t="s">
@@ -3865,7 +3901,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="9" t="s">
         <v>118</v>
       </c>
       <c r="B127" t="s">
@@ -3882,7 +3918,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B128" t="s">
@@ -3899,7 +3935,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="9" t="s">
         <v>82</v>
       </c>
       <c r="B129" t="s">
@@ -3916,15 +3952,15 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
+      <c r="A130" s="9"/>
       <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
+      <c r="A131" s="9"/>
       <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="9" t="s">
         <v>366</v>
       </c>
       <c r="B132" t="s">
@@ -3940,1320 +3976,1419 @@
         <v>369</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
-      <c r="C133" s="3"/>
+    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B133" t="s">
+        <v>549</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="13"/>
+      <c r="A134" s="9"/>
       <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="9"/>
       <c r="C135" s="3"/>
     </row>
-    <row r="136" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A136" s="10" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>274</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C137" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="2" t="s">
+      <c r="D137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="10" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>287</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C138" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="D138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="10" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>277</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="2" t="s">
+      <c r="D139" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="10" t="s">
+    <row r="140" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>281</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C140" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E139" s="2" t="s">
+      <c r="D140" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
+    <row r="141" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B141" t="s">
         <v>301</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="D141" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="10" t="s">
+    <row r="142" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>284</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="D142" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A142" s="10" t="s">
+    <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C143" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" s="2" t="s">
+      <c r="D143" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F143" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="10" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>96</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C144" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143" s="2" t="s">
+      <c r="D144" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>99</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C145" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="D145" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="10" t="s">
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>238</v>
       </c>
-      <c r="C145" s="1" t="s">
+      <c r="C146" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="2" t="s">
+      <c r="D146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F146" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="10" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>249</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" s="2" t="s">
+      <c r="D147" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="10" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>253</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C148" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" s="2" t="s">
+      <c r="D148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="10" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B149" t="s">
         <v>257</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C149" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="D149" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="10" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B150" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C150" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="2" t="s">
+      <c r="D150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="10" t="s">
+    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>259</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C151" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" s="2" t="s">
+      <c r="D151" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="10" t="s">
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>268</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C152" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" s="2" t="s">
+      <c r="D152" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="10" t="s">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>279</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C153" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="D153" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="10" t="s">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>262</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C154" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="D154" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
+    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>272</v>
       </c>
-      <c r="C154" s="1" t="s">
+      <c r="C155" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="2" t="s">
+      <c r="D155" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="10" t="s">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>291</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C156" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="D156" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="10" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>325</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C157" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E156" s="2" t="s">
+      <c r="D157" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A157" s="10" t="s">
+    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>327</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C158" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E157" s="2" t="s">
+      <c r="D158" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="10" t="s">
+    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>331</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C159" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="D159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="10" t="s">
+    <row r="160" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>363</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C160" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="2" t="s">
+      <c r="D160" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="10" t="s">
+    <row r="161" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>374</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C161" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="2" t="s">
+      <c r="D161" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="10" t="s">
+    <row r="162" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>444</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C162" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E162" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="10" t="s">
+    <row r="163" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>463</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C163" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="D163" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="10"/>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="10"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="13" t="s">
+    <row r="164" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B164" t="s">
+        <v>534</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" t="s">
+        <v>536</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B166" t="s">
+        <v>538</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="8"/>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="8"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B171" t="s">
         <v>134</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C171" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E166" s="2" t="s">
+      <c r="D171" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="13" t="s">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B172" t="s">
         <v>139</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="D172" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="13" t="s">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B173" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="13" t="s">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B174" t="s">
         <v>141</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C174" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="2" t="s">
+      <c r="D174" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A170" s="13" t="s">
+    <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A175" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B175" t="s">
         <v>143</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" s="2" t="s">
+      <c r="D175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F170" s="8" t="s">
+      <c r="F175" s="7" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="13" t="s">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B176" t="s">
         <v>148</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C176" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" s="2" t="s">
+      <c r="D176" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A172" s="13" t="s">
+    <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B177" t="s">
         <v>150</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" s="2" t="s">
+      <c r="D177" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F172" s="4" t="s">
+      <c r="F177" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A173" s="13" t="s">
+    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B178" t="s">
         <v>156</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="2" t="s">
+      <c r="D178" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F173" s="9"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="13" t="s">
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B179" t="s">
         <v>152</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" s="2" t="s">
+      <c r="D179" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A175" s="13" t="s">
+    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A180" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B180" t="s">
         <v>159</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="2" t="s">
+      <c r="D180" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="13" t="s">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B181" t="s">
         <v>162</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C181" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176" s="2" t="s">
+      <c r="D181" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F176" s="4" t="s">
+      <c r="F181" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="13" t="s">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B182" t="s">
         <v>166</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="2" t="s">
+      <c r="D182" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="13" t="s">
+    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B183" t="s">
         <v>171</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E178" s="2" t="s">
+      <c r="D183" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="13" t="s">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B184" t="s">
         <v>173</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="2" t="s">
+      <c r="D184" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="13" t="s">
+    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B185" t="s">
         <v>180</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E180" s="2" t="s">
+      <c r="D185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="13" t="s">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B186" t="s">
         <v>184</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181" s="2" t="s">
+      <c r="D186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="10" t="s">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B189" t="s">
         <v>335</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" s="2" t="s">
+      <c r="D189" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="10" t="s">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B190" t="s">
         <v>340</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E185" s="2" t="s">
+      <c r="D190" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="10" t="s">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B191" t="s">
         <v>377</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C191" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="2" t="s">
+      <c r="D191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="10" t="s">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B192" t="s">
         <v>392</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C192" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E187" s="2" t="s">
+      <c r="D192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="10" t="s">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B193" t="s">
         <v>397</v>
       </c>
-      <c r="C188" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E188" s="2" t="s">
+      <c r="D193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="10" t="s">
+    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B194" t="s">
         <v>424</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C194" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D189" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="2" t="s">
+      <c r="D194" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="10" t="s">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B195" t="s">
         <v>425</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C195" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E190" s="2" t="s">
+      <c r="D195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="10" t="s">
+    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B196" t="s">
         <v>120</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C196" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="D196" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="F196" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="10" t="s">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B197" t="s">
         <v>506</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C197" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="2" t="s">
+      <c r="D197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="10" t="s">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B198" t="s">
         <v>515</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C198" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="2" t="s">
+      <c r="D198" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="10"/>
-    </row>
-    <row r="196" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="13" t="s">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="8"/>
+    </row>
+    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B201" t="s">
         <v>431</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C201" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E196" s="2" t="s">
+      <c r="D201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A197" s="13" t="s">
+    <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A202" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B202" t="s">
         <v>436</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C202" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" s="2" t="s">
+      <c r="D202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="13" t="s">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B203" t="s">
         <v>440</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E198" s="2" t="s">
+      <c r="D203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A199" s="13" t="s">
+    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A204" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B204" t="s">
         <v>441</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D199" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E199" s="2" t="s">
+      <c r="D204" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A200" s="13" t="s">
+    <row r="205" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B205" t="s">
         <v>468</v>
       </c>
-      <c r="C200" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D200" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E200" s="2" t="s">
+      <c r="D205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="13" t="s">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B206" t="s">
         <v>474</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D201" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E201" s="2" t="s">
+      <c r="D206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="13"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="10" t="s">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="9"/>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="9"/>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="9"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B211" t="s">
         <v>69</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E211" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="10"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="10"/>
-    </row>
-    <row r="209" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A209" s="10" t="s">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="8"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="8"/>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B214" t="s">
         <v>110</v>
       </c>
-      <c r="C209" s="1" t="s">
+      <c r="C214" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D209" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E209" s="2" t="s">
+      <c r="D214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="10" t="s">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B215" t="s">
         <v>111</v>
       </c>
-      <c r="C210" s="1" t="s">
+      <c r="C215" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D210" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="10"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="10"/>
-      <c r="B212" t="s">
+      <c r="D215" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="8"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="8"/>
+      <c r="B217" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A213" s="10" t="s">
+    <row r="218" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B218" t="s">
         <v>168</v>
       </c>
-      <c r="C213" s="1" t="s">
+      <c r="C218" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E218" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="10" t="s">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B219" t="s">
         <v>197</v>
       </c>
-      <c r="C214" s="1" t="s">
+      <c r="C219" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D214" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E214" s="2" t="s">
+      <c r="D219" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="10" t="s">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B220" t="s">
         <v>220</v>
       </c>
-      <c r="C215" s="1" t="s">
+      <c r="C220" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E215" s="2" t="s">
+      <c r="D220" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F215" s="4" t="s">
+      <c r="F220" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="10" t="s">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B221" t="s">
         <v>356</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C221" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E216" s="2" t="s">
+      <c r="D221" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="10" t="s">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B222" t="s">
         <v>389</v>
       </c>
-      <c r="C217" s="1" t="s">
+      <c r="C222" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="D217" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E217" s="2" t="s">
+      <c r="D222" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A218" s="10" t="s">
+    <row r="223" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B223" t="s">
         <v>479</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C223" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E218" s="2" t="s">
+      <c r="D223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="10"/>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="10"/>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="10"/>
-    </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="13" t="s">
+      <c r="A224" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B224" t="s">
+        <v>542</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B225" t="s">
+        <v>544</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="8"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B229" t="s">
         <v>293</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E224" s="2" t="s">
+      <c r="D229" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F224" s="7" t="s">
+      <c r="F229" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="13" t="s">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B230" t="s">
         <v>227</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C230" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="D230" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A226" s="13" t="s">
+    <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B231" t="s">
         <v>242</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E226" s="2" t="s">
+      <c r="D231" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F231" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="13" t="s">
+    <row r="232" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B232" t="s">
         <v>319</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="D232" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A228" s="13" t="s">
+    <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A233" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B233" t="s">
         <v>321</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E228" s="2" t="s">
+      <c r="D233" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="13"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="13"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="13"/>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="9"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="9"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5272,10 +5407,10 @@
     <hyperlink ref="C103" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
     <hyperlink ref="C104" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C142" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C143" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C206" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C211" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
@@ -5284,39 +5419,39 @@
     <hyperlink ref="C126" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
     <hyperlink ref="C127" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
     <hyperlink ref="C128" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C143" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C144" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C144" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C145" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
     <hyperlink ref="C78" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
     <hyperlink ref="C77" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
     <hyperlink ref="C76" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C209" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C210" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C214" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C215" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
     <hyperlink ref="C79" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
     <hyperlink ref="C97" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
     <hyperlink ref="C98" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
     <hyperlink ref="C99" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
     <hyperlink ref="C100" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C166" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C167" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C169" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C170" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C171" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C172" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C174" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C173" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C175" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C176" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C177" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C213" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C178" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C179" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C171" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C172" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C174" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C175" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C176" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C177" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C179" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C178" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C180" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C181" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C182" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C218" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C183" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C184" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
     <hyperlink ref="C51" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C180" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C181" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C185" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C186" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
     <hyperlink ref="C52" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
     <hyperlink ref="C53" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
     <hyperlink ref="C80" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C214" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C219" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
     <hyperlink ref="C81" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
     <hyperlink ref="C35" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
     <hyperlink ref="C37" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
@@ -5324,68 +5459,68 @@
     <hyperlink ref="C54" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
     <hyperlink ref="C55" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
     <hyperlink ref="C56" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C215" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C220" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
     <hyperlink ref="C38" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C225" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C230" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
     <hyperlink ref="C82" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
     <hyperlink ref="C48" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
     <hyperlink ref="C49" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
     <hyperlink ref="D49" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
     <hyperlink ref="C50" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C145" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C226" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C146" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C231" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
     <hyperlink ref="C83" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C146" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C147" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C148" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C150" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C153" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C149" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C151" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C154" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C136" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C138" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C152" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C139" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C141" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C137" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C155" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C224" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C147" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C148" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C149" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C151" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C154" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C150" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C152" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C155" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C137" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C139" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C153" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C140" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C142" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C138" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C156" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C229" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
     <hyperlink ref="C57" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C140" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C141" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
     <hyperlink ref="C107" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
     <hyperlink ref="C108" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
     <hyperlink ref="C109" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
     <hyperlink ref="C111" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
     <hyperlink ref="C110" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C227" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C228" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C232" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C233" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
     <hyperlink ref="C58" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C156" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C157" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C158" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C184" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C157" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C158" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C159" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C189" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
     <hyperlink ref="C59" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C185" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C190" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
     <hyperlink ref="C60" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
     <hyperlink ref="C112" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
     <hyperlink ref="C113" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
     <hyperlink ref="C18" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C216" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C221" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
     <hyperlink ref="C61" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
     <hyperlink ref="C114" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C159" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C160" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
     <hyperlink ref="C132" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
     <hyperlink ref="C39" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C160" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C186" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C161" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C191" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
     <hyperlink ref="C92" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
     <hyperlink ref="C115" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
     <hyperlink ref="C40" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C217" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C187" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C188" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C222" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C192" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C193" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
     <hyperlink ref="C41" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
     <hyperlink ref="C116" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
     <hyperlink ref="C117" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
@@ -5394,26 +5529,26 @@
     <hyperlink ref="C30" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
     <hyperlink ref="C62" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
     <hyperlink ref="C42" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C189" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C190" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C191" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C194" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C195" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C196" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
     <hyperlink ref="C63" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C196" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C197" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C198" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C199" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C161" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C201" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C202" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C203" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C204" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C162" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
     <hyperlink ref="C64" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
     <hyperlink ref="C31" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
     <hyperlink ref="C43" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
     <hyperlink ref="C19" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
     <hyperlink ref="C20" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C162" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C163" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
     <hyperlink ref="C21" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C200" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C205" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
     <hyperlink ref="C84" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C201" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C218" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C206" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C223" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
     <hyperlink ref="C65" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
     <hyperlink ref="C22" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
     <hyperlink ref="C23" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
@@ -5424,18 +5559,24 @@
     <hyperlink ref="C24" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
     <hyperlink ref="C69" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
     <hyperlink ref="C25" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C192" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C197" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
     <hyperlink ref="C93" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
     <hyperlink ref="C44" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C193" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C198" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
     <hyperlink ref="C85" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
     <hyperlink ref="C70" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
     <hyperlink ref="C71" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
     <hyperlink ref="C72" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
     <hyperlink ref="C120" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
     <hyperlink ref="C119" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
+    <hyperlink ref="C164" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
+    <hyperlink ref="C165" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
+    <hyperlink ref="C166" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
+    <hyperlink ref="C224" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
+    <hyperlink ref="C225" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
+    <hyperlink ref="C133" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId178"/>
+  <pageSetup orientation="portrait" r:id="rId184"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E42B8C-D853-4AD0-845C-13B985FCB717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105BAF31-6D55-4848-B5C7-44585E7D922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="550">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="604">
   <si>
     <t>Problem</t>
   </si>
@@ -259,9 +259,6 @@
     <t>https://leetcode.com/problems/maximum-product-subarray/</t>
   </si>
   <si>
-    <t>Amazon D-E-Shaw Microsoft Morgan Stanley OYO Rooms Google</t>
-  </si>
-  <si>
     <t>Accolite Amazon D-E-Shaw Directi Flipkart Goldman Sachs Intuit MakeMyTrip Microsoft Ola Cabs Oracle Paytm Salesforce Swiggy Walmart Media.net Google</t>
   </si>
   <si>
@@ -1677,6 +1674,171 @@
   </si>
   <si>
     <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Evaluate Reverse Polish Notation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/evaluate-reverse-polish-notation</t>
+  </si>
+  <si>
+    <t>Amazon Google LinkedIn Microsoft Opendoor Pure Storage Uber Zillow</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Expedia Facebook Google LinkedIn Microsoft Nvidia Uber Zillow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/house-robber-iii</t>
+  </si>
+  <si>
+    <t>House Robber III</t>
+  </si>
+  <si>
+    <t>Amazon Facebook Google Uber</t>
+  </si>
+  <si>
+    <t>Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-square-submatrices-with-all-ones/</t>
+  </si>
+  <si>
+    <t>Graph (DFS)</t>
+  </si>
+  <si>
+    <t>Keys and Rooms</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/keys-and-rooms/</t>
+  </si>
+  <si>
+    <t>Jump Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Facebook Google Microsoft Nutanix Oracle Postmates Uber</t>
+  </si>
+  <si>
+    <t>Maximum Bags With Full Capacity of Rocks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-bags-with-full-capacity-of-rocks/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-pattern/</t>
+  </si>
+  <si>
+    <t>Amazon Capital One Dropbox Google Microsoft Uber</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Google Walmart Labs</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/all-paths-from-source-to-target/</t>
+  </si>
+  <si>
+    <t>All Paths From Source to Target</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/detect-capital/</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Atlassian Bloomberg Cisco eBay Facebook Garena GoDaddy Goldman Sachs Google LinkedIn Microsoft NetEase Oracle Paypal Salesforce Uber VMware Walmart Labs Yahoo Intuit</t>
+  </si>
+  <si>
+    <t>Adobe Airbnb Alibaba Amazon Apple Bloomberg ByteDance Facebook Google Microsoft Nvidia Oracle Snapchat Square Intuit</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-strings/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-ice-cream-bars/</t>
+  </si>
+  <si>
+    <t>Maximum Ice Cream Bars</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-columns-to-make-sorted/</t>
+  </si>
+  <si>
+    <t>Delete Columns to Make Sorted</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>Amazon Cisco Google</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Bloomberg Expedia Facebook Google Mathworks</t>
+  </si>
+  <si>
+    <t>Deepest Leaves Sum</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/deepest-leaves-sum/</t>
+  </si>
+  <si>
+    <t>Delete Leaves With a Given Value</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-leaves-with-a-given-value/</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/insert-interval/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Dataminr Facebook Google LinkedIn Microsoft Oracle Tableau Twitter Uber Yahoo</t>
+  </si>
+  <si>
+    <t>Subarray Sums Divisible by K</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sums-divisible-by-k/</t>
+  </si>
+  <si>
+    <t>Amazon Expedia Twilio Yandex</t>
+  </si>
+  <si>
+    <t>Amazon D-E-Shaw Microsoft Morgan Stanley OYO Rooms Google Piramle Finance</t>
+  </si>
+  <si>
+    <t>Verifying an Alien Dictionary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/verifying-an-alien-dictionary/</t>
+  </si>
+  <si>
+    <t>Airbnb Amazon Facebook Microsoft</t>
   </si>
 </sst>
 </file>
@@ -1811,7 +1973,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2092,10 +2261,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F236"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -2264,7 +2435,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>
@@ -2355,7 +2526,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>77</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2363,16 +2534,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2389,7 +2560,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2397,16 +2568,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2414,16 +2585,16 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>352</v>
+        <v>597</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>351</v>
+        <v>598</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>353</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2431,1260 +2602,1253 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>457</v>
+        <v>351</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>456</v>
+        <v>350</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
         <v>504</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="9"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
+      <c r="C26" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>575</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>583</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>594</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="9"/>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B33" t="s">
         <v>411</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C33" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" t="s">
+        <v>415</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B30" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>411</v>
-      </c>
-      <c r="B31" t="s">
+    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B35" t="s">
+        <v>449</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="9" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B37" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B39" t="s">
-        <v>370</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>386</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>388</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s">
-        <v>400</v>
+        <v>204</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>399</v>
+        <v>205</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>401</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42" t="s">
+        <v>223</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" t="s">
+        <v>369</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" t="s">
+        <v>419</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>453</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" t="s">
+        <v>511</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="D48" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>234</v>
-      </c>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B50" t="s">
-        <v>237</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B51" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A50" s="9"/>
     </row>
     <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>236</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D56" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="2" t="s">
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" t="s">
-        <v>191</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" t="s">
+        <v>213</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" t="s">
-        <v>297</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" t="s">
-        <v>337</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>343</v>
+        <v>216</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>358</v>
+        <v>296</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>357</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62" t="s">
-        <v>418</v>
+        <v>57</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>419</v>
+        <v>56</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B63" t="s">
-        <v>429</v>
+        <v>336</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>428</v>
+        <v>337</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>430</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B64" t="s">
-        <v>447</v>
+        <v>342</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>448</v>
+        <v>343</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>344</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" t="s">
-        <v>480</v>
+        <v>357</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>481</v>
+        <v>358</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>482</v>
+        <v>356</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>490</v>
+        <v>417</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>491</v>
+        <v>418</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>495</v>
+        <v>428</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>496</v>
+        <v>427</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B68" t="s">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>493</v>
+        <v>447</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" t="s">
-        <v>521</v>
+        <v>489</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
+        <v>494</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B72" t="s">
+        <v>493</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B73" t="s">
+        <v>501</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" t="s">
+        <v>520</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>521</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D75" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B76" t="s">
+        <v>524</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="D76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="9" t="s">
-        <v>101</v>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>573</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>105</v>
+        <v>572</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="9" t="s">
-        <v>101</v>
+        <v>217</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>103</v>
+        <v>578</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>104</v>
+        <v>579</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E78" s="2" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="9" t="s">
-        <v>101</v>
+      <c r="A79" s="8" t="s">
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>601</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>116</v>
+        <v>602</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B80" t="s">
-        <v>193</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A83" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" t="s">
-        <v>244</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>245</v>
-      </c>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="8"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B84" t="s">
-        <v>471</v>
+        <v>105</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>472</v>
+        <v>106</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>473</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
         <v>101</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
+        <v>192</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>229</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>243</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>470</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>516</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D93" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="9"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="9"/>
-    </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="8" t="s">
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="9"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="9"/>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B97" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C97" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="D97" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="8" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B98" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="D98" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B99" t="s">
         <v>45</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F91" s="5"/>
-    </row>
-    <row r="92" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="8" t="s">
+      <c r="D99" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B92" t="s">
-        <v>381</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="B100" t="s">
         <v>380</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="C100" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="8" t="s">
+      <c r="D100" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B101" t="s">
+        <v>508</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="8"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+      <c r="D101" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D105" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B106" t="s">
         <v>123</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="C106" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="5" t="s">
+      <c r="C107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F107" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" t="s">
-        <v>127</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="2" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B108" t="s">
         <v>129</v>
       </c>
-      <c r="F99" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C108" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="9"/>
-    </row>
-    <row r="103" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" t="s">
-        <v>54</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" t="s">
-        <v>48</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" t="s">
-        <v>208</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" t="s">
-        <v>304</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" t="s">
-        <v>307</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" t="s">
-        <v>309</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" t="s">
-        <v>316</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="9"/>
+    </row>
+    <row r="111" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B111" t="s">
-        <v>313</v>
+        <v>50</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>312</v>
+        <v>51</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>314</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -3692,16 +3856,16 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>346</v>
+        <v>54</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>347</v>
+        <v>53</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>348</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -3709,16 +3873,16 @@
         <v>46</v>
       </c>
       <c r="B113" t="s">
-        <v>349</v>
+        <v>48</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>350</v>
+        <v>49</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3726,70 +3890,67 @@
         <v>46</v>
       </c>
       <c r="B114" t="s">
-        <v>360</v>
+        <v>207</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>361</v>
+        <v>208</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="F114" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>384</v>
+        <v>302</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B116" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B117" t="s">
-        <v>405</v>
+        <v>308</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>406</v>
+        <v>309</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -3797,387 +3958,397 @@
         <v>46</v>
       </c>
       <c r="B118" t="s">
-        <v>409</v>
+        <v>315</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>35</v>
+        <v>316</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B119" t="s">
-        <v>532</v>
+        <v>312</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>531</v>
+        <v>311</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B120" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A122" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B123" t="s">
+        <v>382</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" t="s">
+        <v>401</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" t="s">
+        <v>404</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B126" t="s">
+        <v>408</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" t="s">
+        <v>531</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B128" t="s">
+        <v>526</v>
+      </c>
+      <c r="C128" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="8"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="8"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" t="s">
-        <v>87</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B125" t="s">
-        <v>83</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F125" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B126" t="s">
-        <v>88</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" t="s">
-        <v>90</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B128" t="s">
-        <v>92</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="D128" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>94</v>
+        <v>529</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B129" t="s">
-        <v>489</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A129" s="8"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="9"/>
-      <c r="C130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="9"/>
-      <c r="C131" s="3"/>
+      <c r="A130" s="8"/>
     </row>
     <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B132" t="s">
+        <v>86</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B133" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B134" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" t="s">
+        <v>89</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A136" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B136" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B137" t="s">
+        <v>488</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B138" t="s">
+        <v>549</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="9"/>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B140" t="s">
+        <v>367</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="B132" t="s">
+      <c r="D140" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="B133" t="s">
-        <v>549</v>
-      </c>
-      <c r="C133" s="3" t="s">
+    </row>
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" t="s">
         <v>548</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="2" t="s">
+      <c r="C141" s="3" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="9"/>
-      <c r="C134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="9"/>
-      <c r="C135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B137" t="s">
-        <v>274</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B138" t="s">
-        <v>287</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B139" t="s">
-        <v>277</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B140" t="s">
-        <v>281</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B141" t="s">
-        <v>301</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>302</v>
-      </c>
       <c r="D141" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B142" t="s">
-        <v>284</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A143" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B143" t="s">
-        <v>59</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="9"/>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="9"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B144" t="s">
-        <v>96</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B145" t="s">
-        <v>99</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>98</v>
+        <v>585</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B146" t="s">
-        <v>238</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>239</v>
+        <v>273</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4185,16 +4356,16 @@
         <v>58</v>
       </c>
       <c r="B147" t="s">
-        <v>249</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>250</v>
+        <v>286</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>287</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -4202,84 +4373,87 @@
         <v>58</v>
       </c>
       <c r="B148" t="s">
-        <v>253</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>254</v>
+        <v>276</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>275</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B149" t="s">
-        <v>257</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>256</v>
+        <v>280</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>265</v>
+      <c r="B150" t="s">
+        <v>300</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B151" t="s">
-        <v>259</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>284</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B152" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>267</v>
+        <v>61</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -4287,16 +4461,16 @@
         <v>58</v>
       </c>
       <c r="B153" t="s">
-        <v>279</v>
+        <v>95</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>278</v>
+        <v>94</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>280</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -4304,16 +4478,16 @@
         <v>58</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>98</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>261</v>
+        <v>97</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>263</v>
+        <v>99</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4321,16 +4495,19 @@
         <v>58</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>270</v>
+        <v>251</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -4338,16 +4515,16 @@
         <v>58</v>
       </c>
       <c r="B156" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -4355,1042 +4532,1372 @@
         <v>58</v>
       </c>
       <c r="B157" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>326</v>
+        <v>253</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B158" t="s">
-        <v>327</v>
+        <v>256</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>328</v>
+        <v>255</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B159" t="s">
-        <v>331</v>
+      <c r="B159" s="2" t="s">
+        <v>263</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>332</v>
+        <v>264</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B160" t="s">
-        <v>363</v>
+        <v>258</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>364</v>
+        <v>257</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B161" t="s">
-        <v>374</v>
+        <v>267</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B162" t="s">
-        <v>444</v>
+        <v>278</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>445</v>
+        <v>277</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B163" t="s">
-        <v>463</v>
+        <v>261</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>464</v>
+        <v>260</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>534</v>
+        <v>271</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>533</v>
+        <v>270</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B165" t="s">
-        <v>536</v>
+        <v>290</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>537</v>
+        <v>291</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B166" t="s">
-        <v>538</v>
+        <v>324</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>539</v>
+        <v>325</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="8"/>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="8"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="9" t="s">
-        <v>133</v>
+      <c r="B167" t="s">
+        <v>326</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B168" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" t="s">
+        <v>362</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B170" t="s">
+        <v>373</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B171" t="s">
-        <v>134</v>
+        <v>443</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>35</v>
+        <v>444</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="9" t="s">
-        <v>133</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B172" t="s">
-        <v>139</v>
+        <v>462</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>138</v>
+        <v>463</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="9" t="s">
-        <v>133</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B173" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="9" t="s">
-        <v>133</v>
+        <v>533</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B174" t="s">
-        <v>141</v>
+        <v>535</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>140</v>
+        <v>536</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A175" s="9" t="s">
-        <v>133</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B175" t="s">
-        <v>143</v>
+        <v>537</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>144</v>
+        <v>538</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="9" t="s">
-        <v>133</v>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B176" t="s">
-        <v>148</v>
+        <v>587</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>146</v>
+        <v>588</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
-        <v>133</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>150</v>
+        <v>590</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>149</v>
+        <v>591</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A178" s="9" t="s">
-        <v>133</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B178" t="s">
-        <v>156</v>
+        <v>592</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>155</v>
+        <v>593</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B179" t="s">
-        <v>152</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A180" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B180" t="s">
-        <v>159</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B181" t="s">
-        <v>162</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="8"/>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="8"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B182" t="s">
         <v>133</v>
       </c>
-      <c r="B182" t="s">
-        <v>166</v>
-      </c>
       <c r="C182" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B183" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B184" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B185" t="s">
+        <v>140</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A186" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B186" t="s">
+        <v>142</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B187" t="s">
+        <v>147</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B188" t="s">
+        <v>149</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B189" t="s">
+        <v>155</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B190" t="s">
+        <v>151</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A191" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B191" t="s">
+        <v>158</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B192" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B193" t="s">
+        <v>165</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B194" t="s">
+        <v>170</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B195" t="s">
+        <v>172</v>
+      </c>
+      <c r="C195" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A185" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B185" t="s">
+      <c r="D195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A196" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196" t="s">
+        <v>179</v>
+      </c>
+      <c r="C196" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="D196" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E185" s="2" t="s">
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B197" t="s">
+        <v>183</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B186" t="s">
-        <v>184</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="8" t="s">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B200" t="s">
+        <v>334</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D200" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B190" t="s">
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B201" t="s">
+        <v>339</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="D201" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D190" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B191" t="s">
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B202" t="s">
+        <v>376</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="D202" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B203" t="s">
+        <v>391</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B204" t="s">
+        <v>396</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B192" t="s">
-        <v>392</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B193" t="s">
+      <c r="D204" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B194" t="s">
+    </row>
+    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B205" t="s">
+        <v>423</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B206" t="s">
         <v>424</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B195" t="s">
+      <c r="C206" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A196" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B196" t="s">
-        <v>120</v>
-      </c>
-      <c r="C196" s="1" t="s">
+    </row>
+    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B207" t="s">
         <v>119</v>
       </c>
-      <c r="D196" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F196" s="5" t="s">
+      <c r="C207" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F207" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B197" t="s">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B208" t="s">
+        <v>505</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="D208" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D197" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B198" t="s">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B209" t="s">
+        <v>514</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="8"/>
-    </row>
-    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A201" s="9" t="s">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B210" t="s">
+        <v>564</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B211" t="s">
+        <v>581</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212" s="8"/>
+    </row>
+    <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214" t="s">
+        <v>430</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B201" t="s">
+      <c r="D214" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A215" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E201" s="2" t="s">
+      <c r="B215" t="s">
+        <v>435</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="202" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A202" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B202" t="s">
+      <c r="D215" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E202" s="2" t="s">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B216" t="s">
+        <v>439</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B203" t="s">
+      <c r="D216" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A217" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B217" t="s">
         <v>440</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A204" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B204" t="s">
+      <c r="C217" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="D217" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A205" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B205" t="s">
+    </row>
+    <row r="218" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B218" t="s">
+        <v>467</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B206" t="s">
+      <c r="D218" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B219" t="s">
+        <v>473</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C206" s="1" t="s">
+      <c r="D219" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D206" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="9"/>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="9"/>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="9"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B211" t="s">
-        <v>69</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="8"/>
-    </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B214" t="s">
-        <v>110</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B215" t="s">
-        <v>111</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="8"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="8"/>
-      <c r="B217" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A218" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B218" t="s">
-        <v>168</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B219" t="s">
-        <v>197</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="8" t="s">
-        <v>68</v>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="B220" t="s">
-        <v>220</v>
+        <v>568</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>219</v>
+        <v>566</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B221" t="s">
-        <v>356</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E221" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B222" t="s">
-        <v>389</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A223" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B223" t="s">
-        <v>479</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="9"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="9"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B224" t="s">
-        <v>542</v>
+        <v>69</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>543</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B225" t="s">
-        <v>544</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>546</v>
-      </c>
+      <c r="A225" s="8"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="8"/>
     </row>
+    <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B227" t="s">
+        <v>109</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B228" t="s">
+        <v>110</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="8"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="8"/>
+      <c r="B230" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B231" t="s">
+        <v>167</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B232" t="s">
+        <v>196</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B233" t="s">
+        <v>219</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B234" t="s">
+        <v>355</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B235" t="s">
+        <v>388</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B236" t="s">
+        <v>478</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="8"/>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B238" t="s">
+        <v>554</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B239" t="s">
+        <v>541</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B240" t="s">
+        <v>543</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B241" t="s">
+        <v>556</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B242" t="s">
+        <v>561</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="8"/>
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="8"/>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="8"/>
+      <c r="C245" s="1"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B248" t="s">
+        <v>292</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B249" t="s">
+        <v>226</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B229" t="s">
-        <v>293</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E229" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="F229" s="6" t="s">
+    </row>
+    <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A250" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B250" t="s">
+        <v>241</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F250" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B230" t="s">
-        <v>227</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E230" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A231" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B231" t="s">
-        <v>242</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F231" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B232" t="s">
+    <row r="251" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B251" t="s">
+        <v>318</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A252" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B252" t="s">
+        <v>320</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E232" s="2" t="s">
+      <c r="D252" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A233" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="B233" t="s">
-        <v>321</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="9"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="9"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="9"/>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="B253" t="s">
+        <v>559</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="B254" t="s">
+        <v>571</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="9"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A82:F254 C81:F81 A81 A1:F80">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="intuit">
+      <formula>NOT(ISERROR(SEARCH("intuit",A1)))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2">
+      <formula>"intuit"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8960A193-9338-4BB3-90F5-9AE9CF277D73}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{01EA04B6-2E4A-416F-BFC5-7791D41FA480}"/>
@@ -5400,183 +5907,203 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C89" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C90" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C91" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C105" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C103" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C104" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C97" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C98" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C99" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C113" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C111" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C112" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C143" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C152" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C211" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C224" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C125" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C124" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C126" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C127" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C128" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C144" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C145" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C78" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C77" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C76" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C214" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C215" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C79" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C97" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C98" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C99" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C100" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C171" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C172" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C174" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C175" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C176" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C177" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C179" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C178" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C180" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C181" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C182" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C218" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C183" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C184" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
-    <hyperlink ref="C51" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C185" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C186" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
-    <hyperlink ref="C52" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
-    <hyperlink ref="C53" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C80" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C219" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C81" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
-    <hyperlink ref="C35" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
-    <hyperlink ref="C37" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C106" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
-    <hyperlink ref="C54" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
-    <hyperlink ref="C55" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
-    <hyperlink ref="C56" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C220" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
-    <hyperlink ref="C38" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C230" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C82" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
-    <hyperlink ref="C48" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
-    <hyperlink ref="C49" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
-    <hyperlink ref="D49" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
-    <hyperlink ref="C50" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C146" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C231" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C83" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C133" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C132" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C134" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C135" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C136" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C153" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C154" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C86" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C85" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C84" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C227" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C228" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C87" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C105" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C106" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C107" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C108" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C182" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C183" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C185" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C186" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C187" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C188" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C190" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C189" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C191" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C192" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C193" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C231" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C194" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C195" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C55" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
+    <hyperlink ref="C196" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C197" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C56" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
+    <hyperlink ref="C57" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
+    <hyperlink ref="C88" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C232" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C89" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C39" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
+    <hyperlink ref="C41" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
+    <hyperlink ref="C114" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C58" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
+    <hyperlink ref="C59" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
+    <hyperlink ref="C60" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
+    <hyperlink ref="C233" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C42" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
+    <hyperlink ref="C249" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C90" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C52" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
+    <hyperlink ref="C53" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
+    <hyperlink ref="D53" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
+    <hyperlink ref="C54" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
+    <hyperlink ref="C155" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C250" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C91" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C147" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C148" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C149" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C151" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C154" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C150" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C152" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C155" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C137" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C139" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C153" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C140" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C142" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C138" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C156" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C229" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
-    <hyperlink ref="C57" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C141" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
-    <hyperlink ref="C107" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
-    <hyperlink ref="C108" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
-    <hyperlink ref="C109" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
-    <hyperlink ref="C111" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
-    <hyperlink ref="C110" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C232" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C233" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
-    <hyperlink ref="C58" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C157" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C158" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C159" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C189" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
-    <hyperlink ref="C59" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C190" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
-    <hyperlink ref="C60" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
-    <hyperlink ref="C112" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
-    <hyperlink ref="C113" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
-    <hyperlink ref="C18" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C221" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
-    <hyperlink ref="C61" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
-    <hyperlink ref="C114" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C160" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C132" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
-    <hyperlink ref="C39" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C161" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C191" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
-    <hyperlink ref="C92" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
-    <hyperlink ref="C115" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
-    <hyperlink ref="C40" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C222" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C192" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C193" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
-    <hyperlink ref="C41" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
-    <hyperlink ref="C116" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
-    <hyperlink ref="C117" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
-    <hyperlink ref="C118" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
-    <hyperlink ref="C29" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
-    <hyperlink ref="C30" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
-    <hyperlink ref="C62" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
-    <hyperlink ref="C42" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C194" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C195" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C196" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
-    <hyperlink ref="C63" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C201" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C202" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C203" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C204" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C162" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
-    <hyperlink ref="C64" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
-    <hyperlink ref="C31" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
-    <hyperlink ref="C43" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
-    <hyperlink ref="C19" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
-    <hyperlink ref="C20" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C163" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
-    <hyperlink ref="C21" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C205" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
-    <hyperlink ref="C84" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C206" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C223" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
-    <hyperlink ref="C65" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
-    <hyperlink ref="C22" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
-    <hyperlink ref="C23" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
-    <hyperlink ref="C129" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
-    <hyperlink ref="C66" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
-    <hyperlink ref="C68" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
-    <hyperlink ref="C67" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
-    <hyperlink ref="C24" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
-    <hyperlink ref="C69" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
-    <hyperlink ref="C25" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C197" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
-    <hyperlink ref="C93" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
-    <hyperlink ref="C44" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C198" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
-    <hyperlink ref="C85" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
-    <hyperlink ref="C70" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
-    <hyperlink ref="C71" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
-    <hyperlink ref="C72" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
-    <hyperlink ref="C120" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
-    <hyperlink ref="C119" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
-    <hyperlink ref="C164" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
-    <hyperlink ref="C165" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
-    <hyperlink ref="C166" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
-    <hyperlink ref="C224" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
-    <hyperlink ref="C225" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
-    <hyperlink ref="C133" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
+    <hyperlink ref="C156" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C157" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C158" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C160" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C163" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C159" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C161" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C164" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C146" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C148" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C162" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C149" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C151" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C147" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C165" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C248" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C61" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C150" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C115" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C116" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C117" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C119" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C118" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C251" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C252" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C62" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
+    <hyperlink ref="C166" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C167" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C168" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C200" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C63" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
+    <hyperlink ref="C201" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C64" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
+    <hyperlink ref="C120" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C121" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C19" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
+    <hyperlink ref="C234" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C65" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
+    <hyperlink ref="C122" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C169" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C140" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C43" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
+    <hyperlink ref="C170" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C202" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C100" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
+    <hyperlink ref="C123" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
+    <hyperlink ref="C44" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
+    <hyperlink ref="C235" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C203" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C204" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C45" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
+    <hyperlink ref="C124" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
+    <hyperlink ref="C125" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
+    <hyperlink ref="C126" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
+    <hyperlink ref="C33" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
+    <hyperlink ref="C34" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
+    <hyperlink ref="C66" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
+    <hyperlink ref="C46" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
+    <hyperlink ref="C205" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C206" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C207" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C67" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
+    <hyperlink ref="C214" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C215" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C216" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C217" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C171" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C68" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
+    <hyperlink ref="C35" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
+    <hyperlink ref="C47" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
+    <hyperlink ref="C20" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
+    <hyperlink ref="C21" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
+    <hyperlink ref="C172" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C22" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
+    <hyperlink ref="C218" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C92" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
+    <hyperlink ref="C219" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C236" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C69" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
+    <hyperlink ref="C23" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
+    <hyperlink ref="C24" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
+    <hyperlink ref="C137" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C70" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
+    <hyperlink ref="C72" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
+    <hyperlink ref="C71" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
+    <hyperlink ref="C25" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
+    <hyperlink ref="C73" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
+    <hyperlink ref="C26" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
+    <hyperlink ref="C208" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C101" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
+    <hyperlink ref="C48" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
+    <hyperlink ref="C209" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C93" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
+    <hyperlink ref="C74" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
+    <hyperlink ref="C75" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
+    <hyperlink ref="C76" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
+    <hyperlink ref="C128" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
+    <hyperlink ref="C127" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
+    <hyperlink ref="C173" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
+    <hyperlink ref="C174" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
+    <hyperlink ref="C175" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
+    <hyperlink ref="C239" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
+    <hyperlink ref="C240" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
+    <hyperlink ref="C141" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
+    <hyperlink ref="C138" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
+    <hyperlink ref="C238" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
+    <hyperlink ref="C241" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
+    <hyperlink ref="C253" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
+    <hyperlink ref="C242" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
+    <hyperlink ref="C210" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
+    <hyperlink ref="C220" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
+    <hyperlink ref="C254" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
+    <hyperlink ref="C77" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
+    <hyperlink ref="C27" r:id="rId193" xr:uid="{336D2BFE-AE7C-43CD-B70D-41AC31D490AD}"/>
+    <hyperlink ref="C78" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
+    <hyperlink ref="C211" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
+    <hyperlink ref="C28" r:id="rId196" xr:uid="{EA5B730A-0B86-4C08-897F-78F1729E0FFC}"/>
+    <hyperlink ref="C145" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
+    <hyperlink ref="C176" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
+    <hyperlink ref="C177" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
+    <hyperlink ref="C178" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
+    <hyperlink ref="C29" r:id="rId201" xr:uid="{5BDB0628-CED6-4311-85CE-11F31CB5B7E9}"/>
+    <hyperlink ref="C18" r:id="rId202" xr:uid="{C16F3FE6-B260-4938-9C4C-4265EF6E820D}"/>
+    <hyperlink ref="C79" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId184"/>
+  <pageSetup orientation="portrait" r:id="rId204"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105BAF31-6D55-4848-B5C7-44585E7D922A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94B849-5FDB-4DD0-A7AD-5BEE9AC82BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="626">
   <si>
     <t>Problem</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-subarray/</t>
-  </si>
-  <si>
-    <t>Microsoft Facebook</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/contains-duplicate/</t>
@@ -1839,6 +1836,75 @@
   </si>
   <si>
     <t>Airbnb Amazon Facebook Microsoft</t>
+  </si>
+  <si>
+    <t>Permutation in String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Facebook Google Microsoft Uber Yahoo</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shuffle-the-array/</t>
+  </si>
+  <si>
+    <t>Shuffle the Array</t>
+  </si>
+  <si>
+    <t>Adobe Alibaba Amazon Apple Asana Atlassian Bloomberg ByteDance Capital One Cisco Citadel eBay Evernote Expedia Facebook Goldman Sachs Google Intel caMorgan LinkedIn Microsoft Morgan Stanley Nvidia Oracle Palantir Technologies Paypal Salesforce SAP Two Sigma Uber Walmart Labs Wayfair Yahoo Zillow</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game-ii/</t>
+  </si>
+  <si>
+    <t>Jump Game II</t>
+  </si>
+  <si>
+    <t>Adobe Alibaba Amazon Apple Facebook Goldman Sachs Google Huawei Microsoft Nutanix Oracle Uber</t>
+  </si>
+  <si>
+    <t>Find All Anagrams in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-anagrams-in-a-string/</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Facebook Goldman Sachs Google Microsoft Oracle Robinhood Uber</t>
+  </si>
+  <si>
+    <t>Add Binary</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-binary/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Facebook Google Microsoft Oracle</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Google Microsoft SAP</t>
+  </si>
+  <si>
+    <t>Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-missing-positive-number/</t>
+  </si>
+  <si>
+    <t>Akuna Capital Amazon Apple Bloomberg Expedia Facebook GoDaddy Goldman Sachs Google Lyft Microsoft Redfin Snapchat Walmart Labs Wayfair Yandex Yelp Zillow</t>
+  </si>
+  <si>
+    <t>String Compression</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/string-compression/</t>
   </si>
 </sst>
 </file>
@@ -2261,12 +2327,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F255"/>
+  <dimension ref="A1:F264"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2287,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
@@ -2336,7 +2402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -2350,7 +2416,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>608</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>5</v>
@@ -2361,16 +2427,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2378,7 +2444,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2386,16 +2452,16 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>5</v>
@@ -2406,16 +2472,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>5</v>
@@ -2426,16 +2492,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>
@@ -2446,16 +2512,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>5</v>
@@ -2466,13 +2532,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,16 +2546,16 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>5</v>
@@ -2500,16 +2566,16 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2517,16 +2583,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2534,16 +2600,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2551,16 +2617,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2568,16 +2634,16 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
+        <v>245</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>247</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2585,16 +2651,16 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
+        <v>596</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -2602,16 +2668,16 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2619,16 +2685,16 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2636,16 +2702,16 @@
         <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>457</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -2653,16 +2719,16 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2670,16 +2736,16 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
+        <v>481</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -2687,13 +2753,13 @@
         <v>13</v>
       </c>
       <c r="B24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>486</v>
-      </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>11</v>
@@ -2704,16 +2770,16 @@
         <v>13</v>
       </c>
       <c r="B25" t="s">
+        <v>496</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -2721,16 +2787,16 @@
         <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -2738,16 +2804,16 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
+        <v>574</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -2755,16 +2821,16 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2772,3125 +2838,3277 @@
         <v>13</v>
       </c>
       <c r="B29" t="s">
+        <v>593</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>595</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
-      <c r="C31" s="1"/>
+      <c r="B30" t="s">
+        <v>607</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>610</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="9"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" t="s">
         <v>410</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C35" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="2" t="s">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B36" t="s">
+        <v>414</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B34" t="s">
-        <v>415</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>410</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B37" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>201</v>
+    </row>
+    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B38" t="s">
+        <v>603</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>409</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>612</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>613</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>202</v>
+        <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B40" t="s">
-        <v>221</v>
-      </c>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A40" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B42" t="s">
-        <v>223</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B43" t="s">
-        <v>369</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>386</v>
+        <v>204</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>387</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>398</v>
+        <v>221</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>419</v>
+        <v>368</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>453</v>
+        <v>384</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>452</v>
+        <v>385</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B48" t="s">
+        <v>398</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" t="s">
+        <v>418</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" t="s">
+        <v>452</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="9"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="8" t="s">
-        <v>117</v>
+      <c r="D51" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="B52" t="s">
+        <v>615</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="9"/>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="9"/>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="9"/>
+    </row>
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="3" t="s">
+      <c r="E58" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B55" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A56" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B57" t="s">
-        <v>190</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" t="s">
-        <v>211</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>189</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>338</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>212</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>343</v>
+        <v>213</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>357</v>
+        <v>215</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>358</v>
+        <v>214</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>417</v>
+        <v>295</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>418</v>
+        <v>296</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>428</v>
+        <v>56</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>427</v>
+        <v>55</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>446</v>
+        <v>335</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>447</v>
+        <v>336</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>448</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>479</v>
+        <v>341</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>480</v>
+        <v>342</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>490</v>
+        <v>357</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>491</v>
+        <v>355</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>494</v>
+        <v>416</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>495</v>
+        <v>417</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>501</v>
+        <v>445</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>502</v>
+        <v>447</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>520</v>
+        <v>478</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>523</v>
+        <v>494</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="F76" s="4"/>
+        <v>495</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>573</v>
+        <v>492</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>572</v>
+        <v>491</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F77" s="4"/>
+        <v>216</v>
+      </c>
     </row>
     <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>578</v>
+        <v>500</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>579</v>
+        <v>499</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" t="s">
+        <v>519</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="s">
+        <v>520</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>523</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" t="s">
+        <v>572</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="s">
+        <v>577</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>600</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D84" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="8"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B84" t="s">
-        <v>105</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>100</v>
+    </row>
+    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>101</v>
+        <v>624</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>104</v>
+        <v>625</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>5</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>102</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="A86" s="8"/>
+      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B87" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B88" t="s">
-        <v>192</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>200</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>198</v>
-      </c>
+      <c r="A87" s="8"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>104</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>230</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="B91" t="s">
-        <v>243</v>
-      </c>
       <c r="C91" s="1" t="s">
-        <v>242</v>
+        <v>103</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>244</v>
+        <v>193</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>199</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B96" t="s">
+        <v>228</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>469</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="D98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B93" t="s">
+    </row>
+    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>515</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="9"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="9"/>
-    </row>
-    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="8" t="s">
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="9"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="9"/>
+    </row>
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B103" t="s">
         <v>38</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C103" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D103" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="2" t="s">
+      <c r="F103" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="D104" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B105" t="s">
+        <v>44</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106" t="s">
+        <v>379</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B107" t="s">
+        <v>507</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B108" t="s">
+        <v>618</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B109" t="s">
+        <v>621</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B98" t="s">
-        <v>43</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B99" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="s">
+        <v>125</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="s">
+        <v>128</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="9"/>
+    </row>
+    <row r="118" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F99" s="5"/>
-    </row>
-    <row r="100" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B100" t="s">
-        <v>380</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B101" t="s">
-        <v>508</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B105" t="s">
-        <v>122</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B107" t="s">
-        <v>126</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B108" t="s">
-        <v>129</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="9"/>
-    </row>
-    <row r="111" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="B118" t="s">
+        <v>49</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" t="s">
-        <v>54</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B113" t="s">
-        <v>48</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B114" t="s">
-        <v>207</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B115" t="s">
-        <v>303</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B116" t="s">
-        <v>306</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B117" t="s">
-        <v>308</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>311</v>
+        <v>52</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>313</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B120" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B120" t="s">
-        <v>345</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>348</v>
+        <v>206</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>349</v>
+        <v>207</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>302</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>382</v>
+        <v>305</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>402</v>
+        <v>308</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>403</v>
+        <v>309</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>404</v>
+        <v>314</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>35</v>
+        <v>315</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>406</v>
+        <v>313</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
+        <v>311</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B127" t="s">
+        <v>344</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B128" t="s">
+        <v>347</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B130" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" t="s">
+        <v>400</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B132" t="s">
+        <v>403</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B133" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B127" t="s">
-        <v>531</v>
-      </c>
-      <c r="C127" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A134" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" t="s">
         <v>530</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="2" t="s">
+      <c r="C134" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B135" t="s">
+        <v>525</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B128" t="s">
-        <v>526</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="8"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="8"/>
-    </row>
-    <row r="132" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="9" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="8"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="8"/>
+    </row>
+    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B139" t="s">
+        <v>85</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B140" t="s">
         <v>81</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C140" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B141" t="s">
         <v>86</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B134" t="s">
+      <c r="C141" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C134" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" t="s">
         <v>88</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" t="s">
+      <c r="C142" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A143" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B143" t="s">
         <v>90</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A136" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B136" t="s">
+      <c r="C143" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D143" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B137" t="s">
-        <v>488</v>
-      </c>
-      <c r="C137" s="3" t="s">
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B144" t="s">
         <v>487</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="2" t="s">
+      <c r="C144" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A138" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B138" t="s">
+    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B145" t="s">
+        <v>548</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D145" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="9"/>
-      <c r="C139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="9"/>
+      <c r="C146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B147" t="s">
+        <v>366</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D147" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A141" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="B141" t="s">
-        <v>548</v>
-      </c>
-      <c r="C141" s="3" t="s">
+    </row>
+    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B148" t="s">
         <v>547</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E141" s="2" t="s">
+      <c r="C148" s="3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="9"/>
-      <c r="C142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="9"/>
-      <c r="C143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B145" t="s">
+      <c r="D148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="9"/>
+      <c r="C149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="9"/>
+      <c r="C150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B152" t="s">
+        <v>584</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B146" t="s">
+    </row>
+    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B153" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B147" t="s">
-        <v>286</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B148" t="s">
-        <v>276</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B149" t="s">
-        <v>280</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B150" t="s">
-        <v>300</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B151" t="s">
-        <v>283</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B152" t="s">
-        <v>59</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B153" t="s">
-        <v>95</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="D153" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>96</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B154" t="s">
+        <v>285</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B155" t="s">
+        <v>275</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B156" t="s">
+        <v>279</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B157" t="s">
+        <v>299</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B158" t="s">
+        <v>282</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A159" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B159" t="s">
         <v>58</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C159" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B160" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s">
+        <v>97</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B155" t="s">
+    </row>
+    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B162" t="s">
+        <v>236</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E155" s="2" t="s">
+      <c r="D162" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B163" t="s">
+        <v>247</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B164" t="s">
         <v>251</v>
       </c>
-      <c r="F155" s="6" t="s">
+      <c r="C164" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B165" t="s">
+        <v>255</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B167" t="s">
+        <v>257</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" t="s">
+        <v>266</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>277</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B170" t="s">
+        <v>260</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B171" t="s">
+        <v>270</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B172" t="s">
+        <v>289</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B173" t="s">
+        <v>323</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>325</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B175" t="s">
+        <v>329</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B176" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>372</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" t="s">
+        <v>442</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B179" t="s">
+        <v>461</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B180" t="s">
+        <v>532</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B181" t="s">
+        <v>534</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B182" t="s">
+        <v>536</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A183" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B183" t="s">
+        <v>586</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184" t="s">
+        <v>589</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B185" t="s">
+        <v>591</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8"/>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="8"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B189" t="s">
+        <v>132</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B190" t="s">
+        <v>137</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B191" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B192" t="s">
+        <v>139</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A193" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B193" t="s">
+        <v>141</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B194" t="s">
+        <v>146</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A195" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B195" t="s">
+        <v>148</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F195" s="4" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B156" t="s">
-        <v>248</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B157" t="s">
-        <v>252</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B158" t="s">
-        <v>256</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A160" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B160" t="s">
-        <v>258</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A161" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B161" t="s">
-        <v>267</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B162" t="s">
-        <v>278</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B163" t="s">
-        <v>261</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A164" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B164" t="s">
-        <v>271</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B165" t="s">
-        <v>290</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B166" t="s">
-        <v>324</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B167" t="s">
-        <v>326</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B168" t="s">
-        <v>330</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B169" t="s">
-        <v>362</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" s="2" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B170" t="s">
-        <v>373</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B171" t="s">
-        <v>443</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B172" t="s">
-        <v>462</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B173" t="s">
-        <v>533</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B174" t="s">
-        <v>535</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B175" t="s">
-        <v>537</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B176" t="s">
-        <v>587</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B177" t="s">
-        <v>590</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B178" t="s">
-        <v>592</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="8"/>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="8"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B182" t="s">
-        <v>133</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B183" t="s">
-        <v>138</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B184" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B185" t="s">
-        <v>140</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A186" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B186" t="s">
-        <v>142</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E186" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="F186" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B187" t="s">
-        <v>147</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E187" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A188" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B188" t="s">
-        <v>149</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F188" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B189" t="s">
-        <v>155</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B190" t="s">
-        <v>151</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A191" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B191" t="s">
-        <v>158</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E191" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B192" t="s">
-        <v>161</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F192" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B193" t="s">
-        <v>165</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B194" t="s">
-        <v>170</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B195" t="s">
-        <v>172</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B197" t="s">
+        <v>150</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A198" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B198" t="s">
+        <v>157</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B199" t="s">
+        <v>160</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" t="s">
+        <v>164</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A201" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B202" t="s">
+        <v>171</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A203" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B203" t="s">
+        <v>178</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B204" t="s">
+        <v>182</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="8" t="s">
+      <c r="D204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B207" t="s">
+        <v>333</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B200" t="s">
+      <c r="D207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E200" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B201" t="s">
-        <v>339</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B202" t="s">
-        <v>376</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B203" t="s">
-        <v>391</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E203" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B204" t="s">
-        <v>396</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E204" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A205" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B205" t="s">
-        <v>423</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E205" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B206" t="s">
-        <v>424</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E206" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B207" t="s">
-        <v>119</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="F207" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B208" t="s">
+        <v>338</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B209" t="s">
+        <v>375</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B210" t="s">
+        <v>390</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B211" t="s">
+        <v>395</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B212" t="s">
+        <v>422</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B213" t="s">
+        <v>423</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A214" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B214" t="s">
+        <v>118</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B215" t="s">
+        <v>504</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="D215" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D208" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B209" t="s">
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B216" t="s">
+        <v>513</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B210" t="s">
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B217" t="s">
+        <v>563</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="C210" s="1" t="s">
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B218" t="s">
+        <v>580</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B219" t="s">
+        <v>610</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="8"/>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="8"/>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A223" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B223" t="s">
+        <v>429</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A224" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B224" t="s">
+        <v>434</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B225" t="s">
+        <v>438</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A226" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B226" t="s">
+        <v>439</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B227" t="s">
+        <v>466</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B228" t="s">
+        <v>472</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B229" t="s">
+        <v>567</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="B211" t="s">
-        <v>581</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="8"/>
-    </row>
-    <row r="214" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B214" t="s">
-        <v>430</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A215" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B215" t="s">
-        <v>435</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B216" t="s">
-        <v>439</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A217" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B217" t="s">
-        <v>440</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E217" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B218" t="s">
-        <v>467</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E218" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B219" t="s">
-        <v>473</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E219" s="2" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B220" t="s">
-        <v>568</v>
-      </c>
-      <c r="C220" s="1" t="s">
+      <c r="D229" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E220" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="9"/>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="9"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="8" t="s">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="9"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="9"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B233" t="s">
         <v>68</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C233" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="E233" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="8"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="8"/>
-    </row>
-    <row r="227" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B227" t="s">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="8"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="8"/>
+    </row>
+    <row r="236" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A236" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B236" t="s">
+        <v>108</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B237" t="s">
         <v>109</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="C237" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="8"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="8"/>
+      <c r="B239" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B228" t="s">
-        <v>110</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="8"/>
-      <c r="B230" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B231" t="s">
+    <row r="240" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A240" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B240" t="s">
+        <v>166</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B232" t="s">
-        <v>196</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B233" t="s">
-        <v>219</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F233" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B234" t="s">
-        <v>355</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E234" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B235" t="s">
-        <v>388</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E235" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B236" t="s">
-        <v>478</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="8"/>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B238" t="s">
-        <v>554</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E238" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B239" t="s">
-        <v>541</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E239" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B240" t="s">
-        <v>543</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>545</v>
+        <v>165</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B241" t="s">
+        <v>195</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B242" t="s">
+        <v>218</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B243" t="s">
+        <v>354</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B244" t="s">
+        <v>387</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A245" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B245" t="s">
+        <v>477</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="8"/>
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B247" t="s">
+        <v>553</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B248" t="s">
+        <v>540</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B249" t="s">
+        <v>542</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B250" t="s">
+        <v>555</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="D250" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A251" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" t="s">
+        <v>560</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="8"/>
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="8"/>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="8"/>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B257" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B258" t="s">
+        <v>225</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A259" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B259" t="s">
+        <v>240</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B260" t="s">
+        <v>317</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A261" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B261" t="s">
+        <v>319</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="D241" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E241" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A242" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B242" t="s">
-        <v>561</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-      <c r="C243" s="1"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="8"/>
-      <c r="C244" s="1"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="8"/>
-      <c r="C245" s="1"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B248" t="s">
-        <v>292</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F248" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B249" t="s">
-        <v>226</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A250" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B250" t="s">
-        <v>241</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E250" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="F250" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A251" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B251" t="s">
-        <v>318</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D251" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E251" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A252" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B252" t="s">
-        <v>320</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D252" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E252" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="9" t="s">
+      <c r="B262" t="s">
         <v>558</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C262" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="D253" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E253" s="2" t="s">
+      <c r="D262" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="B254" t="s">
-        <v>571</v>
-      </c>
-      <c r="C254" s="1" t="s">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B263" t="s">
         <v>570</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E254" s="2" t="s">
+      <c r="C263" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A255" s="9"/>
+      <c r="D263" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A82:F254 C81:F81 A81 A1:F80">
+  <conditionalFormatting sqref="C87:F87 A87 A1:F86 A88:F263">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="intuit">
       <formula>NOT(ISERROR(SEARCH("intuit",A1)))</formula>
     </cfRule>
@@ -5907,203 +6125,212 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C97" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C98" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C99" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C113" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C111" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C112" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C103" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C104" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C105" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C120" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C118" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C119" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C152" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C159" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C224" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C233" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C133" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C132" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C134" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C135" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C136" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C153" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C154" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C86" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C85" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C84" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C227" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C228" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C87" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C105" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C106" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C107" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C108" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C182" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C183" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C185" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C186" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C187" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C188" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C190" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C189" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C191" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C192" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C193" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C231" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C194" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C195" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
-    <hyperlink ref="C55" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C196" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C197" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
-    <hyperlink ref="C56" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
-    <hyperlink ref="C57" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C88" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C232" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C89" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
-    <hyperlink ref="C39" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
-    <hyperlink ref="C41" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C114" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
-    <hyperlink ref="C58" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
-    <hyperlink ref="C59" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
-    <hyperlink ref="C60" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C233" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
-    <hyperlink ref="C42" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C249" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C90" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
-    <hyperlink ref="C52" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
-    <hyperlink ref="C53" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
-    <hyperlink ref="D53" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
-    <hyperlink ref="C54" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C155" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C250" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C91" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C140" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C139" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C141" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C142" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C143" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C160" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C161" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C92" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C91" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C90" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C236" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C237" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C93" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C112" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C113" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C114" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C115" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C189" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C190" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C192" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C193" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C194" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C195" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C197" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C196" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C198" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C199" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C200" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C240" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C201" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C202" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C60" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
+    <hyperlink ref="C203" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C204" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C61" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
+    <hyperlink ref="C62" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
+    <hyperlink ref="C94" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C241" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C95" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C42" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
+    <hyperlink ref="C44" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
+    <hyperlink ref="C121" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C63" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
+    <hyperlink ref="C64" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
+    <hyperlink ref="C65" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
+    <hyperlink ref="C242" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C45" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
+    <hyperlink ref="C258" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C96" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C57" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
+    <hyperlink ref="C58" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
+    <hyperlink ref="D58" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
+    <hyperlink ref="C59" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
+    <hyperlink ref="C162" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C259" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C97" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C156" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C157" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C158" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C160" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C163" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C159" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C161" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C164" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C146" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C148" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C162" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C149" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C151" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C147" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C165" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C248" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
-    <hyperlink ref="C61" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C150" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
-    <hyperlink ref="C115" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
-    <hyperlink ref="C116" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
-    <hyperlink ref="C117" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
-    <hyperlink ref="C119" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
-    <hyperlink ref="C118" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C251" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C252" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
-    <hyperlink ref="C62" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C166" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C167" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C168" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C200" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
-    <hyperlink ref="C63" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C201" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
-    <hyperlink ref="C64" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
-    <hyperlink ref="C120" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
-    <hyperlink ref="C121" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C163" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C164" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C165" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C167" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C170" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C166" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C168" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C171" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C153" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C155" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C169" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C156" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C158" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C154" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C172" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C257" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C66" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C157" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C122" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C123" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C124" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C126" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C125" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C260" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C261" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C67" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
+    <hyperlink ref="C173" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C174" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C175" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C207" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C68" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
+    <hyperlink ref="C208" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C69" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
+    <hyperlink ref="C127" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C128" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
     <hyperlink ref="C19" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C234" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
-    <hyperlink ref="C65" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
-    <hyperlink ref="C122" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C169" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C140" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
-    <hyperlink ref="C43" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C170" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C202" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
-    <hyperlink ref="C100" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
-    <hyperlink ref="C123" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
-    <hyperlink ref="C44" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C235" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C203" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C204" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
-    <hyperlink ref="C45" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
-    <hyperlink ref="C124" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
-    <hyperlink ref="C125" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
-    <hyperlink ref="C126" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
-    <hyperlink ref="C33" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
-    <hyperlink ref="C34" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
-    <hyperlink ref="C66" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
-    <hyperlink ref="C46" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C205" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C206" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C207" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
-    <hyperlink ref="C67" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C214" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C215" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C216" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C217" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C171" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
-    <hyperlink ref="C68" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
-    <hyperlink ref="C35" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
-    <hyperlink ref="C47" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
+    <hyperlink ref="C243" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C70" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
+    <hyperlink ref="C129" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C176" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C147" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C46" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
+    <hyperlink ref="C177" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C209" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C106" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
+    <hyperlink ref="C130" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
+    <hyperlink ref="C47" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
+    <hyperlink ref="C244" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C210" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C211" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C48" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
+    <hyperlink ref="C131" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
+    <hyperlink ref="C132" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
+    <hyperlink ref="C133" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
+    <hyperlink ref="C35" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
+    <hyperlink ref="C36" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
+    <hyperlink ref="C71" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
+    <hyperlink ref="C49" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
+    <hyperlink ref="C212" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C213" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C214" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C72" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
+    <hyperlink ref="C223" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C224" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C225" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C226" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C178" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C73" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
+    <hyperlink ref="C37" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
+    <hyperlink ref="C50" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
     <hyperlink ref="C20" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
     <hyperlink ref="C21" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C172" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C179" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
     <hyperlink ref="C22" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C218" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
-    <hyperlink ref="C92" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C219" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C236" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
-    <hyperlink ref="C69" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
+    <hyperlink ref="C227" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C98" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
+    <hyperlink ref="C228" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C245" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C74" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
     <hyperlink ref="C23" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
     <hyperlink ref="C24" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
-    <hyperlink ref="C137" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
-    <hyperlink ref="C70" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
-    <hyperlink ref="C72" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
-    <hyperlink ref="C71" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
+    <hyperlink ref="C144" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C75" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
+    <hyperlink ref="C77" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
+    <hyperlink ref="C76" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
     <hyperlink ref="C25" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
-    <hyperlink ref="C73" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
+    <hyperlink ref="C78" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
     <hyperlink ref="C26" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C208" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
-    <hyperlink ref="C101" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
-    <hyperlink ref="C48" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C209" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
-    <hyperlink ref="C93" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
-    <hyperlink ref="C74" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
-    <hyperlink ref="C75" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
-    <hyperlink ref="C76" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
-    <hyperlink ref="C128" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
-    <hyperlink ref="C127" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
-    <hyperlink ref="C173" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
-    <hyperlink ref="C174" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
-    <hyperlink ref="C175" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
-    <hyperlink ref="C239" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
-    <hyperlink ref="C240" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
-    <hyperlink ref="C141" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
-    <hyperlink ref="C138" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
-    <hyperlink ref="C238" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
-    <hyperlink ref="C241" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
-    <hyperlink ref="C253" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
-    <hyperlink ref="C242" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
-    <hyperlink ref="C210" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
-    <hyperlink ref="C220" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
-    <hyperlink ref="C254" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
-    <hyperlink ref="C77" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
+    <hyperlink ref="C215" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C107" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
+    <hyperlink ref="C51" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
+    <hyperlink ref="C216" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C99" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
+    <hyperlink ref="C79" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
+    <hyperlink ref="C80" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
+    <hyperlink ref="C81" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
+    <hyperlink ref="C135" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
+    <hyperlink ref="C134" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
+    <hyperlink ref="C180" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
+    <hyperlink ref="C181" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
+    <hyperlink ref="C182" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
+    <hyperlink ref="C248" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
+    <hyperlink ref="C249" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
+    <hyperlink ref="C148" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
+    <hyperlink ref="C145" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
+    <hyperlink ref="C247" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
+    <hyperlink ref="C250" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
+    <hyperlink ref="C262" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
+    <hyperlink ref="C251" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
+    <hyperlink ref="C217" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
+    <hyperlink ref="C229" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
+    <hyperlink ref="C263" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
+    <hyperlink ref="C82" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
     <hyperlink ref="C27" r:id="rId193" xr:uid="{336D2BFE-AE7C-43CD-B70D-41AC31D490AD}"/>
-    <hyperlink ref="C78" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
-    <hyperlink ref="C211" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
+    <hyperlink ref="C83" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
+    <hyperlink ref="C218" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
     <hyperlink ref="C28" r:id="rId196" xr:uid="{EA5B730A-0B86-4C08-897F-78F1729E0FFC}"/>
-    <hyperlink ref="C145" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
-    <hyperlink ref="C176" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
-    <hyperlink ref="C177" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
-    <hyperlink ref="C178" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
+    <hyperlink ref="C152" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
+    <hyperlink ref="C183" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
+    <hyperlink ref="C184" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
+    <hyperlink ref="C185" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
     <hyperlink ref="C29" r:id="rId201" xr:uid="{5BDB0628-CED6-4311-85CE-11F31CB5B7E9}"/>
     <hyperlink ref="C18" r:id="rId202" xr:uid="{C16F3FE6-B260-4938-9C4C-4265EF6E820D}"/>
-    <hyperlink ref="C79" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
+    <hyperlink ref="C84" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
+    <hyperlink ref="C38" r:id="rId204" xr:uid="{F70E5659-BCAD-42E1-A1F7-4C6A2E9FF41A}"/>
+    <hyperlink ref="C30" r:id="rId205" xr:uid="{4446C40F-D4D9-47F3-8A01-74ECD5AE3A76}"/>
+    <hyperlink ref="C31" r:id="rId206" xr:uid="{A45C9945-E4AD-4FFF-A5CC-B44B40B3EB01}"/>
+    <hyperlink ref="C219" r:id="rId207" xr:uid="{763FB36A-11F1-4FAE-B153-4A96B6C2221C}"/>
+    <hyperlink ref="C39" r:id="rId208" xr:uid="{50076181-691E-4A50-8904-59B839E7F8F7}"/>
+    <hyperlink ref="C52" r:id="rId209" xr:uid="{9833A85F-FFDD-4219-8796-8875BFF90C12}"/>
+    <hyperlink ref="C108" r:id="rId210" xr:uid="{7FB742AA-12C9-4B22-A123-73E47822BA5C}"/>
+    <hyperlink ref="C109" r:id="rId211" xr:uid="{7F1BBD39-7052-4089-8139-3924CA683145}"/>
+    <hyperlink ref="C85" r:id="rId212" xr:uid="{175C55D0-BBC5-4287-B8F7-0D722F9E5F5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId204"/>
+  <pageSetup orientation="portrait" r:id="rId213"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94B849-5FDB-4DD0-A7AD-5BEE9AC82BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13344C-CC81-4675-8656-770CC4F25EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="646">
   <si>
     <t>Problem</t>
   </si>
@@ -1905,6 +1905,66 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/string-compression/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/linked-list-cycle-ii/</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple eBay Google LinkedIn Microsoft</t>
+  </si>
+  <si>
+    <t>Koko Eating Bananas</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/koko-eating-bananas/</t>
+  </si>
+  <si>
+    <t>Airbnb Facebook Google</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Atlassian Bloomberg Facebook Google LinkedIn Microsoft Oracle Salesforce SAP TripAdvisor Twitter Uber Visa Yahoo Yandex</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/recover-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>Recover Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Amazon Bloomberg Facebook Goldman Sachs Google Microsoft Uber</t>
+  </si>
+  <si>
+    <t>Number of Zero-Filled Subarrays</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-zero-filled-subarrays/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-path-sum/</t>
+  </si>
+  <si>
+    <t>Minimum Path Sum</t>
+  </si>
+  <si>
+    <t>Adobe Amazon Apple Bloomberg Dropbox Goldman Sachs Google Microsoft Nvidia Rubrik Uber</t>
+  </si>
+  <si>
+    <t>Minimum Cost For Tickets</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-cost-for-tickets/</t>
+  </si>
+  <si>
+    <t>Amazon Facebook Grab Uber</t>
   </si>
 </sst>
 </file>
@@ -2327,12 +2387,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F264"/>
+  <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2885,8 +2945,18 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>638</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
@@ -2967,85 +3037,75 @@
       <c r="C39" s="1" t="s">
         <v>613</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="E39" s="2" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B43" t="s">
-        <v>220</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E45" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3053,33 +3113,33 @@
         <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3087,10 +3147,16 @@
         <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3098,16 +3164,10 @@
         <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3115,38 +3175,51 @@
         <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B52" t="s">
+        <v>510</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
         <v>615</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="9"/>
-      <c r="C53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="9"/>
@@ -3154,76 +3227,60 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="9"/>
-    </row>
-    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>231</v>
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3231,67 +3288,70 @@
         <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -3299,152 +3359,152 @@
         <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>335</v>
+        <v>56</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E71" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3452,16 +3512,16 @@
         <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3469,16 +3529,16 @@
         <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3486,16 +3546,16 @@
         <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3503,47 +3563,50 @@
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -3551,161 +3614,161 @@
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="F82" s="4"/>
     </row>
-    <row r="83" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B85" t="s">
+        <v>600</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
         <v>624</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="8"/>
-      <c r="C86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>104</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="8"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F91" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3713,161 +3776,158 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B99" t="s">
+        <v>469</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
         <v>515</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="9"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="9"/>
     </row>
-    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" t="s">
-        <v>38</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="9"/>
+    </row>
+    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E104" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F104" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -3875,309 +3935,289 @@
         <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="5"/>
-    </row>
-    <row r="106" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>378</v>
+        <v>43</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>507</v>
+        <v>379</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>508</v>
+        <v>378</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>618</v>
+        <v>507</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>619</v>
+        <v>508</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B109" t="s">
+        <v>618</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" t="s">
         <v>621</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C110" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="D109" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E109" s="2" t="s">
+      <c r="D110" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="8"/>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" t="s">
+        <v>629</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="8"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B116" t="s">
         <v>121</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="C116" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D112" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E112" s="2" t="s">
+      <c r="D116" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B117" t="s">
         <v>122</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="C117" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F113" s="5" t="s">
+      <c r="D117" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B118" t="s">
         <v>125</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E114" s="2" t="s">
+      <c r="D118" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="C119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E115" s="2" t="s">
+      <c r="D119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="9"/>
-    </row>
-    <row r="118" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B118" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B119" t="s">
-        <v>53</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B120" t="s">
-        <v>47</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B121" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A120" s="9"/>
+    </row>
+    <row r="122" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>49</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>53</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>304</v>
+        <v>52</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>308</v>
+        <v>48</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>314</v>
+        <v>206</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>315</v>
+        <v>207</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -4185,33 +4225,33 @@
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>344</v>
+        <v>626</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>345</v>
+        <v>627</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>6</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4219,19 +4259,16 @@
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>307</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>359</v>
+        <v>308</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F129" s="6" t="s">
-        <v>12</v>
+        <v>309</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4239,16 +4276,13 @@
         <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>381</v>
+        <v>314</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>383</v>
+        <v>313</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,16 +4290,16 @@
         <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>400</v>
+        <v>311</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>401</v>
+        <v>310</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>402</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4273,16 +4307,16 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>403</v>
+        <v>344</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>404</v>
+        <v>345</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>405</v>
+        <v>346</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4290,16 +4324,16 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>408</v>
+        <v>348</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>406</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4307,349 +4341,349 @@
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>530</v>
+        <v>358</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>360</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B135" t="s">
+        <v>381</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B136" t="s">
+        <v>400</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B137" t="s">
+        <v>403</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B138" t="s">
+        <v>407</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B139" t="s">
+        <v>530</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A140" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B140" t="s">
         <v>525</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E135" s="2" t="s">
+      <c r="D140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="8"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="8"/>
-    </row>
-    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B139" t="s">
-        <v>85</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F139" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B140" t="s">
-        <v>81</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B141" t="s">
-        <v>86</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>34</v>
-      </c>
+      <c r="A141" s="8"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B142" t="s">
-        <v>88</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B143" t="s">
-        <v>90</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="8"/>
+    </row>
+    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B144" t="s">
-        <v>487</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>486</v>
+        <v>85</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>551</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B145" t="s">
-        <v>548</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>549</v>
+        <v>81</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>550</v>
+        <v>83</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="9"/>
-      <c r="C146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>364</v>
+        <v>116</v>
       </c>
       <c r="B147" t="s">
-        <v>366</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>365</v>
+        <v>88</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>367</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B148" t="s">
+        <v>90</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B149" t="s">
+        <v>487</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B150" t="s">
+        <v>548</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="9"/>
+      <c r="C151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A152" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B152" t="s">
+        <v>366</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B153" t="s">
         <v>547</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C153" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E148" s="2" t="s">
+      <c r="D153" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="9"/>
-      <c r="C149" s="3"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="9"/>
-      <c r="C150" s="3"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C151" s="3"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B152" t="s">
-        <v>584</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B153" t="s">
-        <v>272</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B154" t="s">
-        <v>285</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>287</v>
-      </c>
+      <c r="A154" s="9"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B155" t="s">
-        <v>275</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B156" t="s">
-        <v>279</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="9"/>
+      <c r="C155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>584</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>300</v>
+        <v>583</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B158" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B159" t="s">
-        <v>58</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>59</v>
+        <v>285</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>5</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -4657,87 +4691,87 @@
         <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>94</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>93</v>
+        <v>275</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B161" t="s">
-        <v>97</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>96</v>
+        <v>279</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>280</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B162" t="s">
-        <v>236</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>237</v>
+        <v>299</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>248</v>
+        <v>282</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B164" t="s">
-        <v>251</v>
+        <v>58</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>252</v>
+        <v>59</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -4745,33 +4779,33 @@
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>253</v>
+        <v>95</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>262</v>
+      <c r="B166" t="s">
+        <v>97</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>263</v>
+        <v>96</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4779,33 +4813,36 @@
         <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -4813,16 +4850,16 @@
         <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4830,251 +4867,251 @@
         <v>57</v>
       </c>
       <c r="B170" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B171" t="s">
-        <v>270</v>
+      <c r="B171" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B173" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B174" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B175" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B176" t="s">
-        <v>361</v>
+        <v>270</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>362</v>
+        <v>269</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>372</v>
+        <v>289</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>373</v>
+        <v>290</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B178" t="s">
-        <v>442</v>
+        <v>323</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>443</v>
+        <v>324</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>461</v>
+        <v>325</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>462</v>
+        <v>326</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B180" t="s">
-        <v>532</v>
+        <v>329</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>531</v>
+        <v>330</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>534</v>
+        <v>361</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>535</v>
+        <v>362</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B182" t="s">
-        <v>536</v>
+        <v>372</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>537</v>
+        <v>373</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B183" t="s">
-        <v>586</v>
+        <v>442</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>34</v>
+        <v>443</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B184" t="s">
-        <v>589</v>
+        <v>461</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>590</v>
+        <v>462</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>216</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5082,156 +5119,159 @@
         <v>57</v>
       </c>
       <c r="B185" t="s">
+        <v>532</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B186" t="s">
+        <v>534</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B187" t="s">
+        <v>536</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B188" t="s">
+        <v>586</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B189" t="s">
+        <v>589</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B190" t="s">
         <v>591</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C190" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E185" s="2" t="s">
+      <c r="D190" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="8"/>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="8"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B189" t="s">
-        <v>132</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B190" t="s">
-        <v>137</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="9" t="s">
-        <v>131</v>
+    <row r="191" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="B191" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B192" t="s">
-        <v>139</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E192" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A193" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B193" t="s">
-        <v>141</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F193" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B194" t="s">
-        <v>146</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8"/>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="8"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B196" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
@@ -5239,104 +5279,99 @@
         <v>131</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B198" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B199" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="F199" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B200" t="s">
-        <v>164</v>
+        <v>636</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>163</v>
+        <v>635</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="F200" s="7"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B201" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B202" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5344,16 +5379,16 @@
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -5361,172 +5396,159 @@
         <v>131</v>
       </c>
       <c r="B204" t="s">
+        <v>150</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A205" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B205" t="s">
+        <v>157</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B206" t="s">
+        <v>160</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B207" t="s">
+        <v>164</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A208" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B208" t="s">
+        <v>169</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B209" t="s">
+        <v>171</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B210" t="s">
+        <v>178</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B211" t="s">
         <v>182</v>
       </c>
-      <c r="C204" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E204" s="2" t="s">
+      <c r="D211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B207" t="s">
-        <v>333</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B208" t="s">
-        <v>338</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E208" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B209" t="s">
-        <v>375</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E209" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B210" t="s">
-        <v>390</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E210" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B211" t="s">
-        <v>395</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A212" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B212" t="s">
-        <v>422</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E212" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B213" t="s">
-        <v>423</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A214" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B214" t="s">
-        <v>118</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E214" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F214" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="9"/>
+      <c r="C212" s="1"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B215" t="s">
-        <v>504</v>
+        <v>333</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>505</v>
+        <v>332</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>506</v>
+        <v>334</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -5534,16 +5556,16 @@
         <v>331</v>
       </c>
       <c r="B216" t="s">
-        <v>513</v>
+        <v>338</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>512</v>
+        <v>339</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>514</v>
+        <v>340</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -5551,10 +5573,16 @@
         <v>331</v>
       </c>
       <c r="B217" t="s">
-        <v>563</v>
+        <v>375</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>564</v>
+        <v>376</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5562,361 +5590,368 @@
         <v>331</v>
       </c>
       <c r="B218" t="s">
+        <v>390</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B219" t="s">
+        <v>395</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A220" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B220" t="s">
+        <v>422</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B221" t="s">
+        <v>423</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A222" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B222" t="s">
+        <v>118</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B223" t="s">
+        <v>504</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B224" t="s">
+        <v>513</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B225" t="s">
+        <v>563</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B226" t="s">
         <v>580</v>
       </c>
-      <c r="C218" s="1" t="s">
+      <c r="C226" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A219" s="8" t="s">
+    <row r="227" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B227" t="s">
         <v>610</v>
       </c>
-      <c r="C219" s="1" t="s">
+      <c r="C227" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E219" s="2" t="s">
+      <c r="D227" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="8"/>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="8"/>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="223" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A223" s="9" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="8"/>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="8"/>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="231" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A231" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B231" t="s">
         <v>429</v>
       </c>
-      <c r="C223" s="1" t="s">
+      <c r="C231" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="D223" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E223" s="2" t="s">
+      <c r="D231" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A224" s="9" t="s">
+    <row r="232" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A232" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B232" t="s">
         <v>434</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C232" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E224" s="2" t="s">
+      <c r="D232" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="9" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B233" t="s">
         <v>438</v>
       </c>
-      <c r="C225" s="1" t="s">
+      <c r="C233" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E225" s="2" t="s">
+      <c r="D233" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A226" s="9" t="s">
+    <row r="234" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A234" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B234" t="s">
         <v>439</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C234" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E226" s="2" t="s">
+      <c r="D234" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="9" t="s">
+    <row r="235" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B235" t="s">
         <v>466</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C235" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="D235" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="9" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B236" t="s">
         <v>472</v>
       </c>
-      <c r="C228" s="1" t="s">
+      <c r="C236" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E228" s="2" t="s">
+      <c r="D236" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="9" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B237" t="s">
         <v>567</v>
       </c>
-      <c r="C229" s="1" t="s">
+      <c r="C237" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E229" s="2" t="s">
+      <c r="D237" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="9"/>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="9"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B233" t="s">
-        <v>68</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E233" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="8"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="8"/>
-    </row>
-    <row r="236" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A236" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B236" t="s">
-        <v>108</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E236" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B237" t="s">
-        <v>109</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="8"/>
+      <c r="A238" s="9"/>
+      <c r="C238" s="1"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="8"/>
-      <c r="B239" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A240" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B240" t="s">
-        <v>166</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E240" s="2" t="s">
-        <v>165</v>
-      </c>
+      <c r="A239" s="9"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B241" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>196</v>
+        <v>70</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B242" t="s">
-        <v>218</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E242" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A242" s="8"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B243" t="s">
-        <v>354</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E243" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="8"/>
+    </row>
+    <row r="244" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B244" t="s">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B245" t="s">
-        <v>477</v>
+        <v>109</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>475</v>
+        <v>110</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E245" s="2" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="8"/>
-      <c r="C246" s="1"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="A247" s="8"/>
       <c r="B247" t="s">
-        <v>553</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E247" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A248" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B248" t="s">
-        <v>540</v>
+        <v>166</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>541</v>
+        <v>165</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5924,16 +5959,16 @@
         <v>67</v>
       </c>
       <c r="B249" t="s">
-        <v>542</v>
+        <v>195</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>543</v>
+        <v>194</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>544</v>
+        <v>196</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5941,174 +5976,326 @@
         <v>67</v>
       </c>
       <c r="B250" t="s">
-        <v>555</v>
+        <v>218</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>556</v>
+        <v>217</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="F250" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B251" t="s">
-        <v>560</v>
+        <v>354</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>561</v>
+        <v>352</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>562</v>
+        <v>353</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A252" s="8"/>
-      <c r="C252" s="1"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A253" s="8"/>
-      <c r="C253" s="1"/>
+      <c r="A252" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B252" t="s">
+        <v>387</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A253" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B253" t="s">
+        <v>477</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="8"/>
       <c r="C254" s="1"/>
     </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B255" t="s">
+        <v>553</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B256" t="s">
+        <v>540</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B257" t="s">
+        <v>542</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B258" t="s">
+        <v>555</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A259" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B259" t="s">
+        <v>560</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A260" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B260" t="s">
+        <v>641</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B261" t="s">
+        <v>643</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="8"/>
+      <c r="C262" s="1"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B265" t="s">
         <v>291</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="C265" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E257" s="2" t="s">
+      <c r="D265" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F257" s="6" t="s">
+      <c r="F265" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A258" s="9" t="s">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B266" t="s">
         <v>225</v>
       </c>
-      <c r="C258" s="1" t="s">
+      <c r="C266" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E258" s="2" t="s">
+      <c r="D266" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A259" s="9" t="s">
+    <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A267" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B267" t="s">
         <v>240</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="C267" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E259" s="2" t="s">
+      <c r="D267" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F259" s="6" t="s">
+      <c r="F267" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A260" s="9" t="s">
+    <row r="268" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B268" t="s">
         <v>317</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D260" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E260" s="2" t="s">
+      <c r="D268" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A261" s="9" t="s">
+    <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A269" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B269" t="s">
         <v>319</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C269" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E261" s="2" t="s">
+      <c r="D269" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="9" t="s">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B270" t="s">
         <v>558</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="D262" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E262" s="2" t="s">
+      <c r="D270" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A263" s="9" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B271" t="s">
         <v>570</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="C271" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D263" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E263" s="2" t="s">
+      <c r="D271" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A264" s="9"/>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C87:F87 A87 A1:F86 A88:F263">
+  <conditionalFormatting sqref="A88 A1:F87 A89:F271 C88:F88">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="intuit">
       <formula>NOT(ISERROR(SEARCH("intuit",A1)))</formula>
     </cfRule>
@@ -6125,212 +6312,219 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C103" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C104" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C105" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C120" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C118" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C119" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C104" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C105" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C106" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C124" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C122" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C123" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C159" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C164" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C233" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C241" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C140" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C139" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C141" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C142" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C143" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C160" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C161" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C92" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C91" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C90" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C236" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C237" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C93" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C112" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C113" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C114" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C115" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C189" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C190" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C192" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C193" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C194" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C195" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C197" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C196" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C198" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C199" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C200" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C240" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C201" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C202" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
-    <hyperlink ref="C60" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C203" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C204" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
-    <hyperlink ref="C61" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
-    <hyperlink ref="C62" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C94" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C241" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C95" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
-    <hyperlink ref="C42" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
-    <hyperlink ref="C44" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C121" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
-    <hyperlink ref="C63" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
-    <hyperlink ref="C64" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
-    <hyperlink ref="C65" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C242" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
-    <hyperlink ref="C45" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C258" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C96" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
-    <hyperlink ref="C57" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
-    <hyperlink ref="C58" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
-    <hyperlink ref="D58" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
-    <hyperlink ref="C59" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C162" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C259" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C97" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C145" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C144" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C146" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C147" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C148" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C165" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C166" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C93" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C92" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C91" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C244" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C245" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C94" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C116" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C117" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C118" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C119" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C195" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C196" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C198" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C199" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C201" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C202" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C204" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C203" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C205" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C206" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C207" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C248" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C208" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C209" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C61" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
+    <hyperlink ref="C210" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C211" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C62" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
+    <hyperlink ref="C63" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
+    <hyperlink ref="C95" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C249" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C96" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C43" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
+    <hyperlink ref="C45" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
+    <hyperlink ref="C125" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C64" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
+    <hyperlink ref="C65" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
+    <hyperlink ref="C66" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
+    <hyperlink ref="C250" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C46" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
+    <hyperlink ref="C266" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C97" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C58" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
+    <hyperlink ref="C59" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
+    <hyperlink ref="D59" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
+    <hyperlink ref="C60" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
+    <hyperlink ref="C167" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C267" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C98" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C163" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C164" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C165" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C167" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C170" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C166" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C168" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C171" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C153" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C155" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C169" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C156" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C158" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C154" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C172" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C257" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
-    <hyperlink ref="C66" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C157" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
-    <hyperlink ref="C122" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
-    <hyperlink ref="C123" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
-    <hyperlink ref="C124" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
-    <hyperlink ref="C126" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
-    <hyperlink ref="C125" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C260" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C261" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
-    <hyperlink ref="C67" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C173" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C174" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C175" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C207" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
-    <hyperlink ref="C68" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C208" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
-    <hyperlink ref="C69" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
-    <hyperlink ref="C127" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
-    <hyperlink ref="C128" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C168" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C169" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C170" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C172" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C175" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C171" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C173" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C176" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C158" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C160" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C174" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C161" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C163" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C159" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C177" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C265" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C67" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C162" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C126" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C128" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C129" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C131" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C130" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C268" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C269" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C68" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
+    <hyperlink ref="C178" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C179" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C180" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C215" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C69" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
+    <hyperlink ref="C216" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C70" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
+    <hyperlink ref="C132" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C133" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
     <hyperlink ref="C19" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C243" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
-    <hyperlink ref="C70" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
-    <hyperlink ref="C129" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C176" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C147" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
-    <hyperlink ref="C46" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C177" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C209" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
-    <hyperlink ref="C106" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
-    <hyperlink ref="C130" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
-    <hyperlink ref="C47" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C244" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C210" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C211" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
-    <hyperlink ref="C48" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
-    <hyperlink ref="C131" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
-    <hyperlink ref="C132" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
-    <hyperlink ref="C133" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
+    <hyperlink ref="C251" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C71" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
+    <hyperlink ref="C134" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C181" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C152" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C47" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
+    <hyperlink ref="C182" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C217" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C107" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
+    <hyperlink ref="C135" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
+    <hyperlink ref="C48" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
+    <hyperlink ref="C252" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C218" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C219" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C49" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
+    <hyperlink ref="C136" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
+    <hyperlink ref="C137" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
+    <hyperlink ref="C138" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
     <hyperlink ref="C35" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
     <hyperlink ref="C36" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
-    <hyperlink ref="C71" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
-    <hyperlink ref="C49" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C212" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C213" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C214" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
-    <hyperlink ref="C72" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C223" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C224" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C225" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C226" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C178" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
-    <hyperlink ref="C73" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
+    <hyperlink ref="C72" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
+    <hyperlink ref="C50" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
+    <hyperlink ref="C220" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C221" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C222" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C73" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
+    <hyperlink ref="C231" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C232" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C233" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C234" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C183" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C74" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
     <hyperlink ref="C37" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
-    <hyperlink ref="C50" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
+    <hyperlink ref="C51" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
     <hyperlink ref="C20" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
     <hyperlink ref="C21" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C179" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C184" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
     <hyperlink ref="C22" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C227" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
-    <hyperlink ref="C98" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C228" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C245" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
-    <hyperlink ref="C74" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
+    <hyperlink ref="C235" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C99" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
+    <hyperlink ref="C236" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C253" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C75" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
     <hyperlink ref="C23" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
     <hyperlink ref="C24" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
-    <hyperlink ref="C144" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
-    <hyperlink ref="C75" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
-    <hyperlink ref="C77" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
-    <hyperlink ref="C76" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
+    <hyperlink ref="C149" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C76" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
+    <hyperlink ref="C78" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
+    <hyperlink ref="C77" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
     <hyperlink ref="C25" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
-    <hyperlink ref="C78" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
+    <hyperlink ref="C79" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
     <hyperlink ref="C26" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C215" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
-    <hyperlink ref="C107" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
-    <hyperlink ref="C51" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C216" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
-    <hyperlink ref="C99" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
-    <hyperlink ref="C79" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
-    <hyperlink ref="C80" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
-    <hyperlink ref="C81" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
-    <hyperlink ref="C135" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
-    <hyperlink ref="C134" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
-    <hyperlink ref="C180" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
-    <hyperlink ref="C181" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
-    <hyperlink ref="C182" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
-    <hyperlink ref="C248" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
-    <hyperlink ref="C249" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
-    <hyperlink ref="C148" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
-    <hyperlink ref="C145" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
-    <hyperlink ref="C247" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
-    <hyperlink ref="C250" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
-    <hyperlink ref="C262" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
-    <hyperlink ref="C251" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
-    <hyperlink ref="C217" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
-    <hyperlink ref="C229" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
-    <hyperlink ref="C263" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
-    <hyperlink ref="C82" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
+    <hyperlink ref="C223" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C108" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
+    <hyperlink ref="C52" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
+    <hyperlink ref="C224" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C100" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
+    <hyperlink ref="C80" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
+    <hyperlink ref="C81" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
+    <hyperlink ref="C82" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
+    <hyperlink ref="C140" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
+    <hyperlink ref="C139" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
+    <hyperlink ref="C185" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
+    <hyperlink ref="C186" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
+    <hyperlink ref="C187" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
+    <hyperlink ref="C256" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
+    <hyperlink ref="C257" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
+    <hyperlink ref="C153" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
+    <hyperlink ref="C150" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
+    <hyperlink ref="C255" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
+    <hyperlink ref="C258" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
+    <hyperlink ref="C270" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
+    <hyperlink ref="C259" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
+    <hyperlink ref="C225" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
+    <hyperlink ref="C237" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
+    <hyperlink ref="C271" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
+    <hyperlink ref="C83" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
     <hyperlink ref="C27" r:id="rId193" xr:uid="{336D2BFE-AE7C-43CD-B70D-41AC31D490AD}"/>
-    <hyperlink ref="C83" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
-    <hyperlink ref="C218" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
+    <hyperlink ref="C84" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
+    <hyperlink ref="C226" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
     <hyperlink ref="C28" r:id="rId196" xr:uid="{EA5B730A-0B86-4C08-897F-78F1729E0FFC}"/>
-    <hyperlink ref="C152" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
-    <hyperlink ref="C183" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
-    <hyperlink ref="C184" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
-    <hyperlink ref="C185" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
+    <hyperlink ref="C157" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
+    <hyperlink ref="C188" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
+    <hyperlink ref="C189" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
+    <hyperlink ref="C190" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
     <hyperlink ref="C29" r:id="rId201" xr:uid="{5BDB0628-CED6-4311-85CE-11F31CB5B7E9}"/>
     <hyperlink ref="C18" r:id="rId202" xr:uid="{C16F3FE6-B260-4938-9C4C-4265EF6E820D}"/>
-    <hyperlink ref="C84" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
+    <hyperlink ref="C85" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
     <hyperlink ref="C38" r:id="rId204" xr:uid="{F70E5659-BCAD-42E1-A1F7-4C6A2E9FF41A}"/>
     <hyperlink ref="C30" r:id="rId205" xr:uid="{4446C40F-D4D9-47F3-8A01-74ECD5AE3A76}"/>
     <hyperlink ref="C31" r:id="rId206" xr:uid="{A45C9945-E4AD-4FFF-A5CC-B44B40B3EB01}"/>
-    <hyperlink ref="C219" r:id="rId207" xr:uid="{763FB36A-11F1-4FAE-B153-4A96B6C2221C}"/>
+    <hyperlink ref="C227" r:id="rId207" xr:uid="{763FB36A-11F1-4FAE-B153-4A96B6C2221C}"/>
     <hyperlink ref="C39" r:id="rId208" xr:uid="{50076181-691E-4A50-8904-59B839E7F8F7}"/>
-    <hyperlink ref="C52" r:id="rId209" xr:uid="{9833A85F-FFDD-4219-8796-8875BFF90C12}"/>
-    <hyperlink ref="C108" r:id="rId210" xr:uid="{7FB742AA-12C9-4B22-A123-73E47822BA5C}"/>
-    <hyperlink ref="C109" r:id="rId211" xr:uid="{7F1BBD39-7052-4089-8139-3924CA683145}"/>
-    <hyperlink ref="C85" r:id="rId212" xr:uid="{175C55D0-BBC5-4287-B8F7-0D722F9E5F5D}"/>
+    <hyperlink ref="C53" r:id="rId209" xr:uid="{9833A85F-FFDD-4219-8796-8875BFF90C12}"/>
+    <hyperlink ref="C109" r:id="rId210" xr:uid="{7FB742AA-12C9-4B22-A123-73E47822BA5C}"/>
+    <hyperlink ref="C110" r:id="rId211" xr:uid="{7F1BBD39-7052-4089-8139-3924CA683145}"/>
+    <hyperlink ref="C86" r:id="rId212" xr:uid="{175C55D0-BBC5-4287-B8F7-0D722F9E5F5D}"/>
+    <hyperlink ref="C127" r:id="rId213" xr:uid="{3DAA53A4-E435-46EA-8822-1F0AEFF46027}"/>
+    <hyperlink ref="C111" r:id="rId214" xr:uid="{49DE2C7A-26CB-418B-B2D6-BF1F3ED8A010}"/>
+    <hyperlink ref="C191" r:id="rId215" xr:uid="{B3D735D5-E41B-4DAE-8F0F-9E1151ABD438}"/>
+    <hyperlink ref="C200" r:id="rId216" xr:uid="{B722ACF7-32A1-43BB-8AF1-C2A85D354C28}"/>
+    <hyperlink ref="C32" r:id="rId217" xr:uid="{11E1CDEA-1958-4D7D-A0C4-49BF7CA8B6CC}"/>
+    <hyperlink ref="C260" r:id="rId218" xr:uid="{C388917B-89BC-4253-BA97-54886E61B49F}"/>
+    <hyperlink ref="C261" r:id="rId219" xr:uid="{D5B7C314-3C70-441F-B3EB-49A536D70927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId213"/>
+  <pageSetup orientation="portrait" r:id="rId220"/>
 </worksheet>
 </file>
--- a/DSA Problems Sheet Krishnendu Addya.xlsx
+++ b/DSA Problems Sheet Krishnendu Addya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Algorithm Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF13344C-CC81-4675-8656-770CC4F25EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F01EA9-E909-4670-A865-7A54C35B8989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="654">
   <si>
     <t>Problem</t>
   </si>
@@ -1965,6 +1965,30 @@
   </si>
   <si>
     <t>Amazon Facebook Grab Uber</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-search/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-closed-islands/</t>
+  </si>
+  <si>
+    <t>Number of Closed Islands</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight/</t>
+  </si>
+  <si>
+    <t>Last Stone Weight</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-digits/</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>Adobe Apple Microsoft</t>
   </si>
 </sst>
 </file>
@@ -2387,12 +2411,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:F275"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A256" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E261" sqref="E261"/>
+      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2959,72 +2983,72 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="B35" t="s">
-        <v>410</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>412</v>
-      </c>
+      <c r="A33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>650</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="9"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B36" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B37" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>449</v>
+        <v>415</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>409</v>
       </c>
       <c r="B38" t="s">
-        <v>603</v>
+        <v>448</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>34</v>
+        <v>449</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>605</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3032,97 +3056,97 @@
         <v>409</v>
       </c>
       <c r="B39" t="s">
+        <v>603</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" t="s">
         <v>612</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>125</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B46" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E46" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>369</v>
+        <v>221</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -3130,33 +3154,33 @@
         <v>200</v>
       </c>
       <c r="B48" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B49" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3164,10 +3188,16 @@
         <v>200</v>
       </c>
       <c r="B50" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3175,16 +3205,10 @@
         <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3192,115 +3216,125 @@
         <v>200</v>
       </c>
       <c r="B52" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>511</v>
+        <v>451</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>200</v>
       </c>
       <c r="B53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
         <v>615</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="9"/>
-      <c r="C54" s="1"/>
-    </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="9"/>
-      <c r="C55" s="1"/>
+      <c r="A55" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" t="s">
+        <v>652</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="9"/>
-    </row>
-    <row r="58" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="9"/>
+    </row>
+    <row r="59" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>231</v>
+        <v>17</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>235</v>
+        <v>8</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B61" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3308,67 +3342,70 @@
         <v>116</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B64" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3376,152 +3413,152 @@
         <v>116</v>
       </c>
       <c r="B66" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>296</v>
+        <v>214</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>56</v>
+        <v>295</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>55</v>
+        <v>296</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>335</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>336</v>
+        <v>55</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>416</v>
+        <v>356</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="E72" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -3529,16 +3566,16 @@
         <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>478</v>
+        <v>445</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>479</v>
+        <v>446</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3546,16 +3583,16 @@
         <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -3563,16 +3600,16 @@
         <v>116</v>
       </c>
       <c r="B77" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -3580,47 +3617,50 @@
         <v>116</v>
       </c>
       <c r="B78" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B79" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B80" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3628,161 +3668,161 @@
         <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="F82" s="4"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>571</v>
+        <v>522</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>216</v>
+        <v>524</v>
       </c>
       <c r="F83" s="4"/>
     </row>
-    <row r="84" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B86" t="s">
+        <v>600</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
         <v>624</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C87" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="C87" s="1"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B91" t="s">
-        <v>104</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="8"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B92" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -3790,193 +3830,192 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>469</v>
+        <v>242</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>470</v>
+        <v>241</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>99</v>
       </c>
       <c r="B100" t="s">
+        <v>469</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A101" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>515</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C101" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E100" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="9"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="9"/>
     </row>
-    <row r="104" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" t="s">
-        <v>38</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>12</v>
-      </c>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B105" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>41</v>
+        <v>646</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F105" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E105" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B106" t="s">
-        <v>44</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F106" s="5"/>
-    </row>
-    <row r="107" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E106" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B107" t="s">
-        <v>379</v>
+        <v>42</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>378</v>
+        <v>41</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>377</v>
+      <c r="F107" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -3984,33 +4023,31 @@
         <v>37</v>
       </c>
       <c r="B108" t="s">
-        <v>507</v>
+        <v>44</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>508</v>
+        <v>43</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B109" t="s">
-        <v>618</v>
+        <v>379</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>619</v>
+        <v>378</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>620</v>
+        <v>377</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4018,101 +4055,98 @@
         <v>37</v>
       </c>
       <c r="B110" t="s">
-        <v>621</v>
+        <v>507</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>622</v>
+        <v>508</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B111" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C112" s="1"/>
+      <c r="B112" t="s">
+        <v>621</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>37</v>
       </c>
+      <c r="B113" t="s">
+        <v>629</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="8"/>
+      <c r="A114" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" t="s">
-        <v>121</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" t="s">
-        <v>122</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A116" s="8"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>119</v>
       </c>
       <c r="B118" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -4120,186 +4154,192 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
+        <v>122</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>125</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
         <v>128</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C121" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="D121" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="9"/>
-    </row>
-    <row r="122" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B122" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123" t="s">
-        <v>53</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="9"/>
+    </row>
+    <row r="124" spans="1:6" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>302</v>
+        <v>47</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>626</v>
+        <v>206</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>627</v>
+        <v>207</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>626</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>308</v>
+        <v>627</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4307,16 +4347,13 @@
         <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>344</v>
+        <v>314</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>34</v>
+        <v>315</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -4324,36 +4361,33 @@
         <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>348</v>
+        <v>310</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>12</v>
+        <v>346</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -4361,33 +4395,36 @@
         <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>402</v>
+        <v>360</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4395,16 +4432,16 @@
         <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4412,161 +4449,161 @@
         <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>530</v>
+        <v>403</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>529</v>
+        <v>404</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B140" t="s">
+        <v>407</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B141" t="s">
+        <v>530</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142" t="s">
         <v>525</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C142" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="D142" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="8"/>
-    </row>
-    <row r="144" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B144" t="s">
-        <v>85</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B145" t="s">
-        <v>81</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F145" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="8"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="8"/>
+    </row>
+    <row r="146" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="B147" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>80</v>
       </c>
       <c r="B148" t="s">
-        <v>90</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B149" t="s">
-        <v>487</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>486</v>
+        <v>88</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>6</v>
+        <v>468</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4574,167 +4611,167 @@
         <v>80</v>
       </c>
       <c r="B150" t="s">
-        <v>548</v>
+        <v>90</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>549</v>
+        <v>91</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>550</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="9"/>
-      <c r="C151" s="3"/>
+      <c r="A151" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" t="s">
+        <v>487</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B152" t="s">
+        <v>548</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="9"/>
+      <c r="C153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B154" t="s">
         <v>366</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C154" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152" s="2" t="s">
+      <c r="D154" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="9" t="s">
+    <row r="155" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>547</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C155" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="2" t="s">
+      <c r="D155" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="9"/>
-      <c r="C154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="9"/>
-      <c r="C155" s="3"/>
-    </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="9"/>
       <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B157" t="s">
-        <v>584</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B158" t="s">
-        <v>272</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="A157" s="9"/>
+      <c r="C157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B159" t="s">
-        <v>285</v>
+        <v>584</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>286</v>
+        <v>583</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B162" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>298</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4742,90 +4779,87 @@
         <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B164" t="s">
-        <v>58</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>59</v>
+        <v>299</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B165" t="s">
-        <v>94</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>93</v>
+        <v>282</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B166" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>236</v>
+        <v>94</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>237</v>
+        <v>93</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F167" s="6" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -4833,33 +4867,36 @@
         <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>247</v>
+        <v>97</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>6</v>
+        <v>250</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -4867,118 +4904,118 @@
         <v>57</v>
       </c>
       <c r="B170" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B171" s="2" t="s">
-        <v>262</v>
+      <c r="B171" t="s">
+        <v>251</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B172" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B173" t="s">
-        <v>266</v>
+      <c r="B173" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A174" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B174" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B175" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B176" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
@@ -4986,132 +5023,135 @@
         <v>57</v>
       </c>
       <c r="B177" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A178" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B178" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B179" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B180" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B181" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A182" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B182" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B183" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>443</v>
+        <v>362</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B184" t="s">
-        <v>461</v>
+        <v>372</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>460</v>
+        <v>371</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5119,167 +5159,173 @@
         <v>57</v>
       </c>
       <c r="B185" t="s">
-        <v>532</v>
+        <v>442</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>34</v>
+        <v>443</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B186" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B188" t="s">
-        <v>586</v>
+        <v>534</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>587</v>
+        <v>535</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B189" t="s">
-        <v>589</v>
+        <v>536</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>590</v>
+        <v>537</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B190" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B191" t="s">
+        <v>589</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B192" t="s">
+        <v>591</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B193" t="s">
         <v>634</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C193" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="D191" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E191" s="2" t="s">
+      <c r="D193" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="8"/>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="8"/>
+    <row r="194" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8"/>
+      <c r="C194" s="1"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B195" t="s">
-        <v>132</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B196" t="s">
-        <v>137</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="A195" s="8"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B197" t="s">
-        <v>140</v>
+        <v>132</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -5287,71 +5333,61 @@
         <v>131</v>
       </c>
       <c r="B198" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B199" t="s">
-        <v>141</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E199" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B200" t="s">
-        <v>636</v>
+        <v>139</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>635</v>
+        <v>138</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F200" s="7"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B201" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>145</v>
+        <v>380</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5359,53 +5395,54 @@
         <v>131</v>
       </c>
       <c r="B202" t="s">
-        <v>148</v>
+        <v>636</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>147</v>
+        <v>635</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+      <c r="F202" s="7"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B203" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B204" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5413,16 +5450,16 @@
         <v>131</v>
       </c>
       <c r="B205" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -5430,53 +5467,53 @@
         <v>131</v>
       </c>
       <c r="B206" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B207" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>131</v>
       </c>
       <c r="B208" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -5484,16 +5521,16 @@
         <v>131</v>
       </c>
       <c r="B209" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5501,16 +5538,16 @@
         <v>131</v>
       </c>
       <c r="B210" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -5518,71 +5555,71 @@
         <v>131</v>
       </c>
       <c r="B211" t="s">
+        <v>171</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A212" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B212" t="s">
+        <v>178</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B213" t="s">
         <v>182</v>
       </c>
-      <c r="C211" s="1" t="s">
+      <c r="C213" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D211" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E211" s="2" t="s">
+      <c r="D213" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="9"/>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B215" t="s">
-        <v>333</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E215" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B216" t="s">
-        <v>338</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E216" s="2" t="s">
-        <v>340</v>
-      </c>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="9"/>
+      <c r="C214" s="1"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B217" t="s">
-        <v>375</v>
+        <v>333</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>393</v>
+        <v>334</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -5590,16 +5627,16 @@
         <v>331</v>
       </c>
       <c r="B218" t="s">
-        <v>390</v>
+        <v>338</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>391</v>
+        <v>339</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -5607,33 +5644,33 @@
         <v>331</v>
       </c>
       <c r="B219" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B220" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>420</v>
+        <v>392</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -5641,16 +5678,16 @@
         <v>331</v>
       </c>
       <c r="B221" t="s">
-        <v>423</v>
+        <v>395</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>425</v>
+        <v>394</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5658,19 +5695,16 @@
         <v>331</v>
       </c>
       <c r="B222" t="s">
-        <v>118</v>
+        <v>422</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>117</v>
+        <v>421</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F222" s="5" t="s">
-        <v>12</v>
+        <v>420</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -5678,33 +5712,36 @@
         <v>331</v>
       </c>
       <c r="B223" t="s">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>505</v>
+        <v>425</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" s="8" t="s">
         <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>513</v>
+        <v>118</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>512</v>
+        <v>117</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>514</v>
+        <v>374</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
@@ -5712,10 +5749,16 @@
         <v>331</v>
       </c>
       <c r="B225" t="s">
-        <v>563</v>
+        <v>504</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>564</v>
+        <v>505</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
@@ -5723,272 +5766,268 @@
         <v>331</v>
       </c>
       <c r="B226" t="s">
+        <v>513</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B227" t="s">
+        <v>563</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B228" t="s">
         <v>580</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C228" s="1" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A227" s="8" t="s">
+    <row r="229" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A229" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B229" t="s">
         <v>610</v>
       </c>
-      <c r="C227" s="1" t="s">
+      <c r="C229" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E227" s="2" t="s">
+      <c r="D229" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="8"/>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="8"/>
-      <c r="C229" s="1"/>
-    </row>
-    <row r="231" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A231" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B231" t="s">
-        <v>429</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A232" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B232" t="s">
-        <v>434</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E232" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="8"/>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="8"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="233" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>430</v>
       </c>
       <c r="B233" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>430</v>
       </c>
       <c r="B234" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>430</v>
       </c>
       <c r="B235" t="s">
-        <v>466</v>
+        <v>438</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>467</v>
+        <v>436</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>430</v>
       </c>
       <c r="B236" t="s">
-        <v>472</v>
+        <v>439</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>430</v>
       </c>
       <c r="B237" t="s">
+        <v>466</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B238" t="s">
+        <v>472</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B239" t="s">
         <v>567</v>
       </c>
-      <c r="C237" s="1" t="s">
+      <c r="C239" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E237" s="2" t="s">
+      <c r="D239" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="9"/>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="9"/>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="9"/>
+      <c r="C240" s="1"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="8" t="s">
+      <c r="A241" s="9"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B243" t="s">
         <v>68</v>
       </c>
-      <c r="C241" s="1" t="s">
+      <c r="C243" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E241" s="2" t="s">
+      <c r="D243" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="8"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="8"/>
-    </row>
-    <row r="244" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B244" t="s">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="8"/>
+    </row>
+    <row r="246" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A246" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B246" t="s">
         <v>108</v>
       </c>
-      <c r="C244" s="1" t="s">
+      <c r="C246" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D244" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E244" s="2" t="s">
+      <c r="D246" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="8" t="s">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B247" t="s">
         <v>109</v>
       </c>
-      <c r="C245" s="1" t="s">
+      <c r="C247" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D245" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="8"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="8"/>
-      <c r="B247" t="s">
+      <c r="D247" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="8"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="8"/>
+      <c r="B249" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A248" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B248" t="s">
-        <v>166</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E248" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B249" t="s">
-        <v>195</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E249" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A250" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B250" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F250" s="4" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5996,16 +6035,16 @@
         <v>67</v>
       </c>
       <c r="B251" t="s">
-        <v>354</v>
+        <v>195</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -6013,88 +6052,91 @@
         <v>67</v>
       </c>
       <c r="B252" t="s">
-        <v>387</v>
+        <v>218</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>388</v>
+        <v>217</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B253" t="s">
-        <v>477</v>
+        <v>354</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>475</v>
+        <v>352</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>476</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A254" s="8"/>
-      <c r="C254" s="1"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" t="s">
+        <v>387</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B255" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>552</v>
+        <v>475</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>554</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A256" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B256" t="s">
-        <v>540</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>541</v>
-      </c>
+      <c r="A256" s="8"/>
+      <c r="C256" s="1"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B257" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
@@ -6102,159 +6144,159 @@
         <v>67</v>
       </c>
       <c r="B258" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>556</v>
+        <v>539</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B259" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>561</v>
+        <v>543</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B260" t="s">
-        <v>641</v>
+        <v>555</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>640</v>
+        <v>556</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A261" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B261" t="s">
+        <v>560</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A262" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B262" t="s">
+        <v>641</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B263" t="s">
         <v>643</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="C263" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="D261" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E261" s="2" t="s">
+      <c r="D263" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A262" s="8"/>
-      <c r="C262" s="1"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A265" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B265" t="s">
-        <v>291</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F265" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B266" t="s">
-        <v>225</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="8"/>
+      <c r="C264" s="1"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B267" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="F267" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B268" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
-        <v>223</v>
+        <v>557</v>
       </c>
       <c r="B269" t="s">
-        <v>319</v>
+        <v>240</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>318</v>
+        <v>239</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>321</v>
+        <v>238</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -6262,40 +6304,92 @@
         <v>557</v>
       </c>
       <c r="B270" t="s">
-        <v>558</v>
+        <v>648</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>559</v>
+        <v>647</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+      <c r="F270" s="6"/>
+    </row>
+    <row r="271" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>223</v>
       </c>
       <c r="B271" t="s">
+        <v>317</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A272" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B272" t="s">
+        <v>319</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="B273" t="s">
+        <v>558</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B274" t="s">
         <v>570</v>
       </c>
-      <c r="C271" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="D271" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E271" s="2" t="s">
+      <c r="D274" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A272" s="9"/>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="9"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A88 A1:F87 A89:F271 C88:F88">
+  <conditionalFormatting sqref="A1:F88 A89 C89:F89 A90:F274">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="intuit">
       <formula>NOT(ISERROR(SEARCH("intuit",A1)))</formula>
     </cfRule>
@@ -6312,219 +6406,223 @@
     <hyperlink ref="C8" r:id="rId6" xr:uid="{70C239D9-F145-4555-BD4A-EBADB8E863F2}"/>
     <hyperlink ref="C10" r:id="rId7" xr:uid="{C7BA05FC-656F-48BB-8393-0F77AAE06165}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{C7F61EA0-F940-436F-A005-046630EE2ED8}"/>
-    <hyperlink ref="C104" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
-    <hyperlink ref="C105" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
-    <hyperlink ref="C106" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
-    <hyperlink ref="C124" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
-    <hyperlink ref="C122" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
-    <hyperlink ref="C123" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
+    <hyperlink ref="C106" r:id="rId9" xr:uid="{1F951FB4-0D08-406F-8477-2FA71F4E210C}"/>
+    <hyperlink ref="C107" r:id="rId10" xr:uid="{A51A188A-9979-4EF3-B22F-C026BECE3018}"/>
+    <hyperlink ref="C108" r:id="rId11" xr:uid="{03D8D977-F0E9-41CC-8513-7F8A7DF71FE5}"/>
+    <hyperlink ref="C126" r:id="rId12" xr:uid="{245B9F46-CAF8-4867-96A5-C392EDA91921}"/>
+    <hyperlink ref="C124" r:id="rId13" xr:uid="{7A9795C0-E100-41FB-8865-9FD4E3E24DAE}"/>
+    <hyperlink ref="C125" r:id="rId14" xr:uid="{810DE0B5-F617-47DF-A282-35D96BC282DC}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{CCFE15CF-6CC3-4F00-91DA-23760D68D91E}"/>
-    <hyperlink ref="C164" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
+    <hyperlink ref="C166" r:id="rId16" xr:uid="{43F1B964-8FDB-4A2A-BF74-8B65742196DA}"/>
     <hyperlink ref="C11" r:id="rId17" xr:uid="{B22C6142-BACC-4B42-8E55-432B17288C73}"/>
     <hyperlink ref="C12" r:id="rId18" xr:uid="{DFE8A172-BA17-4F35-A520-CB5E4FC48067}"/>
-    <hyperlink ref="C241" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
+    <hyperlink ref="C243" r:id="rId19" xr:uid="{7A08E84E-1CFB-4A11-97EE-DFA3D7DF9638}"/>
     <hyperlink ref="C13" r:id="rId20" xr:uid="{199B2F6B-CE8C-4CAD-B13F-A951E04A94BF}"/>
     <hyperlink ref="C14" r:id="rId21" xr:uid="{38739E76-F358-411A-9AB2-F85EA7E12148}"/>
     <hyperlink ref="C15" r:id="rId22" xr:uid="{5B8F25AE-C819-4409-8A4A-AF4AB3BAEB19}"/>
-    <hyperlink ref="C145" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
-    <hyperlink ref="C144" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
-    <hyperlink ref="C146" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
-    <hyperlink ref="C147" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
-    <hyperlink ref="C148" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
-    <hyperlink ref="C165" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
-    <hyperlink ref="C166" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
-    <hyperlink ref="C93" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
-    <hyperlink ref="C92" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
-    <hyperlink ref="C91" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
-    <hyperlink ref="C244" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
-    <hyperlink ref="C245" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
-    <hyperlink ref="C94" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
-    <hyperlink ref="C116" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
-    <hyperlink ref="C117" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
-    <hyperlink ref="C118" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
-    <hyperlink ref="C119" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
-    <hyperlink ref="C195" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
-    <hyperlink ref="C196" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
-    <hyperlink ref="C198" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
-    <hyperlink ref="C199" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
-    <hyperlink ref="C201" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
-    <hyperlink ref="C202" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
-    <hyperlink ref="C204" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
-    <hyperlink ref="C203" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
-    <hyperlink ref="C205" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
-    <hyperlink ref="C206" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
-    <hyperlink ref="C207" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
-    <hyperlink ref="C248" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
-    <hyperlink ref="C208" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
-    <hyperlink ref="C209" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
-    <hyperlink ref="C61" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
-    <hyperlink ref="C210" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
-    <hyperlink ref="C211" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
-    <hyperlink ref="C62" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
-    <hyperlink ref="C63" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
-    <hyperlink ref="C95" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
-    <hyperlink ref="C249" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
-    <hyperlink ref="C96" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
-    <hyperlink ref="C43" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
-    <hyperlink ref="C45" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
-    <hyperlink ref="C125" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
-    <hyperlink ref="C64" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
-    <hyperlink ref="C65" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
-    <hyperlink ref="C66" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
-    <hyperlink ref="C250" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
-    <hyperlink ref="C46" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
-    <hyperlink ref="C266" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
-    <hyperlink ref="C97" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
-    <hyperlink ref="C58" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
-    <hyperlink ref="C59" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
-    <hyperlink ref="D59" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
-    <hyperlink ref="C60" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
-    <hyperlink ref="C167" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
-    <hyperlink ref="C267" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
-    <hyperlink ref="C98" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
+    <hyperlink ref="C147" r:id="rId23" xr:uid="{68B6F99A-094C-4350-81C8-5A70302D3626}"/>
+    <hyperlink ref="C146" r:id="rId24" xr:uid="{1D3B33E2-6AA8-4F82-9861-FD7264DE4D73}"/>
+    <hyperlink ref="C148" r:id="rId25" xr:uid="{7EFA6209-A246-4C65-BED1-8B2AA630C3F4}"/>
+    <hyperlink ref="C149" r:id="rId26" xr:uid="{B33E8563-62E8-4215-9878-384904433EB6}"/>
+    <hyperlink ref="C150" r:id="rId27" xr:uid="{F3D42D36-7006-4878-9D18-BAD1D4593C8A}"/>
+    <hyperlink ref="C167" r:id="rId28" xr:uid="{7B192547-C8C5-4D2E-9C5D-7EF3653354EE}"/>
+    <hyperlink ref="C168" r:id="rId29" xr:uid="{C8A02865-2762-4A13-9BAE-7C032A322938}"/>
+    <hyperlink ref="C94" r:id="rId30" xr:uid="{CF34620D-FED4-4D72-BE92-098D8ADBEE71}"/>
+    <hyperlink ref="C93" r:id="rId31" xr:uid="{D67DC3C7-B104-4E78-BCB5-9C6B01CE1697}"/>
+    <hyperlink ref="C92" r:id="rId32" xr:uid="{9241AB54-13F8-4DE9-A560-07E08A85101A}"/>
+    <hyperlink ref="C246" r:id="rId33" xr:uid="{D6B87B99-E1A7-4D48-B157-5075195E7D82}"/>
+    <hyperlink ref="C247" r:id="rId34" xr:uid="{4D869C33-0BD4-4170-85E4-6904DF71D762}"/>
+    <hyperlink ref="C95" r:id="rId35" xr:uid="{86CC6FA6-D73F-4ADE-A354-E2223BECD334}"/>
+    <hyperlink ref="C118" r:id="rId36" xr:uid="{E3A6375C-D78E-408B-A84D-E7C740911DCB}"/>
+    <hyperlink ref="C119" r:id="rId37" xr:uid="{2B81C9DA-487F-4C02-9437-A99DA4410271}"/>
+    <hyperlink ref="C120" r:id="rId38" xr:uid="{6F519983-6EBE-4DFB-83C0-7B9014919456}"/>
+    <hyperlink ref="C121" r:id="rId39" xr:uid="{8C614E6F-E851-4317-ACDE-C1556AA5E8F7}"/>
+    <hyperlink ref="C197" r:id="rId40" xr:uid="{C0CA6BB1-55C2-4906-9831-6EE26BCC3A46}"/>
+    <hyperlink ref="C198" r:id="rId41" xr:uid="{85415AED-9488-464E-BFF6-6538E3895F51}"/>
+    <hyperlink ref="C200" r:id="rId42" xr:uid="{E522D2E4-154D-4576-B913-49290FB32918}"/>
+    <hyperlink ref="C201" r:id="rId43" xr:uid="{6279EE9B-0215-45AF-A58A-A9F483BD58FA}"/>
+    <hyperlink ref="C203" r:id="rId44" xr:uid="{93DF5D70-2591-46A3-A5C5-3D100D2607D3}"/>
+    <hyperlink ref="C204" r:id="rId45" xr:uid="{D6016B41-3287-43B4-8245-63584B0AD7CB}"/>
+    <hyperlink ref="C206" r:id="rId46" xr:uid="{E359554D-064B-4EDA-AEB6-9A8078E75109}"/>
+    <hyperlink ref="C205" r:id="rId47" xr:uid="{2F2F4E16-697E-444F-BC0C-C2E7A441C55E}"/>
+    <hyperlink ref="C207" r:id="rId48" xr:uid="{56E6AEA4-D9BD-42DB-B315-C11ACE48E34E}"/>
+    <hyperlink ref="C208" r:id="rId49" xr:uid="{2A4DD587-E839-4AD2-AEB8-FE7B5F3182BF}"/>
+    <hyperlink ref="C209" r:id="rId50" xr:uid="{4B9DF6A1-F222-40CA-BC25-40B27456CD3D}"/>
+    <hyperlink ref="C250" r:id="rId51" xr:uid="{8DB5E9EA-8177-441C-B84D-E7998619AF9A}"/>
+    <hyperlink ref="C210" r:id="rId52" xr:uid="{959985A5-1464-49BE-A09D-1B68F576569A}"/>
+    <hyperlink ref="C211" r:id="rId53" xr:uid="{FFC37661-38C2-43BE-AA5C-64A5311A5F2D}"/>
+    <hyperlink ref="C62" r:id="rId54" xr:uid="{35320AF4-307A-42E3-AD4B-80BC639BF266}"/>
+    <hyperlink ref="C212" r:id="rId55" xr:uid="{DDDC9A6E-2E06-4435-83E3-8FE89FFB5113}"/>
+    <hyperlink ref="C213" r:id="rId56" xr:uid="{F6EE06B1-6C32-4626-83AF-F9BEF32924C5}"/>
+    <hyperlink ref="C63" r:id="rId57" xr:uid="{FAE54F08-2A70-4718-A5F7-1A99F973DE7E}"/>
+    <hyperlink ref="C64" r:id="rId58" xr:uid="{3818690A-08E0-481C-B2B6-5BDFA5D36311}"/>
+    <hyperlink ref="C96" r:id="rId59" xr:uid="{A96B1E7E-6903-4D8D-81FE-0F0AD1B3037B}"/>
+    <hyperlink ref="C251" r:id="rId60" xr:uid="{184A6E80-0134-4506-9CDC-83CA38F962B0}"/>
+    <hyperlink ref="C97" r:id="rId61" xr:uid="{8D7478ED-1164-481C-B6C1-F832AB39C991}"/>
+    <hyperlink ref="C44" r:id="rId62" xr:uid="{D54975DA-83C6-4E37-A1AE-BAD089DC4497}"/>
+    <hyperlink ref="C46" r:id="rId63" xr:uid="{3A547EAD-9760-4DFE-BD1E-08A302BAB668}"/>
+    <hyperlink ref="C127" r:id="rId64" xr:uid="{307CE380-739B-4302-A3B9-A65E7B81F377}"/>
+    <hyperlink ref="C65" r:id="rId65" xr:uid="{90BDE25F-C682-435F-AC0C-6226FAC7A665}"/>
+    <hyperlink ref="C66" r:id="rId66" xr:uid="{DD93D68E-1CDA-44B7-9C38-B9BD3EF2BE69}"/>
+    <hyperlink ref="C67" r:id="rId67" xr:uid="{2C5FF4E5-829D-45CB-A121-0D9D75942C8F}"/>
+    <hyperlink ref="C252" r:id="rId68" xr:uid="{EE0E3B89-AEA6-4DE4-941A-FD0428EAE327}"/>
+    <hyperlink ref="C47" r:id="rId69" xr:uid="{6EF0AE7A-7F5A-4178-8270-70A8CAD36E99}"/>
+    <hyperlink ref="C268" r:id="rId70" xr:uid="{7277620D-8AC8-4006-BC09-04CEC1BFCE9D}"/>
+    <hyperlink ref="C98" r:id="rId71" xr:uid="{973C4537-0FE6-47F8-A3FB-B1744A04595F}"/>
+    <hyperlink ref="C59" r:id="rId72" xr:uid="{B8EEECC5-4EA9-4A23-9AB3-A3E609C7052B}"/>
+    <hyperlink ref="C60" r:id="rId73" xr:uid="{351B3278-7233-4744-99C6-D93A9ABFB52B}"/>
+    <hyperlink ref="D60" r:id="rId74" xr:uid="{F85190BD-96AF-4C2A-B73E-62BE78C31A13}"/>
+    <hyperlink ref="C61" r:id="rId75" xr:uid="{E564B512-17E6-4A7D-A044-D6082B9284EE}"/>
+    <hyperlink ref="C169" r:id="rId76" xr:uid="{ABA632C8-ECC0-45E3-8110-0950005AE8E4}"/>
+    <hyperlink ref="C269" r:id="rId77" xr:uid="{E6FF77D5-C748-410C-A4DA-F6AD87BC6FC5}"/>
+    <hyperlink ref="C99" r:id="rId78" xr:uid="{7A4B39D8-FE9F-46A3-93FC-438CF31DB745}"/>
     <hyperlink ref="C17" r:id="rId79" xr:uid="{7D15D075-763A-431A-8066-D0EBFFCC1D72}"/>
-    <hyperlink ref="C168" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
-    <hyperlink ref="C169" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
-    <hyperlink ref="C170" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
-    <hyperlink ref="C172" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
-    <hyperlink ref="C175" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
-    <hyperlink ref="C171" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
-    <hyperlink ref="C173" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
-    <hyperlink ref="C176" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
-    <hyperlink ref="C158" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
-    <hyperlink ref="C160" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
-    <hyperlink ref="C174" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
-    <hyperlink ref="C161" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
-    <hyperlink ref="C163" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
-    <hyperlink ref="C159" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
-    <hyperlink ref="C177" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
-    <hyperlink ref="C265" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
-    <hyperlink ref="C67" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
-    <hyperlink ref="C162" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
-    <hyperlink ref="C126" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
-    <hyperlink ref="C128" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
-    <hyperlink ref="C129" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
-    <hyperlink ref="C131" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
-    <hyperlink ref="C130" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
-    <hyperlink ref="C268" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
-    <hyperlink ref="C269" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
-    <hyperlink ref="C68" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
-    <hyperlink ref="C178" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
-    <hyperlink ref="C179" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
-    <hyperlink ref="C180" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
-    <hyperlink ref="C215" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
-    <hyperlink ref="C69" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
-    <hyperlink ref="C216" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
-    <hyperlink ref="C70" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
-    <hyperlink ref="C132" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
-    <hyperlink ref="C133" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
+    <hyperlink ref="C170" r:id="rId80" xr:uid="{00866B8F-6F4F-4ADD-B7E1-05CBB5732F9B}"/>
+    <hyperlink ref="C171" r:id="rId81" xr:uid="{0985C7D3-29C3-4FD2-8B58-C644E65956FF}"/>
+    <hyperlink ref="C172" r:id="rId82" xr:uid="{BDA3A239-9ADE-4F4F-AE60-5A20A52C6C4A}"/>
+    <hyperlink ref="C174" r:id="rId83" xr:uid="{1F9D34FA-1B4D-40C8-8867-07C35A7B9452}"/>
+    <hyperlink ref="C177" r:id="rId84" xr:uid="{01C41E99-31D4-416F-BC8E-E12F02A3863D}"/>
+    <hyperlink ref="C173" r:id="rId85" xr:uid="{40B315C7-677D-4133-9550-99D2FB8BCDCE}"/>
+    <hyperlink ref="C175" r:id="rId86" xr:uid="{DDDA67F8-08FB-46AC-B0AC-D6BE761D5F9B}"/>
+    <hyperlink ref="C178" r:id="rId87" xr:uid="{8E746481-EAED-4277-9D6E-C34232FE3391}"/>
+    <hyperlink ref="C160" r:id="rId88" xr:uid="{411D5AA3-8EF3-43FC-8978-5B7C619D723A}"/>
+    <hyperlink ref="C162" r:id="rId89" xr:uid="{0A0F526D-5FB2-4358-BDBB-8E4A07B04E81}"/>
+    <hyperlink ref="C176" r:id="rId90" xr:uid="{8257DF84-B280-4171-ABA8-1D4D0FF8C842}"/>
+    <hyperlink ref="C163" r:id="rId91" xr:uid="{F8E80CDF-94CB-465A-B022-98C49AB7F404}"/>
+    <hyperlink ref="C165" r:id="rId92" xr:uid="{CC96DF44-3255-4812-9AD0-2E51001F2EF3}"/>
+    <hyperlink ref="C161" r:id="rId93" xr:uid="{FA5D72D6-2644-4B7F-A249-20BA99042864}"/>
+    <hyperlink ref="C179" r:id="rId94" xr:uid="{D736BCCF-128F-45DE-A1EF-55C61DB7FC67}"/>
+    <hyperlink ref="C267" r:id="rId95" xr:uid="{2A98C04D-537A-4C33-9047-6D5409B6CA1F}"/>
+    <hyperlink ref="C68" r:id="rId96" xr:uid="{057407CE-57A9-4D6B-9C88-51D8AF2FE4EA}"/>
+    <hyperlink ref="C164" r:id="rId97" xr:uid="{B2AF4B02-007E-400B-B3F8-107121562EBF}"/>
+    <hyperlink ref="C128" r:id="rId98" xr:uid="{9A55A619-6E07-40B4-BA3E-985C49A00C94}"/>
+    <hyperlink ref="C130" r:id="rId99" xr:uid="{BC4B6DAB-E09E-4D8B-8ACF-8C2286AEEEBF}"/>
+    <hyperlink ref="C131" r:id="rId100" xr:uid="{1853F394-4C60-4B19-AE99-762700D7E0CD}"/>
+    <hyperlink ref="C133" r:id="rId101" xr:uid="{7013D630-671D-4E04-A905-1F58F5EAAA85}"/>
+    <hyperlink ref="C132" r:id="rId102" xr:uid="{3B921147-310B-4D31-BDD7-32969B3947EB}"/>
+    <hyperlink ref="C271" r:id="rId103" xr:uid="{58C808F8-3AAB-45C1-AF51-2BF4959CB347}"/>
+    <hyperlink ref="C272" r:id="rId104" xr:uid="{6EBB068A-EAD3-45AA-AD3D-AECD81621428}"/>
+    <hyperlink ref="C69" r:id="rId105" xr:uid="{448D75E1-57D9-498F-9CDB-DA6BC9801A8E}"/>
+    <hyperlink ref="C180" r:id="rId106" xr:uid="{8CC65925-9664-4038-9DB5-418B6311EA21}"/>
+    <hyperlink ref="C181" r:id="rId107" xr:uid="{8538EFE3-27B3-4A1F-AB99-CBCBEB7E63B2}"/>
+    <hyperlink ref="C182" r:id="rId108" xr:uid="{FAE6A9DE-A1F6-4AE5-A418-049451B217B8}"/>
+    <hyperlink ref="C217" r:id="rId109" xr:uid="{B575447B-2B04-4E6C-AD69-C2B5062145E9}"/>
+    <hyperlink ref="C70" r:id="rId110" xr:uid="{84583D4C-A5B3-4C1E-9B23-B2EF6F92DC85}"/>
+    <hyperlink ref="C218" r:id="rId111" xr:uid="{217C694C-D8F4-4E90-8648-606C0F1D6B4D}"/>
+    <hyperlink ref="C71" r:id="rId112" xr:uid="{7A1F0A34-764D-41DA-A373-C9586F61C1C6}"/>
+    <hyperlink ref="C134" r:id="rId113" xr:uid="{DE1E8225-1E7B-4E6C-9DA7-092C7FF7EF6D}"/>
+    <hyperlink ref="C135" r:id="rId114" xr:uid="{AF7B981C-E1AF-4BC3-A9A9-1F80834EAC8B}"/>
     <hyperlink ref="C19" r:id="rId115" xr:uid="{E6594E4A-46BE-40ED-94C9-F966D485F733}"/>
-    <hyperlink ref="C251" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
-    <hyperlink ref="C71" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
-    <hyperlink ref="C134" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
-    <hyperlink ref="C181" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
-    <hyperlink ref="C152" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
-    <hyperlink ref="C47" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
-    <hyperlink ref="C182" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
-    <hyperlink ref="C217" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
-    <hyperlink ref="C107" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
-    <hyperlink ref="C135" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
-    <hyperlink ref="C48" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
-    <hyperlink ref="C252" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
-    <hyperlink ref="C218" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
-    <hyperlink ref="C219" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
-    <hyperlink ref="C49" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
-    <hyperlink ref="C136" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
-    <hyperlink ref="C137" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
-    <hyperlink ref="C138" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
-    <hyperlink ref="C35" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
-    <hyperlink ref="C36" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
-    <hyperlink ref="C72" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
-    <hyperlink ref="C50" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
-    <hyperlink ref="C220" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
-    <hyperlink ref="C221" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
-    <hyperlink ref="C222" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
-    <hyperlink ref="C73" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
-    <hyperlink ref="C231" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
-    <hyperlink ref="C232" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
-    <hyperlink ref="C233" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
-    <hyperlink ref="C234" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
-    <hyperlink ref="C183" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
-    <hyperlink ref="C74" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
-    <hyperlink ref="C37" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
-    <hyperlink ref="C51" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
+    <hyperlink ref="C253" r:id="rId116" xr:uid="{774B6481-F2CC-4D43-A460-7FA85A246947}"/>
+    <hyperlink ref="C72" r:id="rId117" xr:uid="{D26B86ED-414E-4391-A04A-09C04BFC8D8E}"/>
+    <hyperlink ref="C136" r:id="rId118" xr:uid="{5431F164-32D1-4A34-A63E-49D91D0FFF82}"/>
+    <hyperlink ref="C183" r:id="rId119" xr:uid="{AAECBF9A-2371-42AC-99EB-A28E7831DCE5}"/>
+    <hyperlink ref="C154" r:id="rId120" xr:uid="{83F941C3-396E-45A6-B32C-478124614E37}"/>
+    <hyperlink ref="C48" r:id="rId121" xr:uid="{D3F98397-EE85-4427-8D28-509DF9A6F00F}"/>
+    <hyperlink ref="C184" r:id="rId122" xr:uid="{759AD396-B9F7-4006-8B85-C8A835487E94}"/>
+    <hyperlink ref="C219" r:id="rId123" xr:uid="{CC208119-7D30-40B9-B58E-6FAA08976DD3}"/>
+    <hyperlink ref="C109" r:id="rId124" xr:uid="{E5BA10E7-A0E5-4827-A001-81DD0D7AFDA7}"/>
+    <hyperlink ref="C137" r:id="rId125" xr:uid="{45F9FBDB-C19D-4740-9EDC-F3B74FAF8C56}"/>
+    <hyperlink ref="C49" r:id="rId126" xr:uid="{0CCA5E5F-9806-43FA-9E0C-6F05A7AF2291}"/>
+    <hyperlink ref="C254" r:id="rId127" xr:uid="{6D7BA81F-0994-4EA6-BEE2-938BAF5E458D}"/>
+    <hyperlink ref="C220" r:id="rId128" xr:uid="{FA5FB8CD-4B15-410E-8CB7-8D9EE2F09053}"/>
+    <hyperlink ref="C221" r:id="rId129" xr:uid="{4563EA35-7408-4219-A28D-AD5628C62740}"/>
+    <hyperlink ref="C50" r:id="rId130" xr:uid="{88962AC6-ADE6-49EE-BDBE-F24F9C89BE3D}"/>
+    <hyperlink ref="C138" r:id="rId131" xr:uid="{AAD8BDF5-A187-43DA-98FB-87B89F341D88}"/>
+    <hyperlink ref="C139" r:id="rId132" xr:uid="{ACD50D9D-D8DA-402A-B47B-690ED2445CAE}"/>
+    <hyperlink ref="C140" r:id="rId133" xr:uid="{E06DD711-B871-4B15-B793-CF78DC7D3057}"/>
+    <hyperlink ref="C36" r:id="rId134" xr:uid="{0539BBFA-5C38-4AB7-B7CB-065849B9A1A0}"/>
+    <hyperlink ref="C37" r:id="rId135" xr:uid="{7F417F9F-BF73-4B03-830D-F8CDB5E42D0A}"/>
+    <hyperlink ref="C73" r:id="rId136" xr:uid="{A5175EFC-96FD-43EE-938B-A7EF5E226F46}"/>
+    <hyperlink ref="C51" r:id="rId137" xr:uid="{1B256897-7CC6-4F2B-8DC8-11E9AF7BCCDA}"/>
+    <hyperlink ref="C222" r:id="rId138" xr:uid="{682C681E-1419-4BD8-8502-7B18F3FD8640}"/>
+    <hyperlink ref="C223" r:id="rId139" xr:uid="{AF8BF056-CE38-4080-971A-40B4C27AB7E6}"/>
+    <hyperlink ref="C224" r:id="rId140" xr:uid="{09A10A39-E04B-44B4-9C3F-770053E592E5}"/>
+    <hyperlink ref="C74" r:id="rId141" xr:uid="{20EB5358-EC52-4C1E-8B10-FDDA3E8B2836}"/>
+    <hyperlink ref="C233" r:id="rId142" xr:uid="{3EA891FA-53C6-437C-A8BF-FD1EF7EDEC25}"/>
+    <hyperlink ref="C234" r:id="rId143" xr:uid="{9078598B-E2DD-4EE5-ADE8-574F1E8CD552}"/>
+    <hyperlink ref="C235" r:id="rId144" xr:uid="{D6A9BDBB-BC0F-452A-AB31-29E06B08B413}"/>
+    <hyperlink ref="C236" r:id="rId145" xr:uid="{AEDDEAAD-D9A7-4DAD-964D-A6312C57405C}"/>
+    <hyperlink ref="C185" r:id="rId146" xr:uid="{C9DBD4C8-397F-4171-B744-6A6DC106E105}"/>
+    <hyperlink ref="C75" r:id="rId147" xr:uid="{6A98A3F1-85DA-42A0-AFA1-480CEAD20334}"/>
+    <hyperlink ref="C38" r:id="rId148" xr:uid="{6D733963-D2DF-4C9C-9A8B-B229E7AA2D8E}"/>
+    <hyperlink ref="C52" r:id="rId149" xr:uid="{B6A717E7-4B81-49CD-BFD6-E028D38CFCD2}"/>
     <hyperlink ref="C20" r:id="rId150" xr:uid="{B003120E-847E-444E-8DBA-8ACC5959D864}"/>
     <hyperlink ref="C21" r:id="rId151" xr:uid="{1A89FE43-C9AF-4672-90C1-E44E62DC608D}"/>
-    <hyperlink ref="C184" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
+    <hyperlink ref="C186" r:id="rId152" xr:uid="{A335E4F0-8DEA-4CA2-864F-5CD87D6709CD}"/>
     <hyperlink ref="C22" r:id="rId153" xr:uid="{52FD74A0-8701-493B-BD69-7CD16EFC2ECB}"/>
-    <hyperlink ref="C235" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
-    <hyperlink ref="C99" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
-    <hyperlink ref="C236" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
-    <hyperlink ref="C253" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
-    <hyperlink ref="C75" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
+    <hyperlink ref="C237" r:id="rId154" xr:uid="{D574505A-713D-46C4-BAE8-510CCD300B3E}"/>
+    <hyperlink ref="C100" r:id="rId155" xr:uid="{BB0B8BF1-868B-49A6-8F06-A1E55717942A}"/>
+    <hyperlink ref="C238" r:id="rId156" xr:uid="{F1CB5EB7-298C-46C8-B2C8-8EFE5E56D690}"/>
+    <hyperlink ref="C255" r:id="rId157" xr:uid="{825F6267-949B-430B-813E-6D844179497F}"/>
+    <hyperlink ref="C76" r:id="rId158" xr:uid="{A9E35B50-A3C6-4642-B8FA-5EE30ED4B33D}"/>
     <hyperlink ref="C23" r:id="rId159" xr:uid="{1BED188C-A168-4FCA-9A7E-23E4A878A161}"/>
     <hyperlink ref="C24" r:id="rId160" xr:uid="{7487E370-1496-4D06-AC81-6ADF2957B3BD}"/>
-    <hyperlink ref="C149" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
-    <hyperlink ref="C76" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
-    <hyperlink ref="C78" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
-    <hyperlink ref="C77" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
+    <hyperlink ref="C151" r:id="rId161" xr:uid="{C0AEBE78-03E3-4DBC-87A7-69CA2F8A7833}"/>
+    <hyperlink ref="C77" r:id="rId162" xr:uid="{E0E1CFED-7C44-4A78-819B-6DE779406D4E}"/>
+    <hyperlink ref="C79" r:id="rId163" xr:uid="{68DAE553-7233-42BA-85E3-D222C892478D}"/>
+    <hyperlink ref="C78" r:id="rId164" xr:uid="{732D8B90-402C-4001-90A6-7D694C64A14A}"/>
     <hyperlink ref="C25" r:id="rId165" xr:uid="{3B565C60-0683-4D45-AF80-5536423858CC}"/>
-    <hyperlink ref="C79" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
+    <hyperlink ref="C80" r:id="rId166" xr:uid="{B060335E-EF33-4466-BC1D-49E7726E7E9F}"/>
     <hyperlink ref="C26" r:id="rId167" xr:uid="{EEC6F3DB-D8B7-442A-8E48-73C625D2C7B4}"/>
-    <hyperlink ref="C223" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
-    <hyperlink ref="C108" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
-    <hyperlink ref="C52" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
-    <hyperlink ref="C224" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
-    <hyperlink ref="C100" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
-    <hyperlink ref="C80" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
-    <hyperlink ref="C81" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
-    <hyperlink ref="C82" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
-    <hyperlink ref="C140" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
-    <hyperlink ref="C139" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
-    <hyperlink ref="C185" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
-    <hyperlink ref="C186" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
-    <hyperlink ref="C187" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
-    <hyperlink ref="C256" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
-    <hyperlink ref="C257" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
-    <hyperlink ref="C153" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
-    <hyperlink ref="C150" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
-    <hyperlink ref="C255" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
-    <hyperlink ref="C258" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
-    <hyperlink ref="C270" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
-    <hyperlink ref="C259" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
-    <hyperlink ref="C225" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
-    <hyperlink ref="C237" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
-    <hyperlink ref="C271" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
-    <hyperlink ref="C83" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
+    <hyperlink ref="C225" r:id="rId168" xr:uid="{F1984FE4-D23D-4FEE-99F3-AD11D77DEEFF}"/>
+    <hyperlink ref="C110" r:id="rId169" xr:uid="{D12B586E-CAA0-4278-8533-366C3D9441E1}"/>
+    <hyperlink ref="C53" r:id="rId170" xr:uid="{1D1FF1DC-8ADB-4075-8A6A-E324FAD8ADC7}"/>
+    <hyperlink ref="C226" r:id="rId171" xr:uid="{C3B333DF-E2CC-42AA-9E62-F2781B83F62E}"/>
+    <hyperlink ref="C101" r:id="rId172" xr:uid="{7AD5008D-605F-4EB2-AC64-1F466ECB8631}"/>
+    <hyperlink ref="C81" r:id="rId173" xr:uid="{280355A3-6CB1-4584-AC43-5AB97569B276}"/>
+    <hyperlink ref="C82" r:id="rId174" xr:uid="{1DEBA2F9-141C-4B9E-B8DA-7CEE39DC82E0}"/>
+    <hyperlink ref="C83" r:id="rId175" xr:uid="{70F34C90-B89F-4F03-9CAE-410A8008365B}"/>
+    <hyperlink ref="C142" r:id="rId176" xr:uid="{1BE313A0-FD30-4B35-9530-3EFD0C2733BB}"/>
+    <hyperlink ref="C141" r:id="rId177" xr:uid="{B43CBE22-19CC-48BB-B234-124190072E93}"/>
+    <hyperlink ref="C187" r:id="rId178" xr:uid="{5AC7B121-D61C-4C94-92B3-F9F016B59508}"/>
+    <hyperlink ref="C188" r:id="rId179" xr:uid="{49133AB5-1CA7-4CCC-8ADA-B6DACC57B5AF}"/>
+    <hyperlink ref="C189" r:id="rId180" xr:uid="{8C5EC4A8-DC7A-41CB-BED2-810AF58C8284}"/>
+    <hyperlink ref="C258" r:id="rId181" xr:uid="{793E55CC-1C1F-4D0F-A005-E594F806B649}"/>
+    <hyperlink ref="C259" r:id="rId182" xr:uid="{8398AF0C-BE0E-4383-A00F-0172E7B31012}"/>
+    <hyperlink ref="C155" r:id="rId183" xr:uid="{471803E9-A550-409B-BA1E-38E69893A7A6}"/>
+    <hyperlink ref="C152" r:id="rId184" xr:uid="{320D8395-52C3-4710-A9E3-B90E5AECE856}"/>
+    <hyperlink ref="C257" r:id="rId185" xr:uid="{0185D2D6-FA22-40A4-AC7F-625617920E91}"/>
+    <hyperlink ref="C260" r:id="rId186" xr:uid="{67F85B81-E762-46DA-ADEE-73C699716D35}"/>
+    <hyperlink ref="C273" r:id="rId187" xr:uid="{3442B7B6-865F-43DF-A7B1-6B714354C4A1}"/>
+    <hyperlink ref="C261" r:id="rId188" xr:uid="{734661C4-FAB5-4527-85B5-FC4C308921EB}"/>
+    <hyperlink ref="C227" r:id="rId189" xr:uid="{659844B2-DE19-4D65-98B6-D5F4CEECF405}"/>
+    <hyperlink ref="C239" r:id="rId190" xr:uid="{DD37AEDB-822A-41D3-B5BC-D890B6646C9A}"/>
+    <hyperlink ref="C274" r:id="rId191" xr:uid="{2B15D271-73EE-47EA-96D4-AE03EB23E56B}"/>
+    <hyperlink ref="C84" r:id="rId192" xr:uid="{220494F4-3A40-474E-BDDF-D1A19080F6EB}"/>
     <hyperlink ref="C27" r:id="rId193" xr:uid="{336D2BFE-AE7C-43CD-B70D-41AC31D490AD}"/>
-    <hyperlink ref="C84" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
-    <hyperlink ref="C226" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
+    <hyperlink ref="C85" r:id="rId194" xr:uid="{701E9392-EE90-4401-B715-EA4BA0555200}"/>
+    <hyperlink ref="C228" r:id="rId195" xr:uid="{6FC4F876-ECF6-481E-B75E-6A792DE91C2C}"/>
     <hyperlink ref="C28" r:id="rId196" xr:uid="{EA5B730A-0B86-4C08-897F-78F1729E0FFC}"/>
-    <hyperlink ref="C157" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
-    <hyperlink ref="C188" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
-    <hyperlink ref="C189" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
-    <hyperlink ref="C190" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
+    <hyperlink ref="C159" r:id="rId197" xr:uid="{53BFE466-51E6-4267-AD9E-06CE9007EC27}"/>
+    <hyperlink ref="C190" r:id="rId198" xr:uid="{4C9A9458-C4E0-4E5A-8109-C1833B752B78}"/>
+    <hyperlink ref="C191" r:id="rId199" xr:uid="{5EEF8E01-2608-4F7E-A3DF-6C44958D0223}"/>
+    <hyperlink ref="C192" r:id="rId200" xr:uid="{6F0CFD36-8994-4312-897F-89C6476A73C6}"/>
     <hyperlink ref="C29" r:id="rId201" xr:uid="{5BDB0628-CED6-4311-85CE-11F31CB5B7E9}"/>
     <hyperlink ref="C18" r:id="rId202" xr:uid="{C16F3FE6-B260-4938-9C4C-4265EF6E820D}"/>
-    <hyperlink ref="C85" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
-    <hyperlink ref="C38" r:id="rId204" xr:uid="{F70E5659-BCAD-42E1-A1F7-4C6A2E9FF41A}"/>
+    <hyperlink ref="C86" r:id="rId203" xr:uid="{0C05944F-8B85-43CF-821B-3B9863E9E993}"/>
+    <hyperlink ref="C39" r:id="rId204" xr:uid="{F70E5659-BCAD-42E1-A1F7-4C6A2E9FF41A}"/>
     <hyperlink ref="C30" r:id="rId205" xr:uid="{4446C40F-D4D9-47F3-8A01-74ECD5AE3A76}"/>
     <hyperlink ref="C31" r:id="rId206" xr:uid="{A45C9945-E4AD-4FFF-A5CC-B44B40B3EB01}"/>
-    <hyperlink ref="C227" r:id="rId207" xr:uid="{763FB36A-11F1-4FAE-B153-4A96B6C2221C}"/>
-    <hyperlink ref="C39" r:id="rId208" xr:uid="{50076181-691E-4A50-8904-59B839E7F8F7}"/>
-    <hyperlink ref="C53" r:id="rId209" xr:uid="{9833A85F-FFDD-4219-8796-8875BFF90C12}"/>
-    <hyperlink ref="C109" r:id="rId210" xr:uid="{7FB742AA-12C9-4B22-A123-73E47822BA5C}"/>
-    <hyperlink ref="C110" r:id="rId211" xr:uid="{7F1BBD39-7052-4089-8139-3924CA683145}"/>
-    <hyperlink ref="C86" r:id="rId212" xr:uid="{175C55D0-BBC5-4287-B8F7-0D722F9E5F5D}"/>
-    <hyperlink ref="C127" r:id="rId213" xr:uid="{3DAA53A4-E435-46EA-8822-1F0AEFF46027}"/>
-    <hyperlink ref="C111" r:id="rId214" xr:uid="{49DE2C7A-26CB-418B-B2D6-BF1F3ED8A010}"/>
-    <hyperlink ref="C191" r:id="rId215" xr:uid="{B3D735D5-E41B-4DAE-8F0F-9E1151ABD438}"/>
-    <hyperlink ref="C200" r:id="rId216" xr:uid="{B722ACF7-32A1-43BB-8AF1-C2A85D354C28}"/>
+    <hyperlink ref="C229" r:id="rId207" xr:uid="{763FB36A-11F1-4FAE-B153-4A96B6C2221C}"/>
+    <hyperlink ref="C40" r:id="rId208" xr:uid="{50076181-691E-4A50-8904-59B839E7F8F7}"/>
+    <hyperlink ref="C54" r:id="rId209" xr:uid="{9833A85F-FFDD-4219-8796-8875BFF90C12}"/>
+    <hyperlink ref="C111" r:id="rId210" xr:uid="{7FB742AA-12C9-4B22-A123-73E47822BA5C}"/>
+    <hyperlink ref="C112" r:id="rId211" xr:uid="{7F1BBD39-7052-4089-8139-3924CA683145}"/>
+    <hyperlink ref="C87" r:id="rId212" xr:uid="{175C55D0-BBC5-4287-B8F7-0D722F9E5F5D}"/>
+    <hyperlink ref="C129" r:id="rId213" xr:uid="{3DAA53A4-E435-46EA-8822-1F0AEFF46027}"/>
+    <hyperlink ref="C113" r:id="rId214" xr:uid="{49DE2C7A-26CB-418B-B2D6-BF1F3ED8A010}"/>
+    <hyperlink ref="C193" r:id="rId215" xr:uid="{B3D735D5-E41B-4DAE-8F0F-9E1151ABD438}"/>
+    <hyperlink ref="C202" r:id="rId216" xr:uid="{B722ACF7-32A1-43BB-8AF1-C2A85D354C28}"/>
     <hyperlink ref="C32" r:id="rId217" xr:uid="{11E1CDEA-1958-4D7D-A0C4-49BF7CA8B6CC}"/>
-    <hyperlink ref="C260" r:id="rId218" xr:uid="{C388917B-89BC-4253-BA97-54886E61B49F}"/>
-    <hyperlink ref="C261" r:id="rId219" xr:uid="{D5B7C314-3C70-441F-B3EB-49A536D70927}"/>
+    <hyperlink ref="C262" r:id="rId218" xr:uid="{C388917B-89BC-4253-BA97-54886E61B49F}"/>
+    <hyperlink ref="C263" r:id="rId219" xr:uid="{D5B7C314-3C70-441F-B3EB-49A536D70927}"/>
+    <hyperlink ref="C105" r:id="rId220" xr:uid="{D678C973-7824-4A98-8CEC-EB3CEC11DA0D}"/>
+    <hyperlink ref="C270" r:id="rId221" xr:uid="{77F8BABE-DA82-4F82-A596-A7B0DCB62A31}"/>
+    <hyperlink ref="C33" r:id="rId222" xr:uid="{B3CABBD6-BC6A-4FD0-B457-B0B2A1E7AE0B}"/>
+    <hyperlink ref="C55" r:id="rId223" xr:uid="{8B0FBCD7-E397-4BA7-BE62-F3FCF6CA8C9B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId220"/>
+  <pageSetup orientation="portrait" r:id="rId224"/>
 </worksheet>
 </file>